--- a/Quests.xlsx
+++ b/Quests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\My Games\Minecraft Server\Craft to Exile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390EAD9A-3AB1-475E-BEED-87AE490964A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160B9D97-9E55-4198-B929-637D46D971B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38625" yWindow="3270" windowWidth="28275" windowHeight="13890" activeTab="5" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15885" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="The End" sheetId="5" r:id="rId4"/>
     <sheet name="Good Night's Sleep" sheetId="7" r:id="rId5"/>
     <sheet name="Midnight" sheetId="8" r:id="rId6"/>
+    <sheet name="Work From Home" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="311">
   <si>
     <t>Quest</t>
   </si>
@@ -92,9 +93,6 @@
     <t>Getting Stronger</t>
   </si>
   <si>
-    <t>8 Zombies, 4 Skeletons, 2 Creepers</t>
-  </si>
-  <si>
     <t>1 Iron Sword</t>
   </si>
   <si>
@@ -242,9 +240,6 @@
     <t>4 TPs</t>
   </si>
   <si>
-    <t>I'm The Map</t>
-  </si>
-  <si>
     <t>1 Map Station</t>
   </si>
   <si>
@@ -359,9 +354,6 @@
     <t>End Of An Era</t>
   </si>
   <si>
-    <t>1 Legendary Big Currency, 1 of each reset pot</t>
-  </si>
-  <si>
     <t>2 Shulker Shell</t>
   </si>
   <si>
@@ -386,9 +378,6 @@
     <t>3 Wither Skele Skulls</t>
   </si>
   <si>
-    <t>3 Epic Ore</t>
-  </si>
-  <si>
     <t>1 Wither</t>
   </si>
   <si>
@@ -732,13 +721,262 @@
   </si>
   <si>
     <t>Unpleasantries</t>
+  </si>
+  <si>
+    <t>Optimization Algorithms</t>
+  </si>
+  <si>
+    <t>ITEM_CRAFT</t>
+  </si>
+  <si>
+    <t>1 rare capacitor</t>
+  </si>
+  <si>
+    <t>3 rare ores, 1 small currency epic</t>
+  </si>
+  <si>
+    <t>The Master Bag</t>
+  </si>
+  <si>
+    <t>1 master bag</t>
+  </si>
+  <si>
+    <t>1 large currency legendary</t>
+  </si>
+  <si>
+    <t>Beastiary II</t>
+  </si>
+  <si>
+    <t>Beastiary I</t>
+  </si>
+  <si>
+    <t>Beastiary III</t>
+  </si>
+  <si>
+    <t>Beastiary IV</t>
+  </si>
+  <si>
+    <t>Beastiary V</t>
+  </si>
+  <si>
+    <t>Beastiary VI</t>
+  </si>
+  <si>
+    <t>1 large currency epic</t>
+  </si>
+  <si>
+    <t>5 large currency legendary</t>
+  </si>
+  <si>
+    <t>A Recipe For Disaster</t>
+  </si>
+  <si>
+    <t>Upgrading Your Kitchen</t>
+  </si>
+  <si>
+    <t>What's The Date?</t>
+  </si>
+  <si>
+    <t>1 Calendar</t>
+  </si>
+  <si>
+    <t>1 Oven</t>
+  </si>
+  <si>
+    <t>1 Cheese</t>
+  </si>
+  <si>
+    <t>Milkin' It</t>
+  </si>
+  <si>
+    <t>Gouda Job!</t>
+  </si>
+  <si>
+    <t>1 Bucket of Milk</t>
+  </si>
+  <si>
+    <t>6 Zombies, 2 Skeletons, 1 Creepers</t>
+  </si>
+  <si>
+    <t>I Can't Carry Anymore</t>
+  </si>
+  <si>
+    <t>1 small backpack</t>
+  </si>
+  <si>
+    <t>3 diamonds</t>
+  </si>
+  <si>
+    <t>Food Storage</t>
+  </si>
+  <si>
+    <t>Your Engineering Degree</t>
+  </si>
+  <si>
+    <t>1 cooking for blockheads 1</t>
+  </si>
+  <si>
+    <t>The Possibilities!</t>
+  </si>
+  <si>
+    <t>1 no filter ed recipe book</t>
+  </si>
+  <si>
+    <t>Back To The Chopping Board</t>
+  </si>
+  <si>
+    <t>1 Cooking Table</t>
+  </si>
+  <si>
+    <t>1 Kitchen Cabinet</t>
+  </si>
+  <si>
+    <t>1 engineering manual</t>
+  </si>
+  <si>
+    <t>4 sweet potato seed, 4 pea seed, 1 small currency epic</t>
+  </si>
+  <si>
+    <t>5 bottles, 1 small currency epic</t>
+  </si>
+  <si>
+    <t>1 Hamburger, 1 small currency epic</t>
+  </si>
+  <si>
+    <t>1 Kitchen Counter, 1 small currency epic</t>
+  </si>
+  <si>
+    <t>8 honeydew seed, 1 small currency epic</t>
+  </si>
+  <si>
+    <t>3 iron block, 1 small currency epic</t>
+  </si>
+  <si>
+    <t>3 Cheese, 1 small currency epic</t>
+  </si>
+  <si>
+    <t>1 Spice Rack, 1 small currency epic</t>
+  </si>
+  <si>
+    <t>1 iron block, 1 small currency epic</t>
+  </si>
+  <si>
+    <t>Zoatar</t>
+  </si>
+  <si>
+    <t>Cockatrice</t>
+  </si>
+  <si>
+    <t>Ignibus</t>
+  </si>
+  <si>
+    <t>Remobra</t>
+  </si>
+  <si>
+    <t>Uvaraptor</t>
+  </si>
+  <si>
+    <t>Morock</t>
+  </si>
+  <si>
+    <t>Stick To The Basics</t>
+  </si>
+  <si>
+    <t>Rock On!</t>
+  </si>
+  <si>
+    <t>Tenebrum</t>
+  </si>
+  <si>
+    <t>Pitch Black</t>
+  </si>
+  <si>
+    <t>Midnight Rifts</t>
+  </si>
+  <si>
+    <t>Rift Seeker</t>
+  </si>
+  <si>
+    <t>Richard Rider</t>
+  </si>
+  <si>
+    <t>This Ain't The Bumblezone!</t>
+  </si>
+  <si>
+    <t>From The Shadows</t>
+  </si>
+  <si>
+    <t>64 Shroom Clumps</t>
+  </si>
+  <si>
+    <t>64 Dark Sticks</t>
+  </si>
+  <si>
+    <t>32 Tenebrum Ingots</t>
+  </si>
+  <si>
+    <t>32 Nagrilite Ingots</t>
+  </si>
+  <si>
+    <t>Obsidian?</t>
+  </si>
+  <si>
+    <t>64 Nightstone</t>
+  </si>
+  <si>
+    <t>48 Ebonite</t>
+  </si>
+  <si>
+    <t>20 rifter</t>
+  </si>
+  <si>
+    <t>20 nova</t>
+  </si>
+  <si>
+    <t>20 stinger</t>
+  </si>
+  <si>
+    <t>20 skulk</t>
+  </si>
+  <si>
+    <t>End Game</t>
+  </si>
+  <si>
+    <t>97,98,99,100, 105</t>
+  </si>
+  <si>
+    <t>1 Diamond Block</t>
+  </si>
+  <si>
+    <t>/slash give map @p 80 random 4 5 5</t>
+  </si>
+  <si>
+    <t>1 small gear legendary</t>
+  </si>
+  <si>
+    <t>3 Legendary Ore</t>
+  </si>
+  <si>
+    <t>REMOVE I'm The Map</t>
+  </si>
+  <si>
+    <t>1 Legendary Big Currency, 1 of each reset pot, dragon scale</t>
+  </si>
+  <si>
+    <t>Mapping Device</t>
+  </si>
+  <si>
+    <t>1 Mapping Device</t>
+  </si>
+  <si>
+    <t>/slash give map @p 80 random 0 0 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,8 +1004,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -822,6 +1067,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -844,7 +1095,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -853,16 +1104,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,8 +1131,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCCCFF"/>
       <color rgb="FF9966FF"/>
-      <color rgb="FFCCCCFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1004,43 +1264,43 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>50</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>100</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>100</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1082,31 +1342,31 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>200</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>200</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>200</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>200</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>250</c:v>
@@ -1118,7 +1378,7 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2194,6 +2454,9 @@
                 <c:pt idx="9">
                   <c:v>150</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2231,6 +2494,9 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -2939,6 +3205,39 @@
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2951,6 +3250,39 @@
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2958,6 +3290,413 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-62C5-44DF-867E-97C348F403DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="532503896"/>
+        <c:axId val="532504224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="532503896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532504224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="532504224"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532503896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Work From Home'!$H$2:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Work From Home'!$I$2:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-71B6-4548-A94C-7FCB61ABF781}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3394,6 +4133,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
@@ -5905,6 +6684,508 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6662,6 +7943,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74505596-157D-4569-BDF6-B502DFB52179}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6964,8 +8288,8 @@
   </sheetPr>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7010,7 +8334,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -7074,10 +8398,10 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G4" s="2">
         <v>750</v>
@@ -7091,7 +8415,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
@@ -7100,10 +8424,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>15</v>
@@ -7120,7 +8444,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
@@ -7132,10 +8456,10 @@
         <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2">
         <v>500</v>
@@ -7149,7 +8473,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
@@ -7161,10 +8485,10 @@
         <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G7" s="2">
         <v>1000</v>
@@ -7178,7 +8502,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
@@ -7190,10 +8514,10 @@
         <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G8" s="2">
         <v>2000</v>
@@ -7207,7 +8531,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2">
         <v>7</v>
@@ -7219,10 +8543,10 @@
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="G9" s="2">
         <v>3000</v>
@@ -7236,7 +8560,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2">
         <v>8</v>
@@ -7248,10 +8572,10 @@
         <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="G10" s="2">
         <v>5000</v>
@@ -7265,7 +8589,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2">
         <v>9</v>
@@ -7277,10 +8601,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="G11" s="2">
         <v>6000</v>
@@ -7293,389 +8617,390 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="4">
-        <v>17</v>
-      </c>
-      <c r="C12" s="4">
-        <v>18</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="A12" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12" s="24">
+        <v>20</v>
+      </c>
+      <c r="C12" s="24">
+        <v>8</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1500</v>
-      </c>
-      <c r="H12" s="4">
-        <v>50</v>
-      </c>
-      <c r="I12" s="11">
-        <v>150</v>
+      <c r="E12" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="24">
+        <v>8000</v>
+      </c>
+      <c r="H12" s="24">
+        <v>200</v>
+      </c>
+      <c r="I12" s="24">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="4">
-        <v>18</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="A13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="6">
+        <v>42</v>
+      </c>
+      <c r="C13" s="6">
         <v>0</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1000</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="E13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H13" s="6">
         <v>0</v>
       </c>
-      <c r="I13" s="11">
-        <v>150</v>
+      <c r="I13" s="10">
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="4">
-        <v>19</v>
-      </c>
-      <c r="C14" s="4">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="A14" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="6">
+        <v>43</v>
+      </c>
+      <c r="C14" s="6">
+        <v>42</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="E14" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="6">
         <v>4000</v>
       </c>
-      <c r="H14" s="4">
-        <v>100</v>
-      </c>
-      <c r="I14" s="11">
-        <v>150</v>
+      <c r="H14" s="6">
+        <v>50</v>
+      </c>
+      <c r="I14" s="10">
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="2">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="A15" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="15">
+        <v>44</v>
+      </c>
+      <c r="C15" s="15">
+        <v>43</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="2">
-        <v>8000</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="E15" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H15" s="15">
+        <v>100</v>
+      </c>
+      <c r="I15" s="16">
         <v>200</v>
-      </c>
-      <c r="I15" s="12">
-        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="5">
-        <v>24</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="5">
-        <v>500</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="13">
-        <v>200</v>
+      <c r="A16" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" s="8">
+        <v>79</v>
+      </c>
+      <c r="C16" s="8">
+        <v>6</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G16" s="8">
+        <v>4000</v>
+      </c>
+      <c r="H16" s="8">
+        <v>50</v>
+      </c>
+      <c r="I16" s="17">
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="5">
-        <v>25</v>
-      </c>
-      <c r="C17" s="5">
-        <v>24</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="A17" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" s="8">
+        <v>80</v>
+      </c>
+      <c r="C17" s="8">
+        <v>9</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1000</v>
-      </c>
-      <c r="H17" s="5">
-        <v>50</v>
-      </c>
-      <c r="I17" s="13">
+      <c r="E17" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="G17" s="8">
+        <v>25000</v>
+      </c>
+      <c r="H17" s="8">
         <v>200</v>
       </c>
+      <c r="I17" s="17">
+        <v>150</v>
+      </c>
       <c r="K17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="5">
-        <v>26</v>
-      </c>
-      <c r="C18" s="5">
-        <v>25</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="5">
-        <v>2000</v>
-      </c>
-      <c r="H18" s="5">
-        <v>100</v>
-      </c>
-      <c r="I18" s="13">
-        <v>200</v>
+      <c r="A18" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" s="8">
+        <v>81</v>
+      </c>
+      <c r="C18" s="8">
+        <v>36</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="G18" s="8">
+        <v>2000000</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
+      <c r="I18" s="17">
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="5">
-        <v>27</v>
-      </c>
-      <c r="C19" s="5">
-        <v>26</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="A19" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" s="8">
         <v>82</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="5">
-        <v>4000</v>
-      </c>
-      <c r="H19" s="5">
-        <v>150</v>
-      </c>
-      <c r="I19" s="13">
-        <v>200</v>
+      <c r="C19" s="8">
+        <v>36</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="G19" s="8">
+        <v>2000000</v>
+      </c>
+      <c r="H19" s="8">
+        <v>50</v>
+      </c>
+      <c r="I19" s="17">
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="5">
-        <v>28</v>
-      </c>
-      <c r="C20" s="5">
-        <v>27</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="5">
-        <v>21000</v>
-      </c>
-      <c r="H20" s="5">
-        <v>200</v>
-      </c>
-      <c r="I20" s="13">
-        <v>200</v>
+      <c r="A20" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20" s="8">
+        <v>83</v>
+      </c>
+      <c r="C20" s="8">
+        <v>36</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="G20" s="8">
+        <v>2000000</v>
+      </c>
+      <c r="H20" s="8">
+        <v>100</v>
+      </c>
+      <c r="I20" s="17">
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="6">
-        <v>42</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G21" s="6">
-        <v>2000</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-      <c r="I21" s="14">
+      <c r="A21" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" s="8">
+        <v>84</v>
+      </c>
+      <c r="C21" s="8">
+        <v>36</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="G21" s="8">
+        <v>2000000</v>
+      </c>
+      <c r="H21" s="8">
+        <v>150</v>
+      </c>
+      <c r="I21" s="17">
         <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" s="6">
-        <v>43</v>
-      </c>
-      <c r="C22" s="6">
-        <v>42</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G22" s="6">
-        <v>4000</v>
-      </c>
-      <c r="H22" s="6">
-        <v>50</v>
-      </c>
-      <c r="I22" s="14">
+      <c r="A22" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" s="8">
+        <v>85</v>
+      </c>
+      <c r="C22" s="8">
+        <v>36</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="G22" s="8">
+        <v>2000000</v>
+      </c>
+      <c r="H22" s="8">
+        <v>200</v>
+      </c>
+      <c r="I22" s="17">
         <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B23" s="6">
-        <v>44</v>
-      </c>
-      <c r="C23" s="6">
-        <v>43</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" s="6">
-        <v>16000</v>
-      </c>
-      <c r="H23" s="6">
-        <v>100</v>
-      </c>
-      <c r="I23" s="14">
+      <c r="A23" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B23" s="8">
+        <v>86</v>
+      </c>
+      <c r="C23" s="8">
+        <v>36</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="G23" s="8">
+        <v>2000000</v>
+      </c>
+      <c r="H23" s="8">
+        <v>250</v>
+      </c>
+      <c r="I23" s="17">
         <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="B24" s="8">
-        <v>47</v>
-      </c>
-      <c r="C24" s="8">
-        <v>19</v>
+        <v>95</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>214</v>
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>254</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="G24" s="8">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="H24" s="8">
-        <v>100</v>
-      </c>
-      <c r="I24" s="8">
-        <v>100</v>
+        <v>250</v>
+      </c>
+      <c r="I24" s="17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I23">
     <sortCondition ref="B2:B23"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7689,7 +9014,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7728,7 +9053,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -7737,13 +9062,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2">
         <v>11000</v>
@@ -7757,7 +9082,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -7769,10 +9094,10 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
         <v>54</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
       </c>
       <c r="G3">
         <v>16000</v>
@@ -7786,7 +9111,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -7798,10 +9123,10 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
         <v>57</v>
-      </c>
-      <c r="F4" t="s">
-        <v>58</v>
       </c>
       <c r="G4">
         <v>30000</v>
@@ -7815,7 +9140,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>13</v>
@@ -7827,10 +9152,10 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5">
         <v>28000</v>
@@ -7844,7 +9169,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -7853,13 +9178,13 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6">
         <v>37500</v>
@@ -7872,37 +9197,37 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="11">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11">
+        <v>14</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="15">
-        <v>15</v>
-      </c>
-      <c r="C7" s="15">
-        <v>14</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="15">
+      <c r="G7" s="11">
         <v>45000</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="11">
         <v>200</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B8" s="2">
         <v>45</v>
@@ -7911,13 +9236,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G8" s="2">
         <v>35000</v>
@@ -7931,7 +9256,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B9" s="7">
         <v>46</v>
@@ -7943,10 +9268,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G9" s="7">
         <v>37500</v>
@@ -7960,7 +9285,7 @@
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -7977,7 +9302,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8016,7 +9341,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>16</v>
@@ -8028,10 +9353,10 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
         <v>66</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
       </c>
       <c r="G2">
         <v>52000</v>
@@ -8045,7 +9370,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3">
         <v>21</v>
@@ -8054,13 +9379,13 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G3">
         <v>50000</v>
@@ -8074,7 +9399,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>22</v>
@@ -8083,13 +9408,13 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G4">
         <v>62500</v>
@@ -8103,7 +9428,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5">
         <v>23</v>
@@ -8112,13 +9437,13 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G5">
         <v>75000</v>
@@ -8132,7 +9457,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B6">
         <v>29</v>
@@ -8144,10 +9469,10 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G6">
         <v>65000</v>
@@ -8161,7 +9486,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B7">
         <v>30</v>
@@ -8170,13 +9495,13 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G7">
         <v>75000</v>
@@ -8190,7 +9515,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B8">
         <v>31</v>
@@ -8202,10 +9527,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>305</v>
       </c>
       <c r="G8">
         <v>87500</v>
@@ -8219,7 +9544,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B9">
         <v>32</v>
@@ -8231,10 +9556,10 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" t="s">
         <v>117</v>
-      </c>
-      <c r="F9" t="s">
-        <v>121</v>
       </c>
       <c r="G9">
         <v>150000</v>
@@ -8248,22 +9573,22 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B10">
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G10">
         <v>92500</v>
@@ -8276,50 +9601,52 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="16">
+      <c r="A11" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="12">
         <v>34</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="12">
         <v>32</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16">
+      <c r="E11" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="12">
         <v>100000</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="12">
         <v>250</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B12" s="2">
         <v>48</v>
       </c>
-      <c r="C12" s="2">
-        <v>15</v>
+      <c r="C12" s="24">
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G12" s="2">
         <v>35000</v>
@@ -8333,22 +9660,22 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B13" s="2">
         <v>49</v>
       </c>
-      <c r="C13" s="2">
-        <v>15</v>
+      <c r="C13" s="24">
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G13" s="2">
         <v>25000</v>
@@ -8362,22 +9689,22 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B14" s="2">
         <v>50</v>
       </c>
-      <c r="C14" s="2">
-        <v>15</v>
+      <c r="C14" s="24">
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G14" s="2">
         <v>30000</v>
@@ -8391,22 +9718,22 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B15" s="2">
         <v>51</v>
       </c>
-      <c r="C15" s="2">
-        <v>15</v>
+      <c r="C15" s="24">
+        <v>36</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G15" s="2">
         <v>32500</v>
@@ -8420,22 +9747,22 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B16" s="2">
         <v>52</v>
       </c>
-      <c r="C16" s="2">
-        <v>15</v>
+      <c r="C16" s="24">
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G16" s="2">
         <v>35000</v>
@@ -8449,22 +9776,22 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B17" s="2">
         <v>53</v>
       </c>
-      <c r="C17" s="2">
-        <v>15</v>
+      <c r="C17" s="24">
+        <v>36</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G17" s="2">
         <v>30000</v>
@@ -8476,27 +9803,27 @@
         <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B18" s="2">
         <v>54</v>
       </c>
-      <c r="C18" s="2">
-        <v>15</v>
+      <c r="C18" s="24">
+        <v>36</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G18" s="2">
         <v>35000</v>
@@ -8510,22 +9837,22 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B19" s="7">
         <v>55</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G19" s="7">
         <v>100000</v>
@@ -8552,7 +9879,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8591,7 +9918,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2">
         <v>35</v>
@@ -8600,13 +9927,13 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2">
         <v>125000</v>
@@ -8620,7 +9947,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B3">
         <v>36</v>
@@ -8632,10 +9959,10 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" t="s">
-        <v>107</v>
+        <v>103</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>307</v>
       </c>
       <c r="G3">
         <v>500000</v>
@@ -8649,7 +9976,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>37</v>
@@ -8661,10 +9988,10 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G4">
         <v>135000</v>
@@ -8678,7 +10005,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B5">
         <v>38</v>
@@ -8690,10 +10017,10 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G5">
         <v>142500</v>
@@ -8706,37 +10033,37 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="17">
+      <c r="A6" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="13">
         <v>39</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="13">
         <v>38</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="17">
+      <c r="E6" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="13">
         <v>150000</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="13">
         <v>200</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B7" s="2">
         <v>56</v>
@@ -8748,10 +10075,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G7" s="2">
         <v>67500</v>
@@ -8765,7 +10092,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B8" s="2">
         <v>57</v>
@@ -8777,10 +10104,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G8" s="2">
         <v>75000</v>
@@ -8794,7 +10121,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B9" s="2">
         <v>58</v>
@@ -8806,10 +10133,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="G9" s="2">
         <v>77500</v>
@@ -8823,7 +10150,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B10" s="2">
         <v>59</v>
@@ -8835,10 +10162,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G10" s="2">
         <v>70000</v>
@@ -8852,7 +10179,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B11" s="7">
         <v>60</v>
@@ -8864,10 +10191,10 @@
         <v>13</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G11" s="7">
         <v>100000</v>
@@ -8876,12 +10203,41 @@
         <v>150</v>
       </c>
       <c r="I11" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" s="8">
+        <v>107</v>
+      </c>
+      <c r="C12" s="8">
+        <v>36</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G12" s="8">
+        <v>50000</v>
+      </c>
+      <c r="H12" s="8">
+        <v>50</v>
+      </c>
+      <c r="I12" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -8899,7 +10255,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8938,7 +10294,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -8947,13 +10303,13 @@
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G2">
         <v>155000</v>
@@ -8967,7 +10323,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B3" s="2">
         <v>41</v>
@@ -8976,13 +10332,13 @@
         <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G3" s="2">
         <v>155000</v>
@@ -8990,13 +10346,13 @@
       <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="9">
         <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B4" s="2">
         <v>61</v>
@@ -9008,10 +10364,10 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G4" s="2">
         <v>175000</v>
@@ -9025,7 +10381,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B5" s="2">
         <v>62</v>
@@ -9034,13 +10390,13 @@
         <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G5" s="2">
         <v>250000</v>
@@ -9054,7 +10410,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B6" s="2">
         <v>63</v>
@@ -9066,10 +10422,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G6" s="2">
         <v>300000</v>
@@ -9083,7 +10439,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B7" s="2">
         <v>64</v>
@@ -9092,13 +10448,13 @@
         <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G7" s="2">
         <v>275000</v>
@@ -9112,7 +10468,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B8" s="2">
         <v>65</v>
@@ -9121,13 +10477,13 @@
         <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G8" s="2">
         <v>325000</v>
@@ -9141,7 +10497,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B9" s="2">
         <v>66</v>
@@ -9150,13 +10506,13 @@
         <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G9" s="2">
         <v>450000</v>
@@ -9170,7 +10526,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B10" s="2">
         <v>67</v>
@@ -9182,10 +10538,10 @@
         <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G10" s="2">
         <v>200000</v>
@@ -9199,7 +10555,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B11" s="2">
         <v>68</v>
@@ -9211,10 +10567,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G11" s="2">
         <v>225000</v>
@@ -9227,266 +10583,266 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B12" s="7">
+      <c r="A12" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" s="2">
         <v>69</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="2">
         <v>68</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="E12" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" s="2">
         <v>250000</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="2">
         <v>50</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="2">
         <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13">
+      <c r="A13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="2">
         <v>70</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>41</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F13" t="s">
-        <v>191</v>
-      </c>
-      <c r="G13">
+      <c r="E13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" s="2">
         <v>200000</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>50</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>195</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="2">
         <v>71</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>70</v>
       </c>
-      <c r="D14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" t="s">
-        <v>196</v>
-      </c>
-      <c r="F14" t="s">
-        <v>191</v>
-      </c>
-      <c r="G14">
+      <c r="D14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="2">
         <v>275000</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>100</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>229</v>
-      </c>
-      <c r="B15">
+      <c r="A15" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" s="2">
         <v>72</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>71</v>
       </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" t="s">
-        <v>204</v>
-      </c>
-      <c r="F15" t="s">
-        <v>191</v>
-      </c>
-      <c r="G15">
+      <c r="D15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G15" s="2">
         <v>325000</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <v>100</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>197</v>
-      </c>
-      <c r="B16">
+      <c r="A16" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="2">
         <v>73</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>72</v>
       </c>
-      <c r="D16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" t="s">
-        <v>203</v>
-      </c>
-      <c r="F16" t="s">
-        <v>191</v>
-      </c>
-      <c r="G16">
+      <c r="D16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" s="2">
         <v>425000</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <v>150</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="2">
+        <v>74</v>
+      </c>
+      <c r="C17" s="2">
+        <v>73</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B17">
-        <v>74</v>
-      </c>
-      <c r="C17">
-        <v>73</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" t="s">
-        <v>202</v>
-      </c>
-      <c r="F17" t="s">
-        <v>192</v>
-      </c>
-      <c r="G17">
+      <c r="F17" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="2">
         <v>550000</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2">
         <v>200</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <v>250</v>
       </c>
       <c r="K17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B18">
+      <c r="A18" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="2">
         <v>75</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>71</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E18" t="s">
-        <v>208</v>
-      </c>
-      <c r="F18" t="s">
-        <v>166</v>
-      </c>
-      <c r="G18">
+      <c r="E18" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" s="2">
         <v>400000</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <v>150</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>231</v>
-      </c>
-      <c r="B19">
+      <c r="A19" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B19" s="2">
         <v>76</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>75</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E19" t="s">
-        <v>209</v>
-      </c>
-      <c r="F19" t="s">
-        <v>210</v>
-      </c>
-      <c r="G19">
+      <c r="E19" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G19" s="2">
         <v>500000</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <v>150</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="B20" s="9">
+      <c r="A20" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B20" s="14">
         <v>77</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" s="9">
+      <c r="E20" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="G20" s="14">
         <v>250000</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="14">
         <v>200</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="14">
         <v>150</v>
       </c>
     </row>
@@ -9505,8 +10861,8 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9544,48 +10900,933 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="7">
         <v>78</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="7">
         <v>77</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="10">
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="25">
         <v>450000</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="7">
         <v>0</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="2">
+        <v>97</v>
+      </c>
+      <c r="C3" s="2">
+        <v>78</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G3" s="2">
+        <v>625000</v>
+      </c>
+      <c r="H3" s="2">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4">
+        <v>98</v>
+      </c>
+      <c r="C4">
+        <v>78</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4" s="2">
+        <v>625000</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B5" s="2">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2">
+        <v>78</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="2">
+        <v>625000</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>78</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G6" s="2">
+        <v>625000</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="2">
+        <v>101</v>
+      </c>
+      <c r="C7" s="2">
+        <v>78</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="G7" s="8">
+        <v>500000</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8">
+        <v>102</v>
+      </c>
+      <c r="C8" s="8">
+        <v>101</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>294</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="G8" s="8">
+        <v>500000</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" s="2">
+        <v>103</v>
+      </c>
+      <c r="C9" s="8">
+        <v>102</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="G9" s="8">
+        <v>500000</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10">
+        <v>104</v>
+      </c>
+      <c r="C10" s="8">
+        <v>103</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>295</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="G10" s="8">
+        <v>500000</v>
+      </c>
+      <c r="H10">
+        <v>150</v>
+      </c>
+      <c r="I10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" s="2">
+        <v>105</v>
+      </c>
+      <c r="C11" s="8">
+        <v>104</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>292</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="G11" s="8">
+        <v>500000</v>
+      </c>
+      <c r="H11">
+        <v>200</v>
+      </c>
+      <c r="I11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B12">
+        <v>106</v>
+      </c>
+      <c r="C12" s="8">
+        <v>105</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>291</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="G12" s="8">
+        <v>500000</v>
+      </c>
+      <c r="H12">
+        <v>250</v>
+      </c>
+      <c r="I12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="H13">
+        <v>150</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>143</v>
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A988A5D5-F790-4A81-8EDB-AEAE24F79C81}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1500</v>
+      </c>
+      <c r="H2" s="21">
+        <v>50</v>
+      </c>
+      <c r="I2" s="21">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="4">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="21">
+        <v>0</v>
+      </c>
+      <c r="I3" s="21">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="4">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="4">
+        <v>4000</v>
+      </c>
+      <c r="H4" s="21">
+        <v>100</v>
+      </c>
+      <c r="I4" s="21">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="4">
+        <v>47</v>
+      </c>
+      <c r="C5" s="4">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H5" s="21">
+        <v>150</v>
+      </c>
+      <c r="I5" s="21">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="5">
+        <v>500</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0</v>
+      </c>
+      <c r="I6" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="5">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="22">
+        <v>50</v>
+      </c>
+      <c r="I7" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="5">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2000</v>
+      </c>
+      <c r="H8" s="22">
+        <v>100</v>
+      </c>
+      <c r="I8" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="5">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H9" s="22">
+        <v>150</v>
+      </c>
+      <c r="I9" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="5">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5">
+        <v>27</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="5">
+        <v>21000</v>
+      </c>
+      <c r="H10" s="22">
+        <v>200</v>
+      </c>
+      <c r="I10" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" s="18">
+        <v>87</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="G11" s="19">
+        <v>500</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0</v>
+      </c>
+      <c r="I11" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" s="18">
+        <v>88</v>
+      </c>
+      <c r="C12" s="18">
+        <v>87</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G12" s="19">
+        <v>500</v>
+      </c>
+      <c r="H12" s="19">
+        <v>50</v>
+      </c>
+      <c r="I12" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" s="18">
+        <v>89</v>
+      </c>
+      <c r="C13" s="18">
+        <v>88</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="G13" s="19">
+        <v>500</v>
+      </c>
+      <c r="H13" s="19">
+        <v>100</v>
+      </c>
+      <c r="I13" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="18">
+        <v>90</v>
+      </c>
+      <c r="C14" s="18">
+        <v>89</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="G14" s="19">
+        <v>500</v>
+      </c>
+      <c r="H14" s="19">
+        <v>150</v>
+      </c>
+      <c r="I14" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="18">
+        <v>91</v>
+      </c>
+      <c r="C15" s="18">
+        <v>90</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="G15" s="19">
+        <v>500</v>
+      </c>
+      <c r="H15" s="19">
+        <v>200</v>
+      </c>
+      <c r="I15" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="B16" s="18">
+        <v>92</v>
+      </c>
+      <c r="C16" s="18">
+        <v>91</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16" s="19">
+        <v>500</v>
+      </c>
+      <c r="H16" s="19">
+        <v>250</v>
+      </c>
+      <c r="I16" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="B17" s="18">
+        <v>93</v>
+      </c>
+      <c r="C17" s="18">
+        <v>90</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="G17" s="19">
+        <v>500</v>
+      </c>
+      <c r="H17" s="19">
+        <v>200</v>
+      </c>
+      <c r="I17" s="19">
+        <v>50</v>
+      </c>
+      <c r="K17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="B18" s="18">
+        <v>94</v>
+      </c>
+      <c r="C18" s="18">
+        <v>92</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="G18" s="19">
+        <v>500</v>
+      </c>
+      <c r="H18" s="19">
+        <v>300</v>
+      </c>
+      <c r="I18" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B19" s="6">
+        <v>96</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="G19" s="20">
+        <v>500</v>
+      </c>
+      <c r="H19" s="20">
+        <v>0</v>
+      </c>
+      <c r="I19" s="20">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Quests.xlsx
+++ b/Quests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160B9D97-9E55-4198-B929-637D46D971B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C077415-F9BA-4524-AC2D-BAAF992DF530}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15885" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="39855" yWindow="3225" windowWidth="26985" windowHeight="15075" activeTab="1" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="310">
   <si>
     <t>Quest</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Getting Stronger</t>
   </si>
   <si>
-    <t>1 Iron Sword</t>
-  </si>
-  <si>
     <t>The Bumblezone</t>
   </si>
   <si>
@@ -765,9 +762,6 @@
     <t>1 large currency epic</t>
   </si>
   <si>
-    <t>5 large currency legendary</t>
-  </si>
-  <si>
     <t>A Recipe For Disaster</t>
   </si>
   <si>
@@ -804,9 +798,6 @@
     <t>1 small backpack</t>
   </si>
   <si>
-    <t>3 diamonds</t>
-  </si>
-  <si>
     <t>Food Storage</t>
   </si>
   <si>
@@ -840,12 +831,6 @@
     <t>5 bottles, 1 small currency epic</t>
   </si>
   <si>
-    <t>1 Hamburger, 1 small currency epic</t>
-  </si>
-  <si>
-    <t>1 Kitchen Counter, 1 small currency epic</t>
-  </si>
-  <si>
     <t>8 honeydew seed, 1 small currency epic</t>
   </si>
   <si>
@@ -861,30 +846,9 @@
     <t>1 iron block, 1 small currency epic</t>
   </si>
   <si>
-    <t>Zoatar</t>
-  </si>
-  <si>
-    <t>Cockatrice</t>
-  </si>
-  <si>
-    <t>Ignibus</t>
-  </si>
-  <si>
-    <t>Remobra</t>
-  </si>
-  <si>
-    <t>Uvaraptor</t>
-  </si>
-  <si>
-    <t>Morock</t>
-  </si>
-  <si>
     <t>Stick To The Basics</t>
   </si>
   <si>
-    <t>Rock On!</t>
-  </si>
-  <si>
     <t>Tenebrum</t>
   </si>
   <si>
@@ -945,9 +909,6 @@
     <t>97,98,99,100, 105</t>
   </si>
   <si>
-    <t>1 Diamond Block</t>
-  </si>
-  <si>
     <t>/slash give map @p 80 random 4 5 5</t>
   </si>
   <si>
@@ -960,9 +921,6 @@
     <t>REMOVE I'm The Map</t>
   </si>
   <si>
-    <t>1 Legendary Big Currency, 1 of each reset pot, dragon scale</t>
-  </si>
-  <si>
     <t>Mapping Device</t>
   </si>
   <si>
@@ -970,6 +928,45 @@
   </si>
   <si>
     <t>/slash give map @p 80 random 0 0 3</t>
+  </si>
+  <si>
+    <t>1 Diamond</t>
+  </si>
+  <si>
+    <t>1 Legendary Big Currency, 1 of each reset pot, 3 dragon scale</t>
+  </si>
+  <si>
+    <t>3 Zoatar</t>
+  </si>
+  <si>
+    <t>3 Cockatrice</t>
+  </si>
+  <si>
+    <t>3 Ignibus</t>
+  </si>
+  <si>
+    <t>3 Remobra</t>
+  </si>
+  <si>
+    <t>3 Uvaraptor</t>
+  </si>
+  <si>
+    <t>3 Morock</t>
+  </si>
+  <si>
+    <t>1 cheeseburger, 1 small currency epic</t>
+  </si>
+  <si>
+    <t>1 fruit basket, 1 small currency epic</t>
+  </si>
+  <si>
+    <t>CRAFTING_DETECT</t>
+  </si>
+  <si>
+    <t>1 diamonds</t>
+  </si>
+  <si>
+    <t>Bad Kind Of Shroom</t>
   </si>
 </sst>
 </file>
@@ -1005,6 +1002,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1095,7 +1093,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1112,17 +1110,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3619,7 +3618,7 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>200</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>300</c:v>
@@ -8288,8 +8287,8 @@
   </sheetPr>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8334,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -8398,10 +8397,10 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2">
         <v>750</v>
@@ -8415,7 +8414,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
@@ -8424,10 +8423,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>15</v>
@@ -8444,7 +8443,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
@@ -8456,10 +8455,10 @@
         <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2">
         <v>500</v>
@@ -8473,7 +8472,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
@@ -8485,10 +8484,10 @@
         <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G7" s="2">
         <v>1000</v>
@@ -8502,7 +8501,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
@@ -8514,10 +8513,10 @@
         <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="G8" s="2">
         <v>2000</v>
@@ -8531,7 +8530,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2">
         <v>7</v>
@@ -8543,10 +8542,10 @@
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="G9" s="2">
         <v>3000</v>
@@ -8560,7 +8559,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2">
         <v>8</v>
@@ -8572,10 +8571,10 @@
         <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="G10" s="2">
         <v>5000</v>
@@ -8589,7 +8588,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2">
         <v>9</v>
@@ -8601,10 +8600,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="G11" s="2">
         <v>6000</v>
@@ -8618,7 +8617,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B12" s="24">
         <v>20</v>
@@ -8630,10 +8629,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="24" t="s">
         <v>67</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>68</v>
       </c>
       <c r="G12" s="24">
         <v>8000</v>
@@ -8647,7 +8646,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" s="6">
         <v>42</v>
@@ -8659,10 +8658,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="G13" s="6">
         <v>2000</v>
@@ -8676,7 +8675,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B14" s="6">
         <v>43</v>
@@ -8688,10 +8687,10 @@
         <v>7</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="G14" s="6">
         <v>4000</v>
@@ -8704,37 +8703,37 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15" s="15">
+      <c r="A15" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="6">
         <v>44</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="6">
         <v>43</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="G15" s="15">
+      <c r="G15" s="6">
         <v>16000</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="6">
         <v>100</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="10">
         <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B16" s="8">
         <v>79</v>
@@ -8743,13 +8742,13 @@
         <v>6</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>231</v>
       </c>
       <c r="G16" s="8">
         <v>4000</v>
@@ -8757,13 +8756,13 @@
       <c r="H16" s="8">
         <v>50</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="16">
         <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B17" s="8">
         <v>80</v>
@@ -8775,10 +8774,10 @@
         <v>7</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>234</v>
       </c>
       <c r="G17" s="8">
         <v>25000</v>
@@ -8786,16 +8785,16 @@
       <c r="H17" s="8">
         <v>200</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="16">
         <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B18" s="8">
         <v>81</v>
@@ -8807,10 +8806,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G18" s="8">
         <v>2000000</v>
@@ -8818,13 +8817,13 @@
       <c r="H18" s="8">
         <v>0</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="16">
         <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B19" s="8">
         <v>82</v>
@@ -8836,10 +8835,10 @@
         <v>13</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G19" s="8">
         <v>2000000</v>
@@ -8847,13 +8846,13 @@
       <c r="H19" s="8">
         <v>50</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="16">
         <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B20" s="8">
         <v>83</v>
@@ -8865,10 +8864,10 @@
         <v>13</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G20" s="8">
         <v>2000000</v>
@@ -8876,13 +8875,13 @@
       <c r="H20" s="8">
         <v>100</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="16">
         <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B21" s="8">
         <v>84</v>
@@ -8894,10 +8893,10 @@
         <v>13</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G21" s="8">
         <v>2000000</v>
@@ -8905,13 +8904,13 @@
       <c r="H21" s="8">
         <v>150</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="16">
         <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B22" s="8">
         <v>85</v>
@@ -8923,10 +8922,10 @@
         <v>13</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G22" s="8">
         <v>2000000</v>
@@ -8934,13 +8933,13 @@
       <c r="H22" s="8">
         <v>200</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="16">
         <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B23" s="8">
         <v>86</v>
@@ -8952,10 +8951,10 @@
         <v>13</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G23" s="8">
         <v>2000000</v>
@@ -8963,36 +8962,36 @@
       <c r="H23" s="8">
         <v>250</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="16">
         <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B24" s="8">
+      <c r="A24" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="B24" s="18">
         <v>95</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E24" t="s">
-        <v>254</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="G24" s="8">
+      <c r="E24" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="G24" s="18">
         <v>1000</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="18">
         <v>250</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="23">
         <v>0</v>
       </c>
     </row>
@@ -9013,8 +9012,8 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9053,7 +9052,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -9062,16 +9061,17 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
       <c r="F2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2">
-        <v>11000</v>
+        <v>47</v>
+      </c>
+      <c r="G2" s="20">
+        <f xml:space="preserve"> 1.5 *11000</f>
+        <v>16500</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -9082,7 +9082,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -9094,13 +9094,14 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
         <v>53</v>
       </c>
-      <c r="F3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3">
-        <v>16000</v>
+      <c r="G3" s="20">
+        <f xml:space="preserve"> 1.5 *16000</f>
+        <v>24000</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -9111,7 +9112,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -9123,13 +9124,14 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
         <v>56</v>
       </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4">
-        <v>30000</v>
+      <c r="G4" s="20">
+        <f xml:space="preserve"> 1.5 *30000</f>
+        <v>45000</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -9140,7 +9142,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <v>13</v>
@@ -9152,13 +9154,14 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5">
-        <v>28000</v>
+        <v>33</v>
+      </c>
+      <c r="G5" s="20">
+        <f xml:space="preserve"> 1.5 *28000</f>
+        <v>42000</v>
       </c>
       <c r="H5">
         <v>100</v>
@@ -9169,7 +9172,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -9178,16 +9181,17 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6">
-        <v>37500</v>
+        <v>33</v>
+      </c>
+      <c r="G6" s="20">
+        <f xml:space="preserve"> 1.5 *37500</f>
+        <v>56250</v>
       </c>
       <c r="H6">
         <v>150</v>
@@ -9198,7 +9202,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="11">
         <v>15</v>
@@ -9207,16 +9211,17 @@
         <v>14</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="11">
-        <v>45000</v>
+      <c r="G7" s="21">
+        <f xml:space="preserve"> 1.5 *45000</f>
+        <v>67500</v>
       </c>
       <c r="H7" s="11">
         <v>200</v>
@@ -9227,7 +9232,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" s="2">
         <v>45</v>
@@ -9236,16 +9241,17 @@
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" s="2">
-        <v>35000</v>
+      <c r="G8" s="9">
+        <f xml:space="preserve"> 1.5 *35000</f>
+        <v>52500</v>
       </c>
       <c r="H8" s="2">
         <v>50</v>
@@ -9256,7 +9262,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B9" s="7">
         <v>46</v>
@@ -9268,13 +9274,14 @@
         <v>13</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G9" s="7">
-        <v>37500</v>
+        <v>215</v>
+      </c>
+      <c r="G9" s="22">
+        <f xml:space="preserve"> 1.5 *37500</f>
+        <v>56250</v>
       </c>
       <c r="H9" s="7">
         <v>100</v>
@@ -9285,7 +9292,7 @@
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -9302,7 +9309,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C12" sqref="C12:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9341,7 +9348,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>16</v>
@@ -9353,10 +9360,10 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
         <v>65</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
       </c>
       <c r="G2">
         <v>52000</v>
@@ -9370,7 +9377,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3">
         <v>21</v>
@@ -9379,13 +9386,13 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3">
         <v>50000</v>
@@ -9399,7 +9406,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>22</v>
@@ -9408,13 +9415,13 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4">
         <v>62500</v>
@@ -9428,7 +9435,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5">
         <v>23</v>
@@ -9437,13 +9444,13 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5">
         <v>75000</v>
@@ -9457,7 +9464,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6">
         <v>29</v>
@@ -9469,10 +9476,10 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G6">
         <v>65000</v>
@@ -9486,7 +9493,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7">
         <v>30</v>
@@ -9495,13 +9502,13 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" t="s">
         <v>95</v>
-      </c>
-      <c r="F7" t="s">
-        <v>96</v>
       </c>
       <c r="G7">
         <v>75000</v>
@@ -9515,7 +9522,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8">
         <v>31</v>
@@ -9527,10 +9534,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="G8">
         <v>87500</v>
@@ -9544,7 +9551,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9">
         <v>32</v>
@@ -9556,10 +9563,10 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G9">
         <v>150000</v>
@@ -9573,22 +9580,22 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10">
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" t="s">
         <v>99</v>
-      </c>
-      <c r="F10" t="s">
-        <v>100</v>
       </c>
       <c r="G10">
         <v>92500</v>
@@ -9602,7 +9609,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="12">
         <v>34</v>
@@ -9614,10 +9621,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="12">
         <v>100000</v>
@@ -9631,25 +9638,26 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B12" s="2">
         <v>48</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="9">
         <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G12" s="2">
-        <v>35000</v>
+        <f xml:space="preserve"> 3 * 35000</f>
+        <v>105000</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -9660,25 +9668,26 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="2">
         <v>49</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="9">
         <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G13" s="2">
-        <v>25000</v>
+        <f xml:space="preserve"> 3 * 25000</f>
+        <v>75000</v>
       </c>
       <c r="H13" s="2">
         <v>50</v>
@@ -9689,25 +9698,26 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B14" s="2">
         <v>50</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="9">
         <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G14" s="2">
-        <v>30000</v>
+        <f xml:space="preserve"> 3 * 30000</f>
+        <v>90000</v>
       </c>
       <c r="H14" s="2">
         <v>100</v>
@@ -9718,25 +9728,26 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B15" s="2">
         <v>51</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="9">
         <v>36</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G15" s="2">
-        <v>32500</v>
+        <f xml:space="preserve"> 3 * 32500</f>
+        <v>97500</v>
       </c>
       <c r="H15" s="2">
         <v>150</v>
@@ -9747,25 +9758,26 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B16" s="2">
         <v>52</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="9">
         <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="G16" s="2">
-        <v>35000</v>
+        <f xml:space="preserve"> 3 * 35000</f>
+        <v>105000</v>
       </c>
       <c r="H16" s="2">
         <v>200</v>
@@ -9776,25 +9788,26 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B17" s="2">
         <v>53</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="9">
         <v>36</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G17" s="2">
-        <v>30000</v>
+        <f xml:space="preserve"> 3 * 30000</f>
+        <v>90000</v>
       </c>
       <c r="H17" s="2">
         <v>250</v>
@@ -9803,30 +9816,31 @@
         <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B18" s="2">
         <v>54</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="9">
         <v>36</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G18" s="2">
-        <v>35000</v>
+        <f xml:space="preserve"> 3 * 35000</f>
+        <v>105000</v>
       </c>
       <c r="H18" s="2">
         <v>300</v>
@@ -9837,25 +9851,26 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B19" s="7">
         <v>55</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G19" s="7">
-        <v>100000</v>
+        <f xml:space="preserve"> 3 * 100000</f>
+        <v>300000</v>
       </c>
       <c r="H19" s="7">
         <v>150</v>
@@ -9879,7 +9894,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9918,7 +9933,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2">
         <v>35</v>
@@ -9927,13 +9942,13 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2">
         <v>125000</v>
@@ -9947,7 +9962,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3">
         <v>36</v>
@@ -9959,10 +9974,10 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>307</v>
+        <v>102</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>298</v>
       </c>
       <c r="G3">
         <v>500000</v>
@@ -9976,7 +9991,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4">
         <v>37</v>
@@ -9988,10 +10003,10 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G4">
         <v>135000</v>
@@ -10005,7 +10020,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5">
         <v>38</v>
@@ -10017,10 +10032,10 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" t="s">
         <v>108</v>
-      </c>
-      <c r="F5" t="s">
-        <v>109</v>
       </c>
       <c r="G5">
         <v>142500</v>
@@ -10034,7 +10049,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="13">
         <v>39</v>
@@ -10046,10 +10061,10 @@
         <v>7</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="13">
         <v>150000</v>
@@ -10063,7 +10078,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" s="2">
         <v>56</v>
@@ -10075,10 +10090,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G7" s="2">
         <v>67500</v>
@@ -10092,7 +10107,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B8" s="2">
         <v>57</v>
@@ -10104,10 +10119,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G8" s="2">
         <v>75000</v>
@@ -10121,7 +10136,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B9" s="2">
         <v>58</v>
@@ -10133,10 +10148,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G9" s="2">
         <v>77500</v>
@@ -10150,7 +10165,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B10" s="2">
         <v>59</v>
@@ -10162,10 +10177,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G10" s="2">
         <v>70000</v>
@@ -10178,66 +10193,66 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="A11" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="2">
         <v>60</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="2">
         <v>57</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="E11" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="2">
         <v>100000</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="2">
         <v>150</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="B12" s="8">
+      <c r="A12" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="18">
         <v>107</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="18">
         <v>36</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="E12" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="G12" s="18">
         <v>50000</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="18">
         <v>50</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -10255,7 +10270,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10294,7 +10309,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -10303,13 +10318,13 @@
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G2">
         <v>155000</v>
@@ -10323,7 +10338,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B3" s="2">
         <v>41</v>
@@ -10332,13 +10347,13 @@
         <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G3" s="2">
         <v>155000</v>
@@ -10352,7 +10367,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" s="2">
         <v>61</v>
@@ -10364,10 +10379,10 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G4" s="2">
         <v>175000</v>
@@ -10381,7 +10396,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" s="2">
         <v>62</v>
@@ -10390,13 +10405,13 @@
         <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G5" s="2">
         <v>250000</v>
@@ -10410,7 +10425,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="2">
         <v>63</v>
@@ -10422,10 +10437,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G6" s="2">
         <v>300000</v>
@@ -10439,7 +10454,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7" s="2">
         <v>64</v>
@@ -10448,13 +10463,13 @@
         <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G7" s="2">
         <v>275000</v>
@@ -10468,7 +10483,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8" s="2">
         <v>65</v>
@@ -10477,13 +10492,13 @@
         <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G8" s="2">
         <v>325000</v>
@@ -10497,7 +10512,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B9" s="2">
         <v>66</v>
@@ -10506,13 +10521,13 @@
         <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G9" s="2">
         <v>450000</v>
@@ -10526,7 +10541,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B10" s="2">
         <v>67</v>
@@ -10538,10 +10553,10 @@
         <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G10" s="2">
         <v>200000</v>
@@ -10555,7 +10570,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B11" s="2">
         <v>68</v>
@@ -10567,10 +10582,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G11" s="2">
         <v>225000</v>
@@ -10584,7 +10599,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B12" s="2">
         <v>69</v>
@@ -10596,10 +10611,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G12" s="2">
         <v>250000</v>
@@ -10613,7 +10628,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B13" s="2">
         <v>70</v>
@@ -10625,10 +10640,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G13" s="2">
         <v>200000</v>
@@ -10642,7 +10657,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B14" s="2">
         <v>71</v>
@@ -10651,13 +10666,13 @@
         <v>70</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G14" s="2">
         <v>275000</v>
@@ -10671,7 +10686,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B15" s="2">
         <v>72</v>
@@ -10680,13 +10695,13 @@
         <v>71</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G15" s="2">
         <v>325000</v>
@@ -10700,7 +10715,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B16" s="2">
         <v>73</v>
@@ -10709,13 +10724,13 @@
         <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G16" s="2">
         <v>425000</v>
@@ -10729,7 +10744,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B17" s="2">
         <v>74</v>
@@ -10738,13 +10753,13 @@
         <v>73</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G17" s="2">
         <v>550000</v>
@@ -10756,12 +10771,12 @@
         <v>250</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B18" s="2">
         <v>75</v>
@@ -10773,10 +10788,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G18" s="2">
         <v>400000</v>
@@ -10790,7 +10805,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B19" s="2">
         <v>76</v>
@@ -10802,10 +10817,10 @@
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="G19" s="2">
         <v>500000</v>
@@ -10819,22 +10834,22 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B20" s="14">
         <v>77</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G20" s="14">
         <v>250000</v>
@@ -10862,7 +10877,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10900,37 +10915,37 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="2">
+        <v>78</v>
+      </c>
+      <c r="C2" s="2">
+        <v>77</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="7">
-        <v>78</v>
-      </c>
-      <c r="C2" s="7">
-        <v>77</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="25">
+      <c r="F2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="8">
         <v>450000</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B3" s="2">
         <v>97</v>
@@ -10942,10 +10957,10 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G3" s="2">
         <v>625000</v>
@@ -10958,37 +10973,37 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="2">
         <v>98</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>297</v>
+      <c r="E4" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G4" s="2">
         <v>625000</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>50</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>287</v>
+      <c r="A5" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="B5" s="2">
         <v>99</v>
@@ -10999,54 +11014,54 @@
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>298</v>
+      <c r="E5" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G5" s="2">
         <v>625000</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>50</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>288</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" s="2">
         <v>100</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
-        <v>299</v>
+      <c r="E6" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G6" s="2">
         <v>625000</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>50</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>280</v>
+      <c r="A7" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="B7" s="2">
         <v>101</v>
@@ -11055,56 +11070,56 @@
         <v>78</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>290</v>
+        <v>49</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="G7" s="8">
         <v>500000</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>293</v>
-      </c>
-      <c r="B8">
+      <c r="A8" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" s="2">
         <v>102</v>
       </c>
       <c r="C8" s="8">
         <v>101</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>294</v>
+        <v>49</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="G8" s="8">
         <v>500000</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>50</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>281</v>
+      <c r="A9" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="B9" s="2">
         <v>103</v>
@@ -11113,56 +11128,56 @@
         <v>102</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>289</v>
+        <v>49</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="G9" s="8">
         <v>500000</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>100</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>284</v>
-      </c>
-      <c r="B10">
+      <c r="A10" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="2">
         <v>104</v>
       </c>
       <c r="C10" s="8">
         <v>103</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" t="s">
-        <v>295</v>
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="G10" s="8">
         <v>500000</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>150</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>283</v>
+      <c r="A11" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="B11" s="2">
         <v>105</v>
@@ -11171,85 +11186,85 @@
         <v>104</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>292</v>
+        <v>49</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="G11" s="8">
         <v>500000</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>200</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>282</v>
-      </c>
-      <c r="B12">
+      <c r="A12" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B12" s="2">
         <v>106</v>
       </c>
       <c r="C12" s="8">
         <v>105</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>291</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>304</v>
       </c>
       <c r="G12" s="8">
         <v>500000</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>250</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>300</v>
-      </c>
-      <c r="B13">
+      <c r="A13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B13" s="7">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
-        <v>301</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="C13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="G13" s="18">
         <v>1000000</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="7">
         <v>150</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -11267,7 +11282,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11276,37 +11291,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4">
         <v>17</v>
@@ -11318,24 +11333,24 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="G2" s="4">
         <v>1500</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="25">
         <v>50</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="25">
         <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="4">
         <v>18</v>
@@ -11347,7 +11362,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>15</v>
@@ -11355,16 +11370,16 @@
       <c r="G3" s="4">
         <v>1000</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="25">
         <v>0</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="25">
         <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="4">
         <v>19</v>
@@ -11376,24 +11391,24 @@
         <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="G4" s="4">
         <v>4000</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="25">
         <v>100</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="25">
         <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" s="4">
         <v>47</v>
@@ -11405,24 +11420,24 @@
         <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="G5" s="4">
         <v>10000</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="25">
         <v>150</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="25">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="5">
         <v>24</v>
@@ -11434,24 +11449,24 @@
         <v>7</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="G6" s="5">
         <v>500</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="26">
         <v>0</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="26">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="5">
         <v>25</v>
@@ -11463,24 +11478,24 @@
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="G7" s="5">
         <v>1000</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="26">
         <v>50</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="26">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="5">
         <v>26</v>
@@ -11492,24 +11507,24 @@
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" s="5">
         <v>2000</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="26">
         <v>100</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="26">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="5">
         <v>27</v>
@@ -11521,24 +11536,24 @@
         <v>7</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="G9" s="5">
         <v>4000</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="26">
         <v>150</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="26">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="5">
         <v>28</v>
@@ -11547,285 +11562,285 @@
         <v>27</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="G10" s="5">
         <v>21000</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="26">
         <v>200</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="26">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="B11" s="18">
+      <c r="A11" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="17">
         <v>87</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>0</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="G11" s="19">
+      <c r="E11" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="G11" s="17">
         <v>500</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="27">
         <v>0</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="17">
+        <v>88</v>
+      </c>
+      <c r="C12" s="17">
+        <v>87</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="B12" s="18">
-        <v>88</v>
-      </c>
-      <c r="C12" s="18">
-        <v>87</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="G12" s="19">
+      <c r="F12" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="G12" s="17">
         <v>500</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="17">
         <v>50</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="B13" s="18">
+      <c r="A13" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" s="17">
         <v>89</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>88</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="G13" s="19">
+      <c r="E13" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="G13" s="17">
         <v>500</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
         <v>100</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="B14" s="18">
+      <c r="A14" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" s="17">
         <v>90</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <v>89</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="G14" s="19">
+      <c r="E14" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="G14" s="17">
         <v>500</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="17">
         <v>150</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="B15" s="18">
+      <c r="A15" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" s="17">
         <v>91</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <v>90</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="G15" s="19">
+      <c r="D15" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="G15" s="17">
         <v>500</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="17">
         <v>200</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="B16" s="18">
+      <c r="A16" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" s="17">
         <v>92</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <v>91</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="G16" s="19">
+      <c r="E16" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="G16" s="17">
         <v>500</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="17">
         <v>250</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="B17" s="18">
+      <c r="A17" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" s="17">
         <v>93</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="17">
         <v>90</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="G17" s="19">
+      <c r="E17" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" s="17">
         <v>500</v>
       </c>
-      <c r="H17" s="19">
-        <v>200</v>
-      </c>
-      <c r="I17" s="19">
+      <c r="H17" s="17">
+        <v>150</v>
+      </c>
+      <c r="I17" s="17">
         <v>50</v>
       </c>
       <c r="K17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="B18" s="18">
+      <c r="A18" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" s="17">
         <v>94</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <v>92</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="G18" s="19">
+      <c r="E18" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="G18" s="17">
         <v>500</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="17">
         <v>300</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B19" s="6">
+      <c r="A19" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" s="15">
         <v>96</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="15">
         <v>0</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="G19" s="20">
+      <c r="D19" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="G19" s="15">
         <v>500</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="15">
         <v>0</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="15">
         <v>200</v>
       </c>
     </row>

--- a/Quests.xlsx
+++ b/Quests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C077415-F9BA-4524-AC2D-BAAF992DF530}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F23939-4676-4824-97C5-A132A793132D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39855" yWindow="3225" windowWidth="26985" windowHeight="15075" activeTab="1" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15885" activeTab="5" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="322">
   <si>
     <t>Quest</t>
   </si>
@@ -438,9 +438,6 @@
     <t>Direct Me The Whey</t>
   </si>
   <si>
-    <t>Assortment of Honeycombs</t>
-  </si>
-  <si>
     <t>80 - 680000</t>
   </si>
   <si>
@@ -967,6 +964,45 @@
   </si>
   <si>
     <t>Bad Kind Of Shroom</t>
+  </si>
+  <si>
+    <t>The Grand Hempening</t>
+  </si>
+  <si>
+    <t>1 Hemp Seed</t>
+  </si>
+  <si>
+    <t>1 Steel Plate</t>
+  </si>
+  <si>
+    <t>Crafting Equipment</t>
+  </si>
+  <si>
+    <t>Full Iron Armor</t>
+  </si>
+  <si>
+    <t>Shield Hero</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>25 uncommon ore</t>
+  </si>
+  <si>
+    <t>Sweet Retribution</t>
+  </si>
+  <si>
+    <t>Honey Shield</t>
+  </si>
+  <si>
+    <t>Assortment of Honeycombs (no quartz)</t>
+  </si>
+  <si>
+    <t>1 Iron Sword 1 crossbow</t>
+  </si>
+  <si>
+    <t>15 uncommon ore</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1116,7 +1152,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1301,6 +1336,12 @@
                 <c:pt idx="22">
                   <c:v>250</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1378,6 +1419,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1693,6 +1740,9 @@
                 <c:pt idx="7">
                   <c:v>100</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1725,6 +1775,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3626,6 +3679,9 @@
                 <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>50</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3687,6 +3743,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -8285,10 +8344,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8397,7 +8456,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>41</v>
@@ -8616,31 +8675,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="B12" s="24">
+      <c r="A12" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="B12" s="23">
         <v>20</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <v>8</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="23">
         <v>8000</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="23">
         <v>200</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="23">
         <v>100</v>
       </c>
     </row>
@@ -8733,7 +8792,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B16" s="8">
         <v>79</v>
@@ -8742,13 +8801,13 @@
         <v>6</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>229</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>230</v>
       </c>
       <c r="G16" s="8">
         <v>4000</v>
@@ -8762,7 +8821,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B17" s="8">
         <v>80</v>
@@ -8774,10 +8833,10 @@
         <v>7</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>232</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>233</v>
       </c>
       <c r="G17" s="8">
         <v>25000</v>
@@ -8789,12 +8848,12 @@
         <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B18" s="8">
         <v>81</v>
@@ -8806,10 +8865,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G18" s="8">
         <v>2000000</v>
@@ -8823,7 +8882,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B19" s="8">
         <v>82</v>
@@ -8835,10 +8894,10 @@
         <v>13</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G19" s="8">
         <v>2000000</v>
@@ -8852,7 +8911,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B20" s="8">
         <v>83</v>
@@ -8864,10 +8923,10 @@
         <v>13</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G20" s="8">
         <v>2000000</v>
@@ -8881,7 +8940,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B21" s="8">
         <v>84</v>
@@ -8893,10 +8952,10 @@
         <v>13</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G21" s="8">
         <v>2000000</v>
@@ -8910,7 +8969,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B22" s="8">
         <v>85</v>
@@ -8922,10 +8981,10 @@
         <v>13</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G22" s="8">
         <v>2000000</v>
@@ -8939,7 +8998,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B23" s="8">
         <v>86</v>
@@ -8951,10 +9010,10 @@
         <v>13</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G23" s="8">
         <v>2000000</v>
@@ -8967,32 +9026,90 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B24" s="8">
+        <v>95</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B24" s="18">
+      <c r="F24" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H24" s="8">
+        <v>250</v>
+      </c>
+      <c r="I24" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B25" s="8">
+        <v>109</v>
+      </c>
+      <c r="C25" s="8">
+        <v>6</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G25" s="8">
+        <v>3000</v>
+      </c>
+      <c r="H25" s="8">
+        <v>100</v>
+      </c>
+      <c r="I25" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="B26" s="18">
+        <v>110</v>
+      </c>
+      <c r="C26" s="18">
         <v>95</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="G24" s="18">
-        <v>1000</v>
-      </c>
-      <c r="H24" s="18">
+      <c r="D26" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1500</v>
+      </c>
+      <c r="H26" s="18">
         <v>250</v>
       </c>
-      <c r="I24" s="23">
-        <v>0</v>
+      <c r="I26" s="22">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -9012,8 +9129,8 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A8:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9184,7 +9301,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>319</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
@@ -9232,7 +9349,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="2">
         <v>45</v>
@@ -9244,10 +9361,10 @@
         <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="G8" s="9">
         <f xml:space="preserve"> 1.5 *35000</f>
@@ -9261,38 +9378,67 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="2">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="7">
-        <v>46</v>
-      </c>
-      <c r="C9" s="7">
-        <v>45</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G9" s="22">
+      <c r="F9" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G9" s="9">
         <f xml:space="preserve"> 1.5 *37500</f>
         <v>56250</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="2">
         <v>100</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="2">
         <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="B10" s="18">
+        <v>111</v>
+      </c>
+      <c r="C10" s="18">
+        <v>14</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="G10" s="7">
+        <v>60000</v>
+      </c>
+      <c r="H10" s="18">
+        <v>150</v>
+      </c>
+      <c r="I10" s="18">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -9309,7 +9455,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C18"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9537,7 +9683,7 @@
         <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G8">
         <v>87500</v>
@@ -9638,7 +9784,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B12" s="2">
         <v>48</v>
@@ -9650,10 +9796,10 @@
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G12" s="2">
         <f xml:space="preserve"> 3 * 35000</f>
@@ -9668,7 +9814,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2">
         <v>49</v>
@@ -9680,10 +9826,10 @@
         <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G13" s="2">
         <f xml:space="preserve"> 3 * 25000</f>
@@ -9698,7 +9844,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B14" s="2">
         <v>50</v>
@@ -9710,10 +9856,10 @@
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G14" s="2">
         <f xml:space="preserve"> 3 * 30000</f>
@@ -9728,7 +9874,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B15" s="2">
         <v>51</v>
@@ -9740,10 +9886,10 @@
         <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G15" s="2">
         <f xml:space="preserve"> 3 * 32500</f>
@@ -9758,7 +9904,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B16" s="2">
         <v>52</v>
@@ -9770,10 +9916,10 @@
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="G16" s="2">
         <f xml:space="preserve"> 3 * 35000</f>
@@ -9788,7 +9934,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B17" s="2">
         <v>53</v>
@@ -9800,10 +9946,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G17" s="2">
         <f xml:space="preserve"> 3 * 30000</f>
@@ -9816,12 +9962,12 @@
         <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B18" s="2">
         <v>54</v>
@@ -9833,10 +9979,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G18" s="2">
         <f xml:space="preserve"> 3 * 35000</f>
@@ -9851,22 +9997,22 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B19" s="7">
         <v>55</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G19" s="7">
         <f xml:space="preserve"> 3 * 100000</f>
@@ -9894,7 +10040,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9977,7 +10123,7 @@
         <v>102</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G3">
         <v>500000</v>
@@ -10078,7 +10224,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7" s="2">
         <v>56</v>
@@ -10090,10 +10236,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G7" s="2">
         <v>67500</v>
@@ -10107,7 +10253,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B8" s="2">
         <v>57</v>
@@ -10119,10 +10265,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G8" s="2">
         <v>75000</v>
@@ -10136,7 +10282,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9" s="2">
         <v>58</v>
@@ -10148,10 +10294,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G9" s="2">
         <v>77500</v>
@@ -10165,7 +10311,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B10" s="2">
         <v>59</v>
@@ -10177,10 +10323,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G10" s="2">
         <v>70000</v>
@@ -10194,7 +10340,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B11" s="2">
         <v>60</v>
@@ -10206,10 +10352,10 @@
         <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G11" s="2">
         <v>100000</v>
@@ -10223,7 +10369,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B12" s="18">
         <v>107</v>
@@ -10235,10 +10381,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>295</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>296</v>
       </c>
       <c r="G12" s="18">
         <v>50000</v>
@@ -10252,7 +10398,7 @@
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -10270,7 +10416,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10338,7 +10484,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B3" s="2">
         <v>41</v>
@@ -10367,7 +10513,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" s="2">
         <v>61</v>
@@ -10379,10 +10525,10 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G4" s="2">
         <v>175000</v>
@@ -10396,7 +10542,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B5" s="2">
         <v>62</v>
@@ -10408,10 +10554,10 @@
         <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G5" s="2">
         <v>250000</v>
@@ -10425,7 +10571,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" s="2">
         <v>63</v>
@@ -10437,10 +10583,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G6" s="2">
         <v>300000</v>
@@ -10454,7 +10600,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B7" s="2">
         <v>64</v>
@@ -10466,10 +10612,10 @@
         <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G7" s="2">
         <v>275000</v>
@@ -10483,7 +10629,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B8" s="2">
         <v>65</v>
@@ -10495,10 +10641,10 @@
         <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G8" s="2">
         <v>325000</v>
@@ -10512,7 +10658,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" s="2">
         <v>66</v>
@@ -10524,10 +10670,10 @@
         <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G9" s="2">
         <v>450000</v>
@@ -10541,7 +10687,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10" s="2">
         <v>67</v>
@@ -10553,10 +10699,10 @@
         <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G10" s="2">
         <v>200000</v>
@@ -10570,7 +10716,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B11" s="2">
         <v>68</v>
@@ -10582,10 +10728,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G11" s="2">
         <v>225000</v>
@@ -10599,7 +10745,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B12" s="2">
         <v>69</v>
@@ -10611,10 +10757,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G12" s="2">
         <v>250000</v>
@@ -10628,7 +10774,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B13" s="2">
         <v>70</v>
@@ -10640,10 +10786,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G13" s="2">
         <v>200000</v>
@@ -10657,7 +10803,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B14" s="2">
         <v>71</v>
@@ -10669,10 +10815,10 @@
         <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G14" s="2">
         <v>275000</v>
@@ -10686,7 +10832,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B15" s="2">
         <v>72</v>
@@ -10698,10 +10844,10 @@
         <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G15" s="2">
         <v>325000</v>
@@ -10715,7 +10861,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B16" s="2">
         <v>73</v>
@@ -10727,10 +10873,10 @@
         <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G16" s="2">
         <v>425000</v>
@@ -10744,7 +10890,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B17" s="2">
         <v>74</v>
@@ -10756,10 +10902,10 @@
         <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G17" s="2">
         <v>550000</v>
@@ -10771,12 +10917,12 @@
         <v>250</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B18" s="2">
         <v>75</v>
@@ -10788,10 +10934,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G18" s="2">
         <v>400000</v>
@@ -10805,7 +10951,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B19" s="2">
         <v>76</v>
@@ -10817,10 +10963,10 @@
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="G19" s="2">
         <v>500000</v>
@@ -10834,22 +10980,22 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B20" s="14">
         <v>77</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="14">
         <v>250000</v>
@@ -10876,8 +11022,8 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10916,7 +11062,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="2">
         <v>78</v>
@@ -10928,7 +11074,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>33</v>
@@ -10945,7 +11091,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B3" s="2">
         <v>97</v>
@@ -10957,10 +11103,10 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G3" s="2">
         <v>625000</v>
@@ -10974,7 +11120,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B4" s="2">
         <v>98</v>
@@ -10986,10 +11132,10 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G4" s="2">
         <v>625000</v>
@@ -11003,7 +11149,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B5" s="2">
         <v>99</v>
@@ -11015,10 +11161,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G5" s="2">
         <v>625000</v>
@@ -11032,7 +11178,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B6" s="2">
         <v>100</v>
@@ -11044,10 +11190,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G6" s="2">
         <v>625000</v>
@@ -11061,7 +11207,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B7" s="2">
         <v>101</v>
@@ -11073,10 +11219,10 @@
         <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G7" s="8">
         <v>500000</v>
@@ -11090,7 +11236,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B8" s="2">
         <v>102</v>
@@ -11102,10 +11248,10 @@
         <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G8" s="8">
         <v>500000</v>
@@ -11119,7 +11265,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B9" s="2">
         <v>103</v>
@@ -11131,10 +11277,10 @@
         <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G9" s="8">
         <v>500000</v>
@@ -11148,7 +11294,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B10" s="2">
         <v>104</v>
@@ -11160,10 +11306,10 @@
         <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G10" s="8">
         <v>500000</v>
@@ -11177,7 +11323,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B11" s="2">
         <v>105</v>
@@ -11189,10 +11335,10 @@
         <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G11" s="8">
         <v>500000</v>
@@ -11206,7 +11352,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B12" s="2">
         <v>106</v>
@@ -11218,10 +11364,10 @@
         <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G12" s="8">
         <v>500000</v>
@@ -11235,22 +11381,22 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B13" s="7">
         <v>20</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G13" s="18">
         <v>1000000</v>
@@ -11264,7 +11410,7 @@
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -11279,10 +11425,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11341,10 +11487,10 @@
       <c r="G2" s="4">
         <v>1500</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="24">
         <v>50</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="24">
         <v>150</v>
       </c>
     </row>
@@ -11370,10 +11516,10 @@
       <c r="G3" s="4">
         <v>1000</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="24">
         <v>0</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="24">
         <v>150</v>
       </c>
     </row>
@@ -11399,16 +11545,16 @@
       <c r="G4" s="4">
         <v>4000</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="24">
         <v>100</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="24">
         <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" s="4">
         <v>47</v>
@@ -11420,18 +11566,18 @@
         <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="G5" s="4">
         <v>10000</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="24">
         <v>150</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <v>150</v>
       </c>
     </row>
@@ -11457,10 +11603,10 @@
       <c r="G6" s="5">
         <v>500</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="25">
         <v>0</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="25">
         <v>100</v>
       </c>
     </row>
@@ -11486,10 +11632,10 @@
       <c r="G7" s="5">
         <v>1000</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="25">
         <v>50</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="25">
         <v>100</v>
       </c>
     </row>
@@ -11515,10 +11661,10 @@
       <c r="G8" s="5">
         <v>2000</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="25">
         <v>100</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="25">
         <v>100</v>
       </c>
     </row>
@@ -11544,10 +11690,10 @@
       <c r="G9" s="5">
         <v>4000</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="25">
         <v>150</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="25">
         <v>100</v>
       </c>
     </row>
@@ -11573,16 +11719,16 @@
       <c r="G10" s="5">
         <v>21000</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="25">
         <v>200</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="25">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B11" s="17">
         <v>87</v>
@@ -11594,24 +11740,24 @@
         <v>7</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G11" s="17">
         <v>500</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="26">
         <v>0</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B12" s="17">
         <v>88</v>
@@ -11623,10 +11769,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G12" s="17">
         <v>500</v>
@@ -11640,7 +11786,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B13" s="17">
         <v>89</v>
@@ -11652,10 +11798,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G13" s="17">
         <v>500</v>
@@ -11669,7 +11815,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B14" s="17">
         <v>90</v>
@@ -11681,10 +11827,10 @@
         <v>7</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G14" s="17">
         <v>500</v>
@@ -11698,7 +11844,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B15" s="17">
         <v>91</v>
@@ -11707,13 +11853,13 @@
         <v>90</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G15" s="17">
         <v>500</v>
@@ -11727,7 +11873,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B16" s="17">
         <v>92</v>
@@ -11739,10 +11885,10 @@
         <v>7</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G16" s="17">
         <v>500</v>
@@ -11756,7 +11902,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B17" s="17">
         <v>93</v>
@@ -11768,10 +11914,10 @@
         <v>7</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G17" s="17">
         <v>500</v>
@@ -11783,12 +11929,12 @@
         <v>50</v>
       </c>
       <c r="K17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B18" s="17">
         <v>94</v>
@@ -11800,10 +11946,10 @@
         <v>7</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G18" s="17">
         <v>500</v>
@@ -11816,31 +11962,60 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="B19" s="15">
+      <c r="A19" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19" s="6">
         <v>96</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="6">
         <v>0</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="G19" s="15">
+      <c r="D19" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="G19" s="6">
         <v>500</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="6">
         <v>0</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B20" s="15">
+        <v>108</v>
+      </c>
+      <c r="C20" s="15">
+        <v>96</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="G20" s="15">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="15">
+        <v>50</v>
+      </c>
+      <c r="I20" s="15">
         <v>200</v>
       </c>
     </row>

--- a/Quests.xlsx
+++ b/Quests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F23939-4676-4824-97C5-A132A793132D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15922FF1-D3DE-4CAD-B9E6-54702A45E439}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15885" activeTab="5" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="38235" yWindow="2985" windowWidth="28800" windowHeight="15885" activeTab="2" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="324">
   <si>
     <t>Quest</t>
   </si>
@@ -225,9 +225,6 @@
     <t>Nether</t>
   </si>
   <si>
-    <t>5 Gold Ingots</t>
-  </si>
-  <si>
     <t>Stay Safe</t>
   </si>
   <si>
@@ -1003,6 +1000,15 @@
   </si>
   <si>
     <t>15 uncommon ore</t>
+  </si>
+  <si>
+    <t>10 Common Ore, roughmobs equipment</t>
+  </si>
+  <si>
+    <t>5 Gold Ingots, roughmobs ai enchntments</t>
+  </si>
+  <si>
+    <t>roughmobs bosses</t>
   </si>
 </sst>
 </file>
@@ -8347,7 +8353,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8456,7 +8462,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>41</v>
@@ -8488,7 +8494,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>15</v>
+        <v>321</v>
       </c>
       <c r="G5" s="3">
         <v>1000</v>
@@ -8676,7 +8682,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B12" s="23">
         <v>20</v>
@@ -8688,10 +8694,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="23" t="s">
         <v>66</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>67</v>
       </c>
       <c r="G12" s="23">
         <v>8000</v>
@@ -8705,7 +8711,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" s="6">
         <v>42</v>
@@ -8717,10 +8723,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="G13" s="6">
         <v>2000</v>
@@ -8734,7 +8740,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" s="6">
         <v>43</v>
@@ -8746,10 +8752,10 @@
         <v>7</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="G14" s="6">
         <v>4000</v>
@@ -8763,7 +8769,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" s="6">
         <v>44</v>
@@ -8775,10 +8781,10 @@
         <v>7</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="G15" s="6">
         <v>16000</v>
@@ -8792,7 +8798,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B16" s="8">
         <v>79</v>
@@ -8801,13 +8807,13 @@
         <v>6</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>229</v>
       </c>
       <c r="G16" s="8">
         <v>4000</v>
@@ -8821,7 +8827,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B17" s="8">
         <v>80</v>
@@ -8833,10 +8839,10 @@
         <v>7</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>232</v>
       </c>
       <c r="G17" s="8">
         <v>25000</v>
@@ -8848,12 +8854,12 @@
         <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B18" s="8">
         <v>81</v>
@@ -8865,10 +8871,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G18" s="8">
         <v>2000000</v>
@@ -8882,7 +8888,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B19" s="8">
         <v>82</v>
@@ -8894,10 +8900,10 @@
         <v>13</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G19" s="8">
         <v>2000000</v>
@@ -8911,7 +8917,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B20" s="8">
         <v>83</v>
@@ -8923,10 +8929,10 @@
         <v>13</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G20" s="8">
         <v>2000000</v>
@@ -8940,7 +8946,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B21" s="8">
         <v>84</v>
@@ -8952,10 +8958,10 @@
         <v>13</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G21" s="8">
         <v>2000000</v>
@@ -8969,7 +8975,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B22" s="8">
         <v>85</v>
@@ -8981,10 +8987,10 @@
         <v>13</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G22" s="8">
         <v>2000000</v>
@@ -8998,7 +9004,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B23" s="8">
         <v>86</v>
@@ -9010,10 +9016,10 @@
         <v>13</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G23" s="8">
         <v>2000000</v>
@@ -9027,7 +9033,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B24" s="8">
         <v>95</v>
@@ -9039,10 +9045,10 @@
         <v>7</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G24" s="8">
         <v>1000</v>
@@ -9056,7 +9062,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B25" s="8">
         <v>109</v>
@@ -9068,10 +9074,10 @@
         <v>7</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G25" s="8">
         <v>3000</v>
@@ -9085,7 +9091,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B26" s="18">
         <v>110</v>
@@ -9094,13 +9100,13 @@
         <v>95</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G26" s="18">
         <v>1500</v>
@@ -9130,7 +9136,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A8:I10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9301,7 +9307,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
@@ -9334,7 +9340,7 @@
         <v>61</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>62</v>
+        <v>322</v>
       </c>
       <c r="G7" s="21">
         <f xml:space="preserve"> 1.5 *45000</f>
@@ -9349,7 +9355,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="2">
         <v>45</v>
@@ -9361,10 +9367,10 @@
         <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="G8" s="9">
         <f xml:space="preserve"> 1.5 *35000</f>
@@ -9379,7 +9385,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" s="2">
         <v>46</v>
@@ -9391,10 +9397,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G9" s="9">
         <f xml:space="preserve"> 1.5 *37500</f>
@@ -9409,7 +9415,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B10" s="18">
         <v>111</v>
@@ -9418,13 +9424,13 @@
         <v>14</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G10" s="7">
         <v>60000</v>
@@ -9438,7 +9444,7 @@
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -9454,8 +9460,8 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9494,7 +9500,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>16</v>
@@ -9506,10 +9512,10 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
         <v>64</v>
-      </c>
-      <c r="F2" t="s">
-        <v>65</v>
       </c>
       <c r="G2">
         <v>52000</v>
@@ -9523,7 +9529,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>21</v>
@@ -9535,10 +9541,10 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3">
         <v>50000</v>
@@ -9552,7 +9558,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4">
         <v>22</v>
@@ -9564,10 +9570,10 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4">
         <v>62500</v>
@@ -9581,7 +9587,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5">
         <v>23</v>
@@ -9593,10 +9599,10 @@
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5">
         <v>75000</v>
@@ -9610,7 +9616,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6">
         <v>29</v>
@@ -9622,10 +9628,10 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6">
         <v>65000</v>
@@ -9639,7 +9645,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7">
         <v>30</v>
@@ -9651,10 +9657,10 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" t="s">
         <v>94</v>
-      </c>
-      <c r="F7" t="s">
-        <v>95</v>
       </c>
       <c r="G7">
         <v>75000</v>
@@ -9668,7 +9674,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8">
         <v>31</v>
@@ -9680,10 +9686,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G8">
         <v>87500</v>
@@ -9697,7 +9703,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9">
         <v>32</v>
@@ -9709,10 +9715,10 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G9">
         <v>150000</v>
@@ -9726,22 +9732,22 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10">
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
         <v>49</v>
       </c>
       <c r="E10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" t="s">
         <v>98</v>
-      </c>
-      <c r="F10" t="s">
-        <v>99</v>
       </c>
       <c r="G10">
         <v>92500</v>
@@ -9755,7 +9761,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="12">
         <v>34</v>
@@ -9767,10 +9773,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>33</v>
+        <v>323</v>
       </c>
       <c r="G11" s="12">
         <v>100000</v>
@@ -9784,7 +9790,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B12" s="2">
         <v>48</v>
@@ -9796,10 +9802,10 @@
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G12" s="2">
         <f xml:space="preserve"> 3 * 35000</f>
@@ -9814,7 +9820,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" s="2">
         <v>49</v>
@@ -9826,10 +9832,10 @@
         <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G13" s="2">
         <f xml:space="preserve"> 3 * 25000</f>
@@ -9844,7 +9850,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B14" s="2">
         <v>50</v>
@@ -9856,10 +9862,10 @@
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G14" s="2">
         <f xml:space="preserve"> 3 * 30000</f>
@@ -9874,7 +9880,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B15" s="2">
         <v>51</v>
@@ -9886,10 +9892,10 @@
         <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G15" s="2">
         <f xml:space="preserve"> 3 * 32500</f>
@@ -9904,7 +9910,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B16" s="2">
         <v>52</v>
@@ -9916,10 +9922,10 @@
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="G16" s="2">
         <f xml:space="preserve"> 3 * 35000</f>
@@ -9934,7 +9940,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B17" s="2">
         <v>53</v>
@@ -9946,10 +9952,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G17" s="2">
         <f xml:space="preserve"> 3 * 30000</f>
@@ -9962,12 +9968,12 @@
         <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" s="2">
         <v>54</v>
@@ -9979,10 +9985,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G18" s="2">
         <f xml:space="preserve"> 3 * 35000</f>
@@ -9997,22 +10003,22 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B19" s="7">
         <v>55</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G19" s="7">
         <f xml:space="preserve"> 3 * 100000</f>
@@ -10079,7 +10085,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2">
         <v>35</v>
@@ -10091,7 +10097,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -10108,7 +10114,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3">
         <v>36</v>
@@ -10120,10 +10126,10 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G3">
         <v>500000</v>
@@ -10137,7 +10143,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4">
         <v>37</v>
@@ -10149,10 +10155,10 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G4">
         <v>135000</v>
@@ -10166,7 +10172,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5">
         <v>38</v>
@@ -10178,10 +10184,10 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" t="s">
         <v>107</v>
-      </c>
-      <c r="F5" t="s">
-        <v>108</v>
       </c>
       <c r="G5">
         <v>142500</v>
@@ -10195,7 +10201,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="13">
         <v>39</v>
@@ -10207,7 +10213,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>33</v>
@@ -10224,7 +10230,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B7" s="2">
         <v>56</v>
@@ -10236,10 +10242,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G7" s="2">
         <v>67500</v>
@@ -10253,7 +10259,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B8" s="2">
         <v>57</v>
@@ -10265,10 +10271,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G8" s="2">
         <v>75000</v>
@@ -10282,7 +10288,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B9" s="2">
         <v>58</v>
@@ -10294,10 +10300,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G9" s="2">
         <v>77500</v>
@@ -10311,7 +10317,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B10" s="2">
         <v>59</v>
@@ -10323,10 +10329,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G10" s="2">
         <v>70000</v>
@@ -10340,7 +10346,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B11" s="2">
         <v>60</v>
@@ -10352,10 +10358,10 @@
         <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G11" s="2">
         <v>100000</v>
@@ -10369,7 +10375,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B12" s="18">
         <v>107</v>
@@ -10381,10 +10387,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>294</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="G12" s="18">
         <v>50000</v>
@@ -10398,7 +10404,7 @@
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -10455,7 +10461,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -10467,10 +10473,10 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G2">
         <v>155000</v>
@@ -10484,7 +10490,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B3" s="2">
         <v>41</v>
@@ -10496,10 +10502,10 @@
         <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G3" s="2">
         <v>155000</v>
@@ -10513,7 +10519,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" s="2">
         <v>61</v>
@@ -10525,10 +10531,10 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G4" s="2">
         <v>175000</v>
@@ -10542,7 +10548,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="2">
         <v>62</v>
@@ -10554,10 +10560,10 @@
         <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G5" s="2">
         <v>250000</v>
@@ -10571,7 +10577,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" s="2">
         <v>63</v>
@@ -10583,10 +10589,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G6" s="2">
         <v>300000</v>
@@ -10600,7 +10606,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B7" s="2">
         <v>64</v>
@@ -10612,10 +10618,10 @@
         <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G7" s="2">
         <v>275000</v>
@@ -10629,7 +10635,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B8" s="2">
         <v>65</v>
@@ -10641,10 +10647,10 @@
         <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G8" s="2">
         <v>325000</v>
@@ -10658,7 +10664,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B9" s="2">
         <v>66</v>
@@ -10670,10 +10676,10 @@
         <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G9" s="2">
         <v>450000</v>
@@ -10687,7 +10693,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B10" s="2">
         <v>67</v>
@@ -10699,10 +10705,10 @@
         <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G10" s="2">
         <v>200000</v>
@@ -10716,7 +10722,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B11" s="2">
         <v>68</v>
@@ -10728,10 +10734,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G11" s="2">
         <v>225000</v>
@@ -10745,7 +10751,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B12" s="2">
         <v>69</v>
@@ -10757,10 +10763,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G12" s="2">
         <v>250000</v>
@@ -10774,7 +10780,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B13" s="2">
         <v>70</v>
@@ -10786,10 +10792,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G13" s="2">
         <v>200000</v>
@@ -10803,7 +10809,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B14" s="2">
         <v>71</v>
@@ -10815,10 +10821,10 @@
         <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G14" s="2">
         <v>275000</v>
@@ -10832,7 +10838,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B15" s="2">
         <v>72</v>
@@ -10844,10 +10850,10 @@
         <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G15" s="2">
         <v>325000</v>
@@ -10861,7 +10867,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B16" s="2">
         <v>73</v>
@@ -10873,10 +10879,10 @@
         <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G16" s="2">
         <v>425000</v>
@@ -10890,7 +10896,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B17" s="2">
         <v>74</v>
@@ -10902,10 +10908,10 @@
         <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G17" s="2">
         <v>550000</v>
@@ -10917,12 +10923,12 @@
         <v>250</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B18" s="2">
         <v>75</v>
@@ -10934,10 +10940,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G18" s="2">
         <v>400000</v>
@@ -10951,7 +10957,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B19" s="2">
         <v>76</v>
@@ -10963,10 +10969,10 @@
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="G19" s="2">
         <v>500000</v>
@@ -10980,22 +10986,22 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B20" s="14">
         <v>77</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="14">
         <v>250000</v>
@@ -11022,7 +11028,7 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -11062,7 +11068,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B2" s="2">
         <v>78</v>
@@ -11074,7 +11080,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>33</v>
@@ -11091,7 +11097,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B3" s="2">
         <v>97</v>
@@ -11103,10 +11109,10 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G3" s="2">
         <v>625000</v>
@@ -11120,7 +11126,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B4" s="2">
         <v>98</v>
@@ -11132,10 +11138,10 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G4" s="2">
         <v>625000</v>
@@ -11149,7 +11155,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B5" s="2">
         <v>99</v>
@@ -11161,10 +11167,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G5" s="2">
         <v>625000</v>
@@ -11178,7 +11184,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B6" s="2">
         <v>100</v>
@@ -11190,10 +11196,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G6" s="2">
         <v>625000</v>
@@ -11207,7 +11213,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B7" s="2">
         <v>101</v>
@@ -11219,10 +11225,10 @@
         <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G7" s="8">
         <v>500000</v>
@@ -11236,7 +11242,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B8" s="2">
         <v>102</v>
@@ -11248,10 +11254,10 @@
         <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G8" s="8">
         <v>500000</v>
@@ -11265,7 +11271,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B9" s="2">
         <v>103</v>
@@ -11277,10 +11283,10 @@
         <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G9" s="8">
         <v>500000</v>
@@ -11294,7 +11300,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B10" s="2">
         <v>104</v>
@@ -11306,10 +11312,10 @@
         <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G10" s="8">
         <v>500000</v>
@@ -11323,7 +11329,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B11" s="2">
         <v>105</v>
@@ -11335,10 +11341,10 @@
         <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G11" s="8">
         <v>500000</v>
@@ -11352,7 +11358,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B12" s="2">
         <v>106</v>
@@ -11364,10 +11370,10 @@
         <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G12" s="8">
         <v>500000</v>
@@ -11381,22 +11387,22 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B13" s="7">
         <v>20</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G13" s="18">
         <v>1000000</v>
@@ -11410,7 +11416,7 @@
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -11554,7 +11560,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B5" s="4">
         <v>47</v>
@@ -11566,10 +11572,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="G5" s="4">
         <v>10000</v>
@@ -11583,7 +11589,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="5">
         <v>24</v>
@@ -11595,10 +11601,10 @@
         <v>7</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="G6" s="5">
         <v>500</v>
@@ -11612,7 +11618,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="5">
         <v>25</v>
@@ -11624,10 +11630,10 @@
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="G7" s="5">
         <v>1000</v>
@@ -11641,7 +11647,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="5">
         <v>26</v>
@@ -11653,10 +11659,10 @@
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" s="5">
         <v>2000</v>
@@ -11670,7 +11676,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="5">
         <v>27</v>
@@ -11682,10 +11688,10 @@
         <v>7</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="G9" s="5">
         <v>4000</v>
@@ -11699,7 +11705,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="5">
         <v>28</v>
@@ -11711,10 +11717,10 @@
         <v>49</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="G10" s="5">
         <v>21000</v>
@@ -11728,7 +11734,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B11" s="17">
         <v>87</v>
@@ -11740,10 +11746,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G11" s="17">
         <v>500</v>
@@ -11757,7 +11763,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B12" s="17">
         <v>88</v>
@@ -11769,10 +11775,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G12" s="17">
         <v>500</v>
@@ -11786,7 +11792,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B13" s="17">
         <v>89</v>
@@ -11798,10 +11804,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G13" s="17">
         <v>500</v>
@@ -11815,7 +11821,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B14" s="17">
         <v>90</v>
@@ -11827,10 +11833,10 @@
         <v>7</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G14" s="17">
         <v>500</v>
@@ -11844,7 +11850,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B15" s="17">
         <v>91</v>
@@ -11853,13 +11859,13 @@
         <v>90</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G15" s="17">
         <v>500</v>
@@ -11873,7 +11879,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B16" s="17">
         <v>92</v>
@@ -11885,10 +11891,10 @@
         <v>7</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G16" s="17">
         <v>500</v>
@@ -11902,7 +11908,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B17" s="17">
         <v>93</v>
@@ -11914,10 +11920,10 @@
         <v>7</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G17" s="17">
         <v>500</v>
@@ -11929,12 +11935,12 @@
         <v>50</v>
       </c>
       <c r="K17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B18" s="17">
         <v>94</v>
@@ -11946,10 +11952,10 @@
         <v>7</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G18" s="17">
         <v>500</v>
@@ -11963,7 +11969,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B19" s="6">
         <v>96</v>
@@ -11972,13 +11978,13 @@
         <v>0</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G19" s="6">
         <v>500</v>
@@ -11992,7 +11998,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B20" s="15">
         <v>108</v>
@@ -12004,10 +12010,10 @@
         <v>7</v>
       </c>
       <c r="E20" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="F20" s="15" t="s">
         <v>310</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>311</v>
       </c>
       <c r="G20" s="15">
         <v>1000</v>

--- a/Quests.xlsx
+++ b/Quests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15922FF1-D3DE-4CAD-B9E6-54702A45E439}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456C1C67-1A2E-457C-8DC6-7A90957BA22D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38235" yWindow="2985" windowWidth="28800" windowHeight="15885" activeTab="2" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="38235" yWindow="2985" windowWidth="28800" windowHeight="15885" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="330">
   <si>
     <t>Quest</t>
   </si>
@@ -417,598 +417,616 @@
     <t>1 Ender Pearl</t>
   </si>
   <si>
+    <t>3 Ender Pearl</t>
+  </si>
+  <si>
+    <t>3 warp scrolls</t>
+  </si>
+  <si>
+    <t>1 bound scroll, 5 return scroll</t>
+  </si>
+  <si>
+    <t>Show Me The Way</t>
+  </si>
+  <si>
+    <t>Direct Me The Whey</t>
+  </si>
+  <si>
+    <t>80 - 680000</t>
+  </si>
+  <si>
+    <t>13300 - 92600</t>
+  </si>
+  <si>
+    <t>92600 - 466500</t>
+  </si>
+  <si>
+    <t>466500 - 689200</t>
+  </si>
+  <si>
+    <t>2200000 - 4300000</t>
+  </si>
+  <si>
+    <t>Hit Them Where It Stings</t>
+  </si>
+  <si>
+    <t>50 Honey Brood Blocks</t>
+  </si>
+  <si>
+    <t>1 small epic currency lootbox</t>
+  </si>
+  <si>
+    <t>Slimey Means</t>
+  </si>
+  <si>
+    <t>15 Honey Slimes</t>
+  </si>
+  <si>
+    <t>1 epic small gear</t>
+  </si>
+  <si>
+    <t>1 asmodeus, 1 rahovart</t>
+  </si>
+  <si>
+    <t>Finding The Source</t>
+  </si>
+  <si>
+    <t>Lords Of The Underworld</t>
+  </si>
+  <si>
+    <t>50 trite</t>
+  </si>
+  <si>
+    <t>15 belph</t>
+  </si>
+  <si>
+    <t>15 Salamander</t>
+  </si>
+  <si>
+    <t>20 pinky</t>
+  </si>
+  <si>
+    <t>30 afrit</t>
+  </si>
+  <si>
+    <t>1 epic small currency</t>
+  </si>
+  <si>
+    <t>1 epic medium currency</t>
+  </si>
+  <si>
+    <t>10 behemoth</t>
+  </si>
+  <si>
+    <t>48,49,50,51,52,53,54</t>
+  </si>
+  <si>
+    <t>1 legendary medium gear</t>
+  </si>
+  <si>
+    <t>Squashing Bugs</t>
+  </si>
+  <si>
+    <t>30 Trite</t>
+  </si>
+  <si>
+    <t>15 Geist</t>
+  </si>
+  <si>
+    <t>2 epic medium currency</t>
+  </si>
+  <si>
+    <t>3 epic medium currency</t>
+  </si>
+  <si>
+    <t>1 Legendary medium Currency</t>
+  </si>
+  <si>
+    <t>1 epic medium gear</t>
+  </si>
+  <si>
+    <t>10 Enderman</t>
+  </si>
+  <si>
+    <t>On The Hunt</t>
+  </si>
+  <si>
+    <t>What Are These Anyway?</t>
+  </si>
+  <si>
+    <t>5 Pinky</t>
+  </si>
+  <si>
+    <t>3 Astaroth</t>
+  </si>
+  <si>
+    <t>Firing That Lazer</t>
+  </si>
+  <si>
+    <t>And The Brain</t>
+  </si>
+  <si>
+    <t>689200 - 2800000</t>
+  </si>
+  <si>
+    <t>In A Daze</t>
+  </si>
+  <si>
+    <t>10 Unicorns</t>
+  </si>
+  <si>
+    <t>64 Dream Plank, 64 White Plank, 32 Dream Dirt</t>
+  </si>
+  <si>
+    <t>Make Your Bed</t>
+  </si>
+  <si>
+    <t>1 Luxurious Bed</t>
+  </si>
+  <si>
+    <t>32 Rainbow Seed</t>
+  </si>
+  <si>
+    <t>32 Lollipop (from bushes</t>
+  </si>
+  <si>
+    <t>Candyland</t>
+  </si>
+  <si>
+    <t>Unicorns…</t>
+  </si>
+  <si>
+    <t>… And Rainbows!</t>
+  </si>
+  <si>
+    <t>Staying Positive</t>
+  </si>
+  <si>
+    <t>Sweet Tooth</t>
+  </si>
+  <si>
+    <t>Seeds To Happiness</t>
+  </si>
+  <si>
+    <t>1 epic small gear, 1 epic small currency</t>
+  </si>
+  <si>
+    <t>1 legendary small gear, 1 legendary small currency</t>
+  </si>
+  <si>
+    <t>Make Your Bed II</t>
+  </si>
+  <si>
+    <t>1 Wretched Bed</t>
+  </si>
+  <si>
+    <t>In A Haze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 Blood Planks, 32 Dead Planks, </t>
+  </si>
+  <si>
+    <t>Zits Are Evil</t>
+  </si>
+  <si>
+    <t>Negative Karma</t>
+  </si>
+  <si>
+    <t>32 Candy Ore</t>
+  </si>
+  <si>
+    <t>32 Rainbow Ore</t>
+  </si>
+  <si>
+    <t>16 Positite Ore</t>
+  </si>
+  <si>
+    <t>16 Negatite Ore</t>
+  </si>
+  <si>
+    <t>32 Zitrite Ore</t>
+  </si>
+  <si>
+    <t>32 Necrum Ore</t>
+  </si>
+  <si>
+    <t>64 Rainbow Berries</t>
+  </si>
+  <si>
+    <t>Source Of Negativity</t>
+  </si>
+  <si>
+    <t>1 epic big gear, 1 epic big currency</t>
+  </si>
+  <si>
+    <t>15 Lobber</t>
+  </si>
+  <si>
+    <t>3 Spectre</t>
+  </si>
+  <si>
+    <t>1 epic large currency</t>
+  </si>
+  <si>
+    <t>66,74,76</t>
+  </si>
+  <si>
+    <t>10 Reapers</t>
+  </si>
+  <si>
+    <t>Where Are The Minutemen?!</t>
+  </si>
+  <si>
+    <t>1 chief barbarian 10 barbarian</t>
+  </si>
+  <si>
+    <t>1 epic medium currency bag</t>
+  </si>
+  <si>
+    <t>Eternal Darkness</t>
+  </si>
+  <si>
+    <t>The Midnight</t>
+  </si>
+  <si>
+    <t>1 malignant red plant block</t>
+  </si>
+  <si>
+    <t>Sleep Paralysis</t>
+  </si>
+  <si>
+    <t>3 epic ore</t>
+  </si>
+  <si>
+    <t>Burning Hides</t>
+  </si>
+  <si>
+    <t>Firebolt!</t>
+  </si>
+  <si>
+    <t>Heebie Jeebies</t>
+  </si>
+  <si>
+    <t>And The Brain II</t>
+  </si>
+  <si>
+    <t>Squashing Bugs II</t>
+  </si>
+  <si>
+    <t>15 astaroth</t>
+  </si>
+  <si>
+    <t>Exploring Fiery Depths</t>
+  </si>
+  <si>
+    <t>The Full Arch</t>
+  </si>
+  <si>
+    <t>The Source Of The Undead</t>
+  </si>
+  <si>
+    <t>Dream Eaters</t>
+  </si>
+  <si>
+    <t>Unpleasantries</t>
+  </si>
+  <si>
+    <t>Optimization Algorithms</t>
+  </si>
+  <si>
+    <t>ITEM_CRAFT</t>
+  </si>
+  <si>
+    <t>1 rare capacitor</t>
+  </si>
+  <si>
+    <t>3 rare ores, 1 small currency epic</t>
+  </si>
+  <si>
+    <t>The Master Bag</t>
+  </si>
+  <si>
+    <t>1 master bag</t>
+  </si>
+  <si>
+    <t>1 large currency legendary</t>
+  </si>
+  <si>
+    <t>Beastiary II</t>
+  </si>
+  <si>
+    <t>Beastiary I</t>
+  </si>
+  <si>
+    <t>Beastiary III</t>
+  </si>
+  <si>
+    <t>Beastiary IV</t>
+  </si>
+  <si>
+    <t>Beastiary V</t>
+  </si>
+  <si>
+    <t>Beastiary VI</t>
+  </si>
+  <si>
+    <t>1 large currency epic</t>
+  </si>
+  <si>
+    <t>A Recipe For Disaster</t>
+  </si>
+  <si>
+    <t>Upgrading Your Kitchen</t>
+  </si>
+  <si>
+    <t>What's The Date?</t>
+  </si>
+  <si>
+    <t>1 Calendar</t>
+  </si>
+  <si>
+    <t>1 Oven</t>
+  </si>
+  <si>
+    <t>1 Cheese</t>
+  </si>
+  <si>
+    <t>Milkin' It</t>
+  </si>
+  <si>
+    <t>Gouda Job!</t>
+  </si>
+  <si>
+    <t>1 Bucket of Milk</t>
+  </si>
+  <si>
+    <t>6 Zombies, 2 Skeletons, 1 Creepers</t>
+  </si>
+  <si>
+    <t>I Can't Carry Anymore</t>
+  </si>
+  <si>
+    <t>1 small backpack</t>
+  </si>
+  <si>
+    <t>Food Storage</t>
+  </si>
+  <si>
+    <t>Your Engineering Degree</t>
+  </si>
+  <si>
+    <t>1 cooking for blockheads 1</t>
+  </si>
+  <si>
+    <t>The Possibilities!</t>
+  </si>
+  <si>
+    <t>1 no filter ed recipe book</t>
+  </si>
+  <si>
+    <t>Back To The Chopping Board</t>
+  </si>
+  <si>
+    <t>1 Cooking Table</t>
+  </si>
+  <si>
+    <t>1 Kitchen Cabinet</t>
+  </si>
+  <si>
+    <t>1 engineering manual</t>
+  </si>
+  <si>
+    <t>4 sweet potato seed, 4 pea seed, 1 small currency epic</t>
+  </si>
+  <si>
+    <t>5 bottles, 1 small currency epic</t>
+  </si>
+  <si>
+    <t>8 honeydew seed, 1 small currency epic</t>
+  </si>
+  <si>
+    <t>3 iron block, 1 small currency epic</t>
+  </si>
+  <si>
+    <t>3 Cheese, 1 small currency epic</t>
+  </si>
+  <si>
+    <t>1 Spice Rack, 1 small currency epic</t>
+  </si>
+  <si>
+    <t>1 iron block, 1 small currency epic</t>
+  </si>
+  <si>
+    <t>Stick To The Basics</t>
+  </si>
+  <si>
+    <t>Tenebrum</t>
+  </si>
+  <si>
+    <t>Pitch Black</t>
+  </si>
+  <si>
+    <t>Midnight Rifts</t>
+  </si>
+  <si>
+    <t>Rift Seeker</t>
+  </si>
+  <si>
+    <t>Richard Rider</t>
+  </si>
+  <si>
+    <t>This Ain't The Bumblezone!</t>
+  </si>
+  <si>
+    <t>From The Shadows</t>
+  </si>
+  <si>
+    <t>64 Shroom Clumps</t>
+  </si>
+  <si>
+    <t>64 Dark Sticks</t>
+  </si>
+  <si>
+    <t>32 Tenebrum Ingots</t>
+  </si>
+  <si>
+    <t>32 Nagrilite Ingots</t>
+  </si>
+  <si>
+    <t>Obsidian?</t>
+  </si>
+  <si>
+    <t>64 Nightstone</t>
+  </si>
+  <si>
+    <t>48 Ebonite</t>
+  </si>
+  <si>
+    <t>20 rifter</t>
+  </si>
+  <si>
+    <t>20 nova</t>
+  </si>
+  <si>
+    <t>20 stinger</t>
+  </si>
+  <si>
+    <t>20 skulk</t>
+  </si>
+  <si>
+    <t>End Game</t>
+  </si>
+  <si>
+    <t>97,98,99,100, 105</t>
+  </si>
+  <si>
+    <t>/slash give map @p 80 random 4 5 5</t>
+  </si>
+  <si>
+    <t>1 small gear legendary</t>
+  </si>
+  <si>
+    <t>3 Legendary Ore</t>
+  </si>
+  <si>
+    <t>REMOVE I'm The Map</t>
+  </si>
+  <si>
+    <t>Mapping Device</t>
+  </si>
+  <si>
+    <t>1 Mapping Device</t>
+  </si>
+  <si>
+    <t>/slash give map @p 80 random 0 0 3</t>
+  </si>
+  <si>
+    <t>1 Diamond</t>
+  </si>
+  <si>
+    <t>1 Legendary Big Currency, 1 of each reset pot, 3 dragon scale</t>
+  </si>
+  <si>
+    <t>3 Zoatar</t>
+  </si>
+  <si>
+    <t>3 Cockatrice</t>
+  </si>
+  <si>
+    <t>3 Ignibus</t>
+  </si>
+  <si>
+    <t>3 Remobra</t>
+  </si>
+  <si>
+    <t>3 Uvaraptor</t>
+  </si>
+  <si>
+    <t>3 Morock</t>
+  </si>
+  <si>
+    <t>1 cheeseburger, 1 small currency epic</t>
+  </si>
+  <si>
+    <t>1 fruit basket, 1 small currency epic</t>
+  </si>
+  <si>
+    <t>CRAFTING_DETECT</t>
+  </si>
+  <si>
+    <t>1 diamonds</t>
+  </si>
+  <si>
+    <t>Bad Kind Of Shroom</t>
+  </si>
+  <si>
+    <t>The Grand Hempening</t>
+  </si>
+  <si>
+    <t>1 Hemp Seed</t>
+  </si>
+  <si>
+    <t>1 Steel Plate</t>
+  </si>
+  <si>
+    <t>Crafting Equipment</t>
+  </si>
+  <si>
+    <t>Full Iron Armor</t>
+  </si>
+  <si>
+    <t>Shield Hero</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>25 uncommon ore</t>
+  </si>
+  <si>
+    <t>Sweet Retribution</t>
+  </si>
+  <si>
+    <t>Honey Shield</t>
+  </si>
+  <si>
+    <t>Assortment of Honeycombs (no quartz)</t>
+  </si>
+  <si>
+    <t>1 Iron Sword 1 crossbow</t>
+  </si>
+  <si>
+    <t>15 uncommon ore</t>
+  </si>
+  <si>
+    <t>10 Common Ore, roughmobs equipment</t>
+  </si>
+  <si>
+    <t>5 Gold Ingots, roughmobs ai enchntments</t>
+  </si>
+  <si>
+    <t>roughmobs bosses</t>
+  </si>
+  <si>
     <t>1 waystone</t>
   </si>
   <si>
-    <t>3 Ender Pearl</t>
-  </si>
-  <si>
-    <t>3 warp scrolls</t>
-  </si>
-  <si>
-    <t>1 bound scroll, 5 return scroll</t>
-  </si>
-  <si>
-    <t>Show Me The Way</t>
-  </si>
-  <si>
-    <t>Direct Me The Whey</t>
-  </si>
-  <si>
-    <t>80 - 680000</t>
-  </si>
-  <si>
-    <t>13300 - 92600</t>
-  </si>
-  <si>
-    <t>92600 - 466500</t>
-  </si>
-  <si>
-    <t>466500 - 689200</t>
-  </si>
-  <si>
-    <t>2200000 - 4300000</t>
-  </si>
-  <si>
-    <t>Hit Them Where It Stings</t>
-  </si>
-  <si>
-    <t>50 Honey Brood Blocks</t>
-  </si>
-  <si>
-    <t>1 small epic currency lootbox</t>
-  </si>
-  <si>
-    <t>Slimey Means</t>
-  </si>
-  <si>
-    <t>15 Honey Slimes</t>
-  </si>
-  <si>
-    <t>1 epic small gear</t>
-  </si>
-  <si>
-    <t>1 asmodeus, 1 rahovart</t>
-  </si>
-  <si>
-    <t>Finding The Source</t>
-  </si>
-  <si>
-    <t>Lords Of The Underworld</t>
-  </si>
-  <si>
-    <t>50 trite</t>
-  </si>
-  <si>
-    <t>15 belph</t>
-  </si>
-  <si>
-    <t>15 Salamander</t>
-  </si>
-  <si>
-    <t>20 pinky</t>
-  </si>
-  <si>
-    <t>30 afrit</t>
-  </si>
-  <si>
-    <t>1 epic small currency</t>
-  </si>
-  <si>
-    <t>1 epic medium currency</t>
-  </si>
-  <si>
-    <t>10 behemoth</t>
-  </si>
-  <si>
-    <t>48,49,50,51,52,53,54</t>
-  </si>
-  <si>
-    <t>1 legendary medium gear</t>
-  </si>
-  <si>
-    <t>Squashing Bugs</t>
-  </si>
-  <si>
-    <t>30 Trite</t>
-  </si>
-  <si>
-    <t>15 Geist</t>
-  </si>
-  <si>
-    <t>2 epic medium currency</t>
-  </si>
-  <si>
-    <t>3 epic medium currency</t>
-  </si>
-  <si>
-    <t>1 Legendary medium Currency</t>
-  </si>
-  <si>
-    <t>1 epic medium gear</t>
-  </si>
-  <si>
-    <t>10 Enderman</t>
-  </si>
-  <si>
-    <t>On The Hunt</t>
-  </si>
-  <si>
-    <t>What Are These Anyway?</t>
-  </si>
-  <si>
-    <t>5 Pinky</t>
-  </si>
-  <si>
-    <t>3 Astaroth</t>
-  </si>
-  <si>
-    <t>Firing That Lazer</t>
-  </si>
-  <si>
-    <t>And The Brain</t>
-  </si>
-  <si>
-    <t>689200 - 2800000</t>
-  </si>
-  <si>
-    <t>In A Daze</t>
-  </si>
-  <si>
-    <t>10 Unicorns</t>
-  </si>
-  <si>
-    <t>64 Dream Plank, 64 White Plank, 32 Dream Dirt</t>
-  </si>
-  <si>
-    <t>Make Your Bed</t>
-  </si>
-  <si>
-    <t>1 Luxurious Bed</t>
-  </si>
-  <si>
-    <t>32 Rainbow Seed</t>
-  </si>
-  <si>
-    <t>32 Lollipop (from bushes</t>
-  </si>
-  <si>
-    <t>Candyland</t>
-  </si>
-  <si>
-    <t>Unicorns…</t>
-  </si>
-  <si>
-    <t>… And Rainbows!</t>
-  </si>
-  <si>
-    <t>Staying Positive</t>
-  </si>
-  <si>
-    <t>Sweet Tooth</t>
-  </si>
-  <si>
-    <t>Seeds To Happiness</t>
-  </si>
-  <si>
-    <t>1 epic small gear, 1 epic small currency</t>
-  </si>
-  <si>
-    <t>1 legendary small gear, 1 legendary small currency</t>
-  </si>
-  <si>
-    <t>Make Your Bed II</t>
-  </si>
-  <si>
-    <t>1 Wretched Bed</t>
-  </si>
-  <si>
-    <t>In A Haze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 Blood Planks, 32 Dead Planks, </t>
-  </si>
-  <si>
-    <t>Zits Are Evil</t>
-  </si>
-  <si>
-    <t>Negative Karma</t>
-  </si>
-  <si>
-    <t>32 Candy Ore</t>
-  </si>
-  <si>
-    <t>32 Rainbow Ore</t>
-  </si>
-  <si>
-    <t>16 Positite Ore</t>
-  </si>
-  <si>
-    <t>16 Negatite Ore</t>
-  </si>
-  <si>
-    <t>32 Zitrite Ore</t>
-  </si>
-  <si>
-    <t>32 Necrum Ore</t>
-  </si>
-  <si>
-    <t>64 Rainbow Berries</t>
-  </si>
-  <si>
-    <t>Source Of Negativity</t>
-  </si>
-  <si>
-    <t>1 epic big gear, 1 epic big currency</t>
-  </si>
-  <si>
-    <t>15 Lobber</t>
-  </si>
-  <si>
-    <t>3 Spectre</t>
-  </si>
-  <si>
-    <t>1 epic large currency</t>
-  </si>
-  <si>
-    <t>66,74,76</t>
-  </si>
-  <si>
-    <t>10 Reapers</t>
-  </si>
-  <si>
-    <t>Where Are The Minutemen?!</t>
-  </si>
-  <si>
-    <t>1 chief barbarian 10 barbarian</t>
-  </si>
-  <si>
-    <t>1 epic medium currency bag</t>
-  </si>
-  <si>
-    <t>Eternal Darkness</t>
-  </si>
-  <si>
-    <t>The Midnight</t>
-  </si>
-  <si>
-    <t>1 malignant red plant block</t>
-  </si>
-  <si>
-    <t>Sleep Paralysis</t>
-  </si>
-  <si>
-    <t>3 epic ore</t>
-  </si>
-  <si>
-    <t>Burning Hides</t>
-  </si>
-  <si>
-    <t>Firebolt!</t>
-  </si>
-  <si>
-    <t>Heebie Jeebies</t>
-  </si>
-  <si>
-    <t>And The Brain II</t>
-  </si>
-  <si>
-    <t>Squashing Bugs II</t>
-  </si>
-  <si>
-    <t>15 astaroth</t>
-  </si>
-  <si>
-    <t>Exploring Fiery Depths</t>
-  </si>
-  <si>
-    <t>The Full Arch</t>
-  </si>
-  <si>
-    <t>The Source Of The Undead</t>
-  </si>
-  <si>
-    <t>Dream Eaters</t>
-  </si>
-  <si>
-    <t>Unpleasantries</t>
-  </si>
-  <si>
-    <t>Optimization Algorithms</t>
-  </si>
-  <si>
-    <t>ITEM_CRAFT</t>
-  </si>
-  <si>
-    <t>1 rare capacitor</t>
-  </si>
-  <si>
-    <t>3 rare ores, 1 small currency epic</t>
-  </si>
-  <si>
-    <t>The Master Bag</t>
-  </si>
-  <si>
-    <t>1 master bag</t>
-  </si>
-  <si>
-    <t>1 large currency legendary</t>
-  </si>
-  <si>
-    <t>Beastiary II</t>
-  </si>
-  <si>
-    <t>Beastiary I</t>
-  </si>
-  <si>
-    <t>Beastiary III</t>
-  </si>
-  <si>
-    <t>Beastiary IV</t>
-  </si>
-  <si>
-    <t>Beastiary V</t>
-  </si>
-  <si>
-    <t>Beastiary VI</t>
-  </si>
-  <si>
-    <t>1 large currency epic</t>
-  </si>
-  <si>
-    <t>A Recipe For Disaster</t>
-  </si>
-  <si>
-    <t>Upgrading Your Kitchen</t>
-  </si>
-  <si>
-    <t>What's The Date?</t>
-  </si>
-  <si>
-    <t>1 Calendar</t>
-  </si>
-  <si>
-    <t>1 Oven</t>
-  </si>
-  <si>
-    <t>1 Cheese</t>
-  </si>
-  <si>
-    <t>Milkin' It</t>
-  </si>
-  <si>
-    <t>Gouda Job!</t>
-  </si>
-  <si>
-    <t>1 Bucket of Milk</t>
-  </si>
-  <si>
-    <t>6 Zombies, 2 Skeletons, 1 Creepers</t>
-  </si>
-  <si>
-    <t>I Can't Carry Anymore</t>
-  </si>
-  <si>
-    <t>1 small backpack</t>
-  </si>
-  <si>
-    <t>Food Storage</t>
-  </si>
-  <si>
-    <t>Your Engineering Degree</t>
-  </si>
-  <si>
-    <t>1 cooking for blockheads 1</t>
-  </si>
-  <si>
-    <t>The Possibilities!</t>
-  </si>
-  <si>
-    <t>1 no filter ed recipe book</t>
-  </si>
-  <si>
-    <t>Back To The Chopping Board</t>
-  </si>
-  <si>
-    <t>1 Cooking Table</t>
-  </si>
-  <si>
-    <t>1 Kitchen Cabinet</t>
-  </si>
-  <si>
-    <t>1 engineering manual</t>
-  </si>
-  <si>
-    <t>4 sweet potato seed, 4 pea seed, 1 small currency epic</t>
-  </si>
-  <si>
-    <t>5 bottles, 1 small currency epic</t>
-  </si>
-  <si>
-    <t>8 honeydew seed, 1 small currency epic</t>
-  </si>
-  <si>
-    <t>3 iron block, 1 small currency epic</t>
-  </si>
-  <si>
-    <t>3 Cheese, 1 small currency epic</t>
-  </si>
-  <si>
-    <t>1 Spice Rack, 1 small currency epic</t>
-  </si>
-  <si>
-    <t>1 iron block, 1 small currency epic</t>
-  </si>
-  <si>
-    <t>Stick To The Basics</t>
-  </si>
-  <si>
-    <t>Tenebrum</t>
-  </si>
-  <si>
-    <t>Pitch Black</t>
-  </si>
-  <si>
-    <t>Midnight Rifts</t>
-  </si>
-  <si>
-    <t>Rift Seeker</t>
-  </si>
-  <si>
-    <t>Richard Rider</t>
-  </si>
-  <si>
-    <t>This Ain't The Bumblezone!</t>
-  </si>
-  <si>
-    <t>From The Shadows</t>
-  </si>
-  <si>
-    <t>64 Shroom Clumps</t>
-  </si>
-  <si>
-    <t>64 Dark Sticks</t>
-  </si>
-  <si>
-    <t>32 Tenebrum Ingots</t>
-  </si>
-  <si>
-    <t>32 Nagrilite Ingots</t>
-  </si>
-  <si>
-    <t>Obsidian?</t>
-  </si>
-  <si>
-    <t>64 Nightstone</t>
-  </si>
-  <si>
-    <t>48 Ebonite</t>
-  </si>
-  <si>
-    <t>20 rifter</t>
-  </si>
-  <si>
-    <t>20 nova</t>
-  </si>
-  <si>
-    <t>20 stinger</t>
-  </si>
-  <si>
-    <t>20 skulk</t>
-  </si>
-  <si>
-    <t>End Game</t>
-  </si>
-  <si>
-    <t>97,98,99,100, 105</t>
-  </si>
-  <si>
-    <t>/slash give map @p 80 random 4 5 5</t>
-  </si>
-  <si>
-    <t>1 small gear legendary</t>
-  </si>
-  <si>
-    <t>3 Legendary Ore</t>
-  </si>
-  <si>
-    <t>REMOVE I'm The Map</t>
-  </si>
-  <si>
-    <t>Mapping Device</t>
-  </si>
-  <si>
-    <t>1 Mapping Device</t>
-  </si>
-  <si>
-    <t>/slash give map @p 80 random 0 0 3</t>
-  </si>
-  <si>
-    <t>1 Diamond</t>
-  </si>
-  <si>
-    <t>1 Legendary Big Currency, 1 of each reset pot, 3 dragon scale</t>
-  </si>
-  <si>
-    <t>3 Zoatar</t>
-  </si>
-  <si>
-    <t>3 Cockatrice</t>
-  </si>
-  <si>
-    <t>3 Ignibus</t>
-  </si>
-  <si>
-    <t>3 Remobra</t>
-  </si>
-  <si>
-    <t>3 Uvaraptor</t>
-  </si>
-  <si>
-    <t>3 Morock</t>
-  </si>
-  <si>
-    <t>1 cheeseburger, 1 small currency epic</t>
-  </si>
-  <si>
-    <t>1 fruit basket, 1 small currency epic</t>
-  </si>
-  <si>
-    <t>CRAFTING_DETECT</t>
-  </si>
-  <si>
-    <t>1 diamonds</t>
-  </si>
-  <si>
-    <t>Bad Kind Of Shroom</t>
-  </si>
-  <si>
-    <t>The Grand Hempening</t>
-  </si>
-  <si>
-    <t>1 Hemp Seed</t>
-  </si>
-  <si>
-    <t>1 Steel Plate</t>
-  </si>
-  <si>
-    <t>Crafting Equipment</t>
-  </si>
-  <si>
-    <t>Full Iron Armor</t>
-  </si>
-  <si>
-    <t>Shield Hero</t>
-  </si>
-  <si>
-    <t>Shield</t>
-  </si>
-  <si>
-    <t>25 uncommon ore</t>
-  </si>
-  <si>
-    <t>Sweet Retribution</t>
-  </si>
-  <si>
-    <t>Honey Shield</t>
-  </si>
-  <si>
-    <t>Assortment of Honeycombs (no quartz)</t>
-  </si>
-  <si>
-    <t>1 Iron Sword 1 crossbow</t>
-  </si>
-  <si>
-    <t>15 uncommon ore</t>
-  </si>
-  <si>
-    <t>10 Common Ore, roughmobs equipment</t>
-  </si>
-  <si>
-    <t>5 Gold Ingots, roughmobs ai enchntments</t>
-  </si>
-  <si>
-    <t>roughmobs bosses</t>
+    <t>cavern:cavern</t>
+  </si>
+  <si>
+    <t>1 Diamond Pickaxe</t>
+  </si>
+  <si>
+    <t>Mining World</t>
+  </si>
+  <si>
+    <t>Mining World II</t>
+  </si>
+  <si>
+    <t>cavern:huge:cavern</t>
+  </si>
+  <si>
+    <t>1 Iron Pickaxe</t>
   </si>
 </sst>
 </file>
@@ -2515,6 +2533,9 @@
                 <c:pt idx="10">
                   <c:v>50</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2556,6 +2577,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3296,6 +3320,9 @@
                 <c:pt idx="11">
                   <c:v>150</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3339,6 +3366,9 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -8352,8 +8382,8 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8462,7 +8492,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>41</v>
@@ -8494,7 +8524,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G5" s="3">
         <v>1000</v>
@@ -8682,7 +8712,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B12" s="23">
         <v>20</v>
@@ -8740,7 +8770,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="6">
         <v>43</v>
@@ -8752,10 +8782,10 @@
         <v>7</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="G14" s="6">
         <v>4000</v>
@@ -8769,7 +8799,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" s="6">
         <v>44</v>
@@ -8781,10 +8811,10 @@
         <v>7</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="G15" s="6">
         <v>16000</v>
@@ -8798,7 +8828,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B16" s="8">
         <v>79</v>
@@ -8807,13 +8837,13 @@
         <v>6</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>227</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>228</v>
       </c>
       <c r="G16" s="8">
         <v>4000</v>
@@ -8827,7 +8857,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B17" s="8">
         <v>80</v>
@@ -8839,10 +8869,10 @@
         <v>7</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>231</v>
       </c>
       <c r="G17" s="8">
         <v>25000</v>
@@ -8854,12 +8884,12 @@
         <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B18" s="8">
         <v>81</v>
@@ -8871,10 +8901,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G18" s="8">
         <v>2000000</v>
@@ -8888,7 +8918,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B19" s="8">
         <v>82</v>
@@ -8900,10 +8930,10 @@
         <v>13</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G19" s="8">
         <v>2000000</v>
@@ -8917,7 +8947,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B20" s="8">
         <v>83</v>
@@ -8929,10 +8959,10 @@
         <v>13</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G20" s="8">
         <v>2000000</v>
@@ -8946,7 +8976,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B21" s="8">
         <v>84</v>
@@ -8958,10 +8988,10 @@
         <v>13</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G21" s="8">
         <v>2000000</v>
@@ -8975,7 +9005,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B22" s="8">
         <v>85</v>
@@ -8987,10 +9017,10 @@
         <v>13</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G22" s="8">
         <v>2000000</v>
@@ -9004,7 +9034,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B23" s="8">
         <v>86</v>
@@ -9016,10 +9046,10 @@
         <v>13</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G23" s="8">
         <v>2000000</v>
@@ -9033,7 +9063,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B24" s="8">
         <v>95</v>
@@ -9045,10 +9075,10 @@
         <v>7</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G24" s="8">
         <v>1000</v>
@@ -9062,7 +9092,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B25" s="8">
         <v>109</v>
@@ -9074,10 +9104,10 @@
         <v>7</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G25" s="8">
         <v>3000</v>
@@ -9091,7 +9121,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B26" s="18">
         <v>110</v>
@@ -9100,13 +9130,13 @@
         <v>95</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G26" s="18">
         <v>1500</v>
@@ -9307,7 +9337,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
@@ -9340,7 +9370,7 @@
         <v>61</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G7" s="21">
         <f xml:space="preserve"> 1.5 *45000</f>
@@ -9355,7 +9385,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="2">
         <v>45</v>
@@ -9367,10 +9397,10 @@
         <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="G8" s="9">
         <f xml:space="preserve"> 1.5 *35000</f>
@@ -9385,7 +9415,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="2">
         <v>46</v>
@@ -9397,10 +9427,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G9" s="9">
         <f xml:space="preserve"> 1.5 *37500</f>
@@ -9415,7 +9445,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B10" s="18">
         <v>111</v>
@@ -9424,13 +9454,13 @@
         <v>14</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G10" s="7">
         <v>60000</v>
@@ -9444,7 +9474,7 @@
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -9460,7 +9490,7 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -9689,7 +9719,7 @@
         <v>110</v>
       </c>
       <c r="F8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G8">
         <v>87500</v>
@@ -9776,7 +9806,7 @@
         <v>100</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G11" s="12">
         <v>100000</v>
@@ -9790,7 +9820,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B12" s="2">
         <v>48</v>
@@ -9802,10 +9832,10 @@
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G12" s="2">
         <f xml:space="preserve"> 3 * 35000</f>
@@ -9820,7 +9850,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2">
         <v>49</v>
@@ -9832,10 +9862,10 @@
         <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G13" s="2">
         <f xml:space="preserve"> 3 * 25000</f>
@@ -9850,7 +9880,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B14" s="2">
         <v>50</v>
@@ -9862,10 +9892,10 @@
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G14" s="2">
         <f xml:space="preserve"> 3 * 30000</f>
@@ -9880,7 +9910,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B15" s="2">
         <v>51</v>
@@ -9892,10 +9922,10 @@
         <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G15" s="2">
         <f xml:space="preserve"> 3 * 32500</f>
@@ -9910,7 +9940,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B16" s="2">
         <v>52</v>
@@ -9922,10 +9952,10 @@
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="G16" s="2">
         <f xml:space="preserve"> 3 * 35000</f>
@@ -9940,7 +9970,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="2">
         <v>53</v>
@@ -9952,10 +9982,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G17" s="2">
         <f xml:space="preserve"> 3 * 30000</f>
@@ -9968,12 +9998,12 @@
         <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18" s="2">
         <v>54</v>
@@ -9985,10 +10015,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G18" s="2">
         <f xml:space="preserve"> 3 * 35000</f>
@@ -10003,22 +10033,22 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B19" s="7">
         <v>55</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G19" s="7">
         <f xml:space="preserve"> 3 * 100000</f>
@@ -10046,7 +10076,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10129,7 +10159,7 @@
         <v>101</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G3">
         <v>500000</v>
@@ -10230,7 +10260,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7" s="2">
         <v>56</v>
@@ -10242,10 +10272,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G7" s="2">
         <v>67500</v>
@@ -10259,7 +10289,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B8" s="2">
         <v>57</v>
@@ -10271,10 +10301,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G8" s="2">
         <v>75000</v>
@@ -10288,7 +10318,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B9" s="2">
         <v>58</v>
@@ -10300,10 +10330,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G9" s="2">
         <v>77500</v>
@@ -10317,7 +10347,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B10" s="2">
         <v>59</v>
@@ -10329,10 +10359,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G10" s="2">
         <v>70000</v>
@@ -10346,7 +10376,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B11" s="2">
         <v>60</v>
@@ -10358,10 +10388,10 @@
         <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G11" s="2">
         <v>100000</v>
@@ -10374,37 +10404,70 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" s="8">
+        <v>107</v>
+      </c>
+      <c r="C12" s="8">
+        <v>36</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="B12" s="18">
-        <v>107</v>
-      </c>
-      <c r="C12" s="18">
-        <v>36</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="18" t="s">
+      <c r="F12" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="G12" s="18">
+      <c r="G12" s="8">
         <v>50000</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="8">
         <v>50</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="8">
         <v>100</v>
       </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="B13" s="18">
+        <v>112</v>
+      </c>
+      <c r="C13" s="18">
+        <v>35</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="G13" s="18">
+        <v>50000</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0</v>
+      </c>
+      <c r="I13" s="18">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -10490,7 +10553,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B3" s="2">
         <v>41</v>
@@ -10519,7 +10582,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" s="2">
         <v>61</v>
@@ -10531,10 +10594,10 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G4" s="2">
         <v>175000</v>
@@ -10548,7 +10611,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" s="2">
         <v>62</v>
@@ -10560,10 +10623,10 @@
         <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G5" s="2">
         <v>250000</v>
@@ -10577,7 +10640,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B6" s="2">
         <v>63</v>
@@ -10589,10 +10652,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G6" s="2">
         <v>300000</v>
@@ -10606,7 +10669,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B7" s="2">
         <v>64</v>
@@ -10618,10 +10681,10 @@
         <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G7" s="2">
         <v>275000</v>
@@ -10635,7 +10698,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8" s="2">
         <v>65</v>
@@ -10647,10 +10710,10 @@
         <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G8" s="2">
         <v>325000</v>
@@ -10664,7 +10727,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B9" s="2">
         <v>66</v>
@@ -10676,10 +10739,10 @@
         <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G9" s="2">
         <v>450000</v>
@@ -10693,7 +10756,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B10" s="2">
         <v>67</v>
@@ -10705,10 +10768,10 @@
         <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G10" s="2">
         <v>200000</v>
@@ -10722,7 +10785,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B11" s="2">
         <v>68</v>
@@ -10734,10 +10797,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G11" s="2">
         <v>225000</v>
@@ -10751,7 +10814,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B12" s="2">
         <v>69</v>
@@ -10763,10 +10826,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G12" s="2">
         <v>250000</v>
@@ -10780,7 +10843,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B13" s="2">
         <v>70</v>
@@ -10792,10 +10855,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G13" s="2">
         <v>200000</v>
@@ -10809,7 +10872,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B14" s="2">
         <v>71</v>
@@ -10821,10 +10884,10 @@
         <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G14" s="2">
         <v>275000</v>
@@ -10838,7 +10901,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B15" s="2">
         <v>72</v>
@@ -10850,10 +10913,10 @@
         <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G15" s="2">
         <v>325000</v>
@@ -10867,7 +10930,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" s="2">
         <v>73</v>
@@ -10879,10 +10942,10 @@
         <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G16" s="2">
         <v>425000</v>
@@ -10896,7 +10959,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" s="2">
         <v>74</v>
@@ -10908,10 +10971,10 @@
         <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G17" s="2">
         <v>550000</v>
@@ -10923,12 +10986,12 @@
         <v>250</v>
       </c>
       <c r="K17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B18" s="2">
         <v>75</v>
@@ -10940,10 +11003,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G18" s="2">
         <v>400000</v>
@@ -10957,7 +11020,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B19" s="2">
         <v>76</v>
@@ -10969,10 +11032,10 @@
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="G19" s="2">
         <v>500000</v>
@@ -10986,22 +11049,22 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B20" s="14">
         <v>77</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G20" s="14">
         <v>250000</v>
@@ -11029,7 +11092,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A13" sqref="A13:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11068,7 +11131,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" s="2">
         <v>78</v>
@@ -11080,7 +11143,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>33</v>
@@ -11097,7 +11160,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B3" s="2">
         <v>97</v>
@@ -11109,10 +11172,10 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G3" s="2">
         <v>625000</v>
@@ -11126,7 +11189,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B4" s="2">
         <v>98</v>
@@ -11138,10 +11201,10 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G4" s="2">
         <v>625000</v>
@@ -11155,7 +11218,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B5" s="2">
         <v>99</v>
@@ -11167,10 +11230,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G5" s="2">
         <v>625000</v>
@@ -11184,7 +11247,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B6" s="2">
         <v>100</v>
@@ -11196,10 +11259,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G6" s="2">
         <v>625000</v>
@@ -11213,7 +11276,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B7" s="2">
         <v>101</v>
@@ -11225,10 +11288,10 @@
         <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G7" s="8">
         <v>500000</v>
@@ -11242,7 +11305,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B8" s="2">
         <v>102</v>
@@ -11254,10 +11317,10 @@
         <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G8" s="8">
         <v>500000</v>
@@ -11271,7 +11334,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B9" s="2">
         <v>103</v>
@@ -11283,10 +11346,10 @@
         <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G9" s="8">
         <v>500000</v>
@@ -11300,7 +11363,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B10" s="2">
         <v>104</v>
@@ -11312,10 +11375,10 @@
         <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G10" s="8">
         <v>500000</v>
@@ -11329,7 +11392,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B11" s="2">
         <v>105</v>
@@ -11341,10 +11404,10 @@
         <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G11" s="8">
         <v>500000</v>
@@ -11358,7 +11421,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B12" s="2">
         <v>106</v>
@@ -11370,10 +11433,10 @@
         <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G12" s="8">
         <v>500000</v>
@@ -11386,37 +11449,66 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B13" s="2">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B13" s="7">
+      <c r="D13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="H13" s="2">
+        <v>150</v>
+      </c>
+      <c r="I13" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B14" s="18">
+        <v>113</v>
+      </c>
+      <c r="C14" s="18">
         <v>20</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="G13" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H13" s="7">
-        <v>150</v>
-      </c>
-      <c r="I13" s="7">
+      <c r="D14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="G14" s="18">
+        <v>300000</v>
+      </c>
+      <c r="H14" s="18">
+        <v>200</v>
+      </c>
+      <c r="I14" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -11560,7 +11652,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B5" s="4">
         <v>47</v>
@@ -11572,10 +11664,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="G5" s="4">
         <v>10000</v>
@@ -11734,7 +11826,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B11" s="17">
         <v>87</v>
@@ -11746,10 +11838,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G11" s="17">
         <v>500</v>
@@ -11763,7 +11855,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B12" s="17">
         <v>88</v>
@@ -11775,10 +11867,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G12" s="17">
         <v>500</v>
@@ -11792,7 +11884,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B13" s="17">
         <v>89</v>
@@ -11804,10 +11896,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G13" s="17">
         <v>500</v>
@@ -11821,7 +11913,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B14" s="17">
         <v>90</v>
@@ -11833,10 +11925,10 @@
         <v>7</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G14" s="17">
         <v>500</v>
@@ -11850,7 +11942,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B15" s="17">
         <v>91</v>
@@ -11859,13 +11951,13 @@
         <v>90</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G15" s="17">
         <v>500</v>
@@ -11879,7 +11971,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B16" s="17">
         <v>92</v>
@@ -11891,10 +11983,10 @@
         <v>7</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G16" s="17">
         <v>500</v>
@@ -11908,7 +12000,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B17" s="17">
         <v>93</v>
@@ -11920,10 +12012,10 @@
         <v>7</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G17" s="17">
         <v>500</v>
@@ -11935,12 +12027,12 @@
         <v>50</v>
       </c>
       <c r="K17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B18" s="17">
         <v>94</v>
@@ -11952,10 +12044,10 @@
         <v>7</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G18" s="17">
         <v>500</v>
@@ -11969,7 +12061,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B19" s="6">
         <v>96</v>
@@ -11978,13 +12070,13 @@
         <v>0</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G19" s="6">
         <v>500</v>
@@ -11998,7 +12090,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B20" s="15">
         <v>108</v>
@@ -12010,10 +12102,10 @@
         <v>7</v>
       </c>
       <c r="E20" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="F20" s="15" t="s">
         <v>309</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>310</v>
       </c>
       <c r="G20" s="15">
         <v>1000</v>

--- a/Quests.xlsx
+++ b/Quests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456C1C67-1A2E-457C-8DC6-7A90957BA22D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45824184-3FF9-4E12-B93E-5F907AC1FF5D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38235" yWindow="2985" windowWidth="28800" windowHeight="15885" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="38280" yWindow="2745" windowWidth="29040" windowHeight="16440" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="336">
   <si>
     <t>Quest</t>
   </si>
@@ -1027,6 +1027,24 @@
   </si>
   <si>
     <t>1 Iron Pickaxe</t>
+  </si>
+  <si>
+    <t>Storage Solutions</t>
+  </si>
+  <si>
+    <t>storagedrawers:oak_full_drawers_1</t>
+  </si>
+  <si>
+    <t>storagedrawers:oak_half_drawers_1</t>
+  </si>
+  <si>
+    <t>Shared Experience</t>
+  </si>
+  <si>
+    <t>globalxp:xp_block</t>
+  </si>
+  <si>
+    <t>10 experience bottles</t>
   </si>
 </sst>
 </file>
@@ -1287,10 +1305,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Overworld!$H$2:$H$26</c:f>
+              <c:f>Overworld!$H$2:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1365,16 +1383,22 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Overworld!$I$2:$I$26</c:f>
+              <c:f>Overworld!$I$2:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1449,6 +1473,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8380,10 +8410,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9120,32 +9150,90 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="8">
         <v>110</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="8">
         <v>95</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="8">
         <v>1500</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="8">
         <v>250</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="16">
         <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="B27" s="18">
+        <v>114</v>
+      </c>
+      <c r="C27" s="18">
+        <v>95</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1250</v>
+      </c>
+      <c r="H27" s="18">
+        <v>300</v>
+      </c>
+      <c r="I27" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B28" s="8">
+        <v>115</v>
+      </c>
+      <c r="C28" s="8">
+        <v>44</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="G28" s="8">
+        <v>17000</v>
+      </c>
+      <c r="H28" s="8">
+        <v>150</v>
+      </c>
+      <c r="I28" s="16">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Quests.xlsx
+++ b/Quests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45824184-3FF9-4E12-B93E-5F907AC1FF5D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41958208-ED4A-4F1B-97BF-EF17F52D1D91}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2745" windowWidth="29040" windowHeight="16440" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="38280" yWindow="2745" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="339">
   <si>
     <t>Quest</t>
   </si>
@@ -1045,6 +1045,15 @@
   </si>
   <si>
     <t>10 experience bottles</t>
+  </si>
+  <si>
+    <t>Sleeping On The Job</t>
+  </si>
+  <si>
+    <t>sleeping bag</t>
+  </si>
+  <si>
+    <t>3 rare ore</t>
   </si>
 </sst>
 </file>
@@ -1305,10 +1314,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Overworld!$H$2:$H$28</c:f>
+              <c:f>Overworld!$H$2:$H$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1389,16 +1398,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Overworld!$I$2:$I$28</c:f>
+              <c:f>Overworld!$I$2:$I$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1478,6 +1490,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -8410,10 +8425,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9233,6 +9248,35 @@
         <v>150</v>
       </c>
       <c r="I28" s="16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B29" s="8">
+        <v>116</v>
+      </c>
+      <c r="C29" s="8">
+        <v>115</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="G29" s="8">
+        <v>10000</v>
+      </c>
+      <c r="H29" s="8">
+        <v>200</v>
+      </c>
+      <c r="I29" s="16">
         <v>200</v>
       </c>
     </row>
@@ -9253,8 +9297,8 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Quests.xlsx
+++ b/Quests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41958208-ED4A-4F1B-97BF-EF17F52D1D91}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF84E45-7C34-48FF-BCEF-EF4AA062A1B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2745" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="38280" yWindow="2745" windowWidth="29040" windowHeight="16440" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="342">
   <si>
     <t>Quest</t>
   </si>
@@ -1054,6 +1054,15 @@
   </si>
   <si>
     <t>3 rare ore</t>
+  </si>
+  <si>
+    <t>solcarrot:food_book</t>
+  </si>
+  <si>
+    <t>simplefarming:banana_bread</t>
+  </si>
+  <si>
+    <t>Spice of Life: Carrot Edition</t>
   </si>
 </sst>
 </file>
@@ -3763,6 +3772,9 @@
                 <c:pt idx="18">
                   <c:v>50</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3828,6 +3840,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8427,8 +8442,8 @@
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9194,31 +9209,31 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="8">
         <v>114</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="8">
         <v>95</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="8">
         <v>1250</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="8">
         <v>300</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9252,31 +9267,31 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="18">
         <v>116</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="18">
         <v>115</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="18">
         <v>10000</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="18">
         <v>200</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="22">
         <v>200</v>
       </c>
     </row>
@@ -9297,7 +9312,7 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -11655,10 +11670,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12249,6 +12264,35 @@
         <v>200</v>
       </c>
     </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="B21" s="17">
+        <v>117</v>
+      </c>
+      <c r="C21" s="17">
+        <v>89</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="G21" s="17">
+        <v>500</v>
+      </c>
+      <c r="H21" s="17">
+        <v>100</v>
+      </c>
+      <c r="I21" s="17">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Quests.xlsx
+++ b/Quests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Documents\GitHub\Craft-to-Exile-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7DA5F6-C566-4B83-A165-A53184BF2295}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AE8EF2-0417-478D-B33A-4B8B05CA47AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="680" activeTab="9" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="680" activeTab="6" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="486">
   <si>
     <t>Quest</t>
   </si>
@@ -992,21 +992,6 @@
     <t>1 waystone</t>
   </si>
   <si>
-    <t>cavern:cavern</t>
-  </si>
-  <si>
-    <t>1 Diamond Pickaxe</t>
-  </si>
-  <si>
-    <t>Mining World</t>
-  </si>
-  <si>
-    <t>Mining World II</t>
-  </si>
-  <si>
-    <t>cavern:huge:cavern</t>
-  </si>
-  <si>
     <t>1 Iron Pickaxe</t>
   </si>
   <si>
@@ -1503,6 +1488,18 @@
   </si>
   <si>
     <t>argus</t>
+  </si>
+  <si>
+    <t>Mining Dimension</t>
+  </si>
+  <si>
+    <t>mining_dimension:mining_world</t>
+  </si>
+  <si>
+    <t>mmorpg:resettable_dungeon</t>
+  </si>
+  <si>
+    <t>Enter Maps</t>
   </si>
 </sst>
 </file>
@@ -11904,7 +11901,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A32" sqref="A30:I32"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12671,7 +12668,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B27" s="8">
         <v>114</v>
@@ -12683,10 +12680,10 @@
         <v>7</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G27" s="14">
         <v>1250</v>
@@ -12700,7 +12697,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B28" s="6">
         <v>115</v>
@@ -12712,10 +12709,10 @@
         <v>7</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G28" s="10">
         <v>8000</v>
@@ -12729,7 +12726,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B29" s="6">
         <v>116</v>
@@ -12741,10 +12738,10 @@
         <v>7</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G29" s="10">
         <v>4000</v>
@@ -12758,7 +12755,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B30" s="6">
         <v>162</v>
@@ -12770,7 +12767,7 @@
         <v>7</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="10">
@@ -12785,7 +12782,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B31" s="8">
         <v>163</v>
@@ -12797,7 +12794,7 @@
         <v>13</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>230</v>
@@ -12814,7 +12811,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B32" s="37">
         <v>164</v>
@@ -12826,7 +12823,7 @@
         <v>7</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="38">
@@ -12856,7 +12853,7 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -12896,7 +12893,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B2" s="2">
         <v>165</v>
@@ -12908,7 +12905,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="18">
@@ -12923,7 +12920,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B3" s="2">
         <v>166</v>
@@ -12935,7 +12932,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="18">
@@ -12950,7 +12947,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B4" s="2">
         <v>167</v>
@@ -12962,7 +12959,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="18">
@@ -12977,7 +12974,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B5" s="2">
         <v>168</v>
@@ -12989,7 +12986,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="18">
@@ -13004,7 +13001,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B6" s="2">
         <v>169</v>
@@ -13016,7 +13013,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="18">
@@ -13031,7 +13028,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B7" s="2">
         <v>170</v>
@@ -13043,7 +13040,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="18">
@@ -13058,7 +13055,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B8" s="2">
         <v>171</v>
@@ -13070,7 +13067,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="18">
@@ -13085,7 +13082,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B9" s="7">
         <v>172</v>
@@ -13097,7 +13094,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="27">
@@ -13497,7 +13494,7 @@
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -14021,7 +14018,7 @@
         <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -14099,7 +14096,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14254,7 +14251,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B6" s="29">
         <v>39</v>
@@ -14266,7 +14263,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>33</v>
@@ -14457,7 +14454,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>318</v>
+        <v>482</v>
       </c>
       <c r="B13" s="19">
         <v>112</v>
@@ -14469,10 +14466,10 @@
         <v>19</v>
       </c>
       <c r="E13" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>316</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>321</v>
       </c>
       <c r="G13" s="27">
         <v>25000</v>
@@ -14490,13 +14487,14 @@
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14547,7 +14545,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B2" s="14">
         <v>145</v>
@@ -14559,10 +14557,10 @@
         <v>19</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="G2" s="14">
         <v>75000</v>
@@ -14576,7 +14574,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B3" s="14">
         <v>146</v>
@@ -14588,10 +14586,10 @@
         <v>13</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G3" s="14">
         <v>75500</v>
@@ -14605,7 +14603,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B4" s="14">
         <v>147</v>
@@ -14617,10 +14615,10 @@
         <v>13</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G4" s="14">
         <v>76000</v>
@@ -14634,7 +14632,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B5" s="14">
         <v>148</v>
@@ -14646,10 +14644,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G5" s="14">
         <v>76000</v>
@@ -14663,7 +14661,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B6" s="14">
         <v>149</v>
@@ -14675,10 +14673,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G6" s="14">
         <v>76500</v>
@@ -14692,7 +14690,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B7" s="14">
         <v>150</v>
@@ -14704,10 +14702,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G7" s="14">
         <v>76000</v>
@@ -14721,7 +14719,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B8" s="14">
         <v>151</v>
@@ -14733,10 +14731,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G8" s="14">
         <v>76500</v>
@@ -14750,22 +14748,22 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B9" s="14">
         <v>152</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G9" s="14">
         <v>78500</v>
@@ -14779,7 +14777,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B10" s="14">
         <v>153</v>
@@ -14791,10 +14789,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G10" s="14">
         <v>100000</v>
@@ -14808,7 +14806,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B11" s="14">
         <v>154</v>
@@ -14820,7 +14818,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14">
@@ -14835,7 +14833,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B12" s="14">
         <v>155</v>
@@ -14847,10 +14845,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G12" s="14">
         <v>65500</v>
@@ -14864,7 +14862,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B13" s="14">
         <v>156</v>
@@ -14876,10 +14874,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="G13" s="14">
         <v>66000</v>
@@ -14893,7 +14891,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B14" s="14">
         <v>157</v>
@@ -14905,10 +14903,10 @@
         <v>7</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="G14" s="14">
         <v>65500</v>
@@ -14922,7 +14920,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B15" s="14">
         <v>158</v>
@@ -14934,10 +14932,10 @@
         <v>7</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G15" s="14">
         <v>66000</v>
@@ -14951,7 +14949,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B16" s="14">
         <v>159</v>
@@ -14963,10 +14961,10 @@
         <v>7</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G16" s="14">
         <v>66500</v>
@@ -14980,7 +14978,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B17" s="14">
         <v>160</v>
@@ -14992,10 +14990,10 @@
         <v>7</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="G17" s="14">
         <v>66500</v>
@@ -15007,12 +15005,12 @@
         <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B18" s="35">
         <v>161</v>
@@ -15024,7 +15022,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="35">
@@ -15555,7 +15553,7 @@
         <v>250</v>
       </c>
       <c r="K17" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -15660,8 +15658,8 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G2:G14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16048,7 +16046,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>319</v>
+        <v>485</v>
       </c>
       <c r="B14" s="16">
         <v>113</v>
@@ -16060,11 +16058,9 @@
         <v>19</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>317</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="F14" s="16"/>
       <c r="G14" s="27">
         <v>150000</v>
       </c>
@@ -16077,7 +16073,7 @@
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -16630,7 +16626,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B19" s="15">
         <v>117</v>
@@ -16642,10 +16638,10 @@
         <v>7</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G19" s="15">
         <v>500</v>
@@ -16659,7 +16655,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B20" s="15">
         <v>118</v>
@@ -16671,10 +16667,10 @@
         <v>7</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G20" s="15">
         <v>1000</v>
@@ -16688,7 +16684,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B21" s="39">
         <v>119</v>
@@ -16700,10 +16696,10 @@
         <v>7</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G21" s="39">
         <v>1000</v>
@@ -16783,7 +16779,7 @@
         <v>251</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G2" s="10">
         <v>1000</v>
@@ -16826,7 +16822,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B4" s="14">
         <v>120</v>
@@ -16836,10 +16832,10 @@
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G4" s="14">
         <v>500</v>
@@ -16853,7 +16849,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B5" s="14">
         <v>121</v>
@@ -16863,10 +16859,10 @@
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G5" s="14">
         <v>500</v>
@@ -16880,7 +16876,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B6" s="14">
         <v>122</v>
@@ -16890,10 +16886,10 @@
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G6" s="14">
         <v>500</v>
@@ -16907,7 +16903,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B7" s="14">
         <v>123</v>
@@ -16917,10 +16913,10 @@
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G7" s="14">
         <v>500</v>
@@ -16934,7 +16930,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B8" s="14">
         <v>124</v>
@@ -16944,10 +16940,10 @@
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G8" s="14">
         <v>500</v>
@@ -16961,7 +16957,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B9" s="14">
         <v>125</v>
@@ -16971,10 +16967,10 @@
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G9" s="14">
         <v>1000</v>
@@ -16988,7 +16984,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B10" s="14">
         <v>126</v>
@@ -16998,10 +16994,10 @@
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G10" s="14">
         <v>1000</v>
@@ -17015,7 +17011,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B11" s="14">
         <v>127</v>
@@ -17025,10 +17021,10 @@
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G11" s="14">
         <v>500</v>
@@ -17042,7 +17038,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B12" s="14">
         <v>128</v>
@@ -17052,7 +17048,7 @@
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14">
@@ -17067,7 +17063,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B13" s="14">
         <v>129</v>
@@ -17077,7 +17073,7 @@
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14">
@@ -17092,7 +17088,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B14" s="14">
         <v>130</v>
@@ -17102,7 +17098,7 @@
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14">
@@ -17117,7 +17113,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B15" s="14">
         <v>131</v>
@@ -17127,10 +17123,10 @@
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G15" s="14">
         <v>500</v>
@@ -17144,7 +17140,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B16" s="14">
         <v>132</v>
@@ -17154,10 +17150,10 @@
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G16" s="14">
         <v>500</v>
@@ -17171,7 +17167,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B17" s="14">
         <v>133</v>
@@ -17181,7 +17177,7 @@
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14">
@@ -17199,7 +17195,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B18" s="14">
         <v>134</v>
@@ -17209,10 +17205,10 @@
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G18" s="14">
         <v>500</v>
@@ -17226,7 +17222,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B19" s="10">
         <v>135</v>
@@ -17236,10 +17232,10 @@
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G19" s="10">
         <v>1000</v>
@@ -17253,7 +17249,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B20" s="10">
         <v>136</v>
@@ -17263,10 +17259,10 @@
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G20" s="10">
         <v>1000</v>
@@ -17280,7 +17276,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B21" s="10">
         <v>137</v>
@@ -17290,7 +17286,7 @@
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10">
@@ -17305,7 +17301,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B22" s="10">
         <v>138</v>
@@ -17315,7 +17311,7 @@
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="10" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10">
@@ -17330,7 +17326,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B23" s="10">
         <v>139</v>
@@ -17340,7 +17336,7 @@
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="10" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10">
@@ -17355,7 +17351,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B24" s="10">
         <v>140</v>
@@ -17365,10 +17361,10 @@
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="10" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G24" s="10">
         <v>1000</v>
@@ -17382,7 +17378,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B25" s="10">
         <v>141</v>
@@ -17392,10 +17388,10 @@
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="10" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G25" s="10">
         <v>1000</v>
@@ -17409,7 +17405,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B26" s="10">
         <v>142</v>
@@ -17419,10 +17415,10 @@
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="10" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G26" s="10">
         <v>1000</v>
@@ -17436,7 +17432,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B27" s="10">
         <v>143</v>
@@ -17446,10 +17442,10 @@
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="10" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G27" s="10">
         <v>1000</v>
@@ -17463,7 +17459,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B28" s="34">
         <v>144</v>
@@ -17473,10 +17469,10 @@
       </c>
       <c r="D28" s="33"/>
       <c r="E28" s="34" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="G28" s="34">
         <v>1000</v>

--- a/Quests.xlsx
+++ b/Quests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Documents\GitHub\Craft-to-Exile-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AE8EF2-0417-478D-B33A-4B8B05CA47AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D5F598-6A41-4DC3-88D1-F49AB4704C47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="680" activeTab="6" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="680" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="489">
   <si>
     <t>Quest</t>
   </si>
@@ -899,33 +899,12 @@
     <t>1 Mapping Device</t>
   </si>
   <si>
-    <t>/slash give map @p 80 random 0 0 3</t>
-  </si>
-  <si>
     <t>1 Diamond</t>
   </si>
   <si>
     <t>1 Legendary Big Currency, 1 of each reset pot, 3 dragon scale</t>
   </si>
   <si>
-    <t>3 Zoatar</t>
-  </si>
-  <si>
-    <t>3 Cockatrice</t>
-  </si>
-  <si>
-    <t>3 Ignibus</t>
-  </si>
-  <si>
-    <t>3 Remobra</t>
-  </si>
-  <si>
-    <t>3 Uvaraptor</t>
-  </si>
-  <si>
-    <t>3 Morock</t>
-  </si>
-  <si>
     <t>1 cheeseburger, 1 small currency epic</t>
   </si>
   <si>
@@ -1500,6 +1479,36 @@
   </si>
   <si>
     <t>Enter Maps</t>
+  </si>
+  <si>
+    <t>/slash give map @p 30 random 0 0 3</t>
+  </si>
+  <si>
+    <t>Ocarina Of Time</t>
+  </si>
+  <si>
+    <t>horse mob spawn</t>
+  </si>
+  <si>
+    <t>dwmh:ocarina</t>
+  </si>
+  <si>
+    <t>100 Zombies</t>
+  </si>
+  <si>
+    <t>100 Skeletons</t>
+  </si>
+  <si>
+    <t>100 Bees</t>
+  </si>
+  <si>
+    <t>100 Zombie Pigmen</t>
+  </si>
+  <si>
+    <t>50 Endermen</t>
+  </si>
+  <si>
+    <t>50 Wither Skeletons</t>
   </si>
 </sst>
 </file>
@@ -1690,9 +1699,9 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1799,10 +1808,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Overworld!$H$2:$H$32</c:f>
+              <c:f>Overworld!$H$2:$H$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1895,16 +1904,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Overworld!$I$2:$I$32</c:f>
+              <c:f>Overworld!$I$2:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1997,6 +2009,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11898,10 +11913,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12042,7 +12057,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G5" s="3">
         <v>1000</v>
@@ -12300,7 +12315,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>124</v>
@@ -12418,8 +12433,8 @@
       <c r="D18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>288</v>
+      <c r="E18" s="14" t="s">
+        <v>483</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>230</v>
@@ -12447,8 +12462,8 @@
       <c r="D19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>289</v>
+      <c r="E19" s="14" t="s">
+        <v>484</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>230</v>
@@ -12476,8 +12491,8 @@
       <c r="D20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>290</v>
+      <c r="E20" s="14" t="s">
+        <v>485</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>230</v>
@@ -12505,8 +12520,8 @@
       <c r="D21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>291</v>
+      <c r="E21" s="14" t="s">
+        <v>486</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>230</v>
@@ -12534,8 +12549,8 @@
       <c r="D22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>292</v>
+      <c r="E22" s="14" t="s">
+        <v>488</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>230</v>
@@ -12563,8 +12578,8 @@
       <c r="D23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>293</v>
+      <c r="E23" s="14" t="s">
+        <v>487</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>230</v>
@@ -12596,7 +12611,7 @@
         <v>242</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="G24" s="14">
         <v>1000</v>
@@ -12610,7 +12625,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B25" s="8">
         <v>109</v>
@@ -12622,10 +12637,10 @@
         <v>7</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>310</v>
       </c>
       <c r="G25" s="14">
         <v>3000</v>
@@ -12639,7 +12654,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B26" s="8">
         <v>110</v>
@@ -12651,10 +12666,10 @@
         <v>218</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G26" s="14">
         <v>1500</v>
@@ -12668,7 +12683,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B27" s="8">
         <v>114</v>
@@ -12680,10 +12695,10 @@
         <v>7</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G27" s="14">
         <v>1250</v>
@@ -12697,7 +12712,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B28" s="6">
         <v>115</v>
@@ -12709,10 +12724,10 @@
         <v>7</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G28" s="10">
         <v>8000</v>
@@ -12726,7 +12741,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B29" s="6">
         <v>116</v>
@@ -12738,10 +12753,10 @@
         <v>7</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="G29" s="10">
         <v>4000</v>
@@ -12755,7 +12770,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B30" s="6">
         <v>162</v>
@@ -12767,7 +12782,7 @@
         <v>7</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="10">
@@ -12782,7 +12797,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B31" s="8">
         <v>163</v>
@@ -12794,7 +12809,7 @@
         <v>13</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>230</v>
@@ -12810,30 +12825,59 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
-        <v>464</v>
-      </c>
-      <c r="B32" s="37">
+      <c r="A32" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="B32" s="38">
         <v>164</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="38">
         <v>5</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="37" t="s">
-        <v>465</v>
-      </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="38">
+      <c r="E32" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="F32" s="38"/>
+      <c r="G32" s="39">
         <v>1000</v>
       </c>
-      <c r="H32" s="37">
+      <c r="H32" s="38">
         <v>200</v>
       </c>
-      <c r="I32" s="38">
+      <c r="I32" s="39">
         <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="B33" s="16">
+        <v>173</v>
+      </c>
+      <c r="C33" s="16">
+        <v>95</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="G33" s="19">
+        <v>1000</v>
+      </c>
+      <c r="H33" s="16">
+        <v>300</v>
+      </c>
+      <c r="I33" s="19">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -12842,7 +12886,8 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12893,7 +12938,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B2" s="2">
         <v>165</v>
@@ -12905,7 +12950,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="18">
@@ -12920,7 +12965,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B3" s="2">
         <v>166</v>
@@ -12932,7 +12977,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="18">
@@ -12947,7 +12992,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B4" s="2">
         <v>167</v>
@@ -12959,7 +13004,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="18">
@@ -12974,7 +13019,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B5" s="2">
         <v>168</v>
@@ -12986,7 +13031,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="18">
@@ -13001,7 +13046,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B6" s="2">
         <v>169</v>
@@ -13013,7 +13058,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="18">
@@ -13028,7 +13073,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B7" s="2">
         <v>170</v>
@@ -13040,7 +13085,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="18">
@@ -13055,7 +13100,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B8" s="2">
         <v>171</v>
@@ -13067,7 +13112,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="18">
@@ -13082,7 +13127,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B9" s="7">
         <v>172</v>
@@ -13094,7 +13139,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="27">
@@ -13186,7 +13231,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13357,7 +13402,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
@@ -13390,7 +13435,7 @@
         <v>61</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G7" s="26">
         <f>( 1.5 *45000)/2</f>
@@ -13465,7 +13510,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B10" s="16">
         <v>111</v>
@@ -13477,10 +13522,10 @@
         <v>218</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G10" s="27">
         <v>30000</v>
@@ -13494,7 +13539,7 @@
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -13826,7 +13871,7 @@
         <v>100</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G11" s="28">
         <v>50000</v>
@@ -14018,7 +14063,7 @@
         <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -14096,7 +14141,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14179,7 +14224,7 @@
         <v>101</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G3" s="18">
         <v>250000</v>
@@ -14251,7 +14296,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B6" s="29">
         <v>39</v>
@@ -14263,7 +14308,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>33</v>
@@ -14440,7 +14485,7 @@
         <v>284</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>285</v>
+        <v>479</v>
       </c>
       <c r="G12" s="18">
         <v>25000</v>
@@ -14454,7 +14499,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B13" s="19">
         <v>112</v>
@@ -14466,10 +14511,10 @@
         <v>19</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G13" s="27">
         <v>25000</v>
@@ -14487,7 +14532,7 @@
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -14505,7 +14550,7 @@
   </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -14545,7 +14590,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B2" s="14">
         <v>145</v>
@@ -14557,10 +14602,10 @@
         <v>19</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G2" s="14">
         <v>75000</v>
@@ -14574,7 +14619,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B3" s="14">
         <v>146</v>
@@ -14586,10 +14631,10 @@
         <v>13</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="G3" s="14">
         <v>75500</v>
@@ -14603,7 +14648,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B4" s="14">
         <v>147</v>
@@ -14615,10 +14660,10 @@
         <v>13</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G4" s="14">
         <v>76000</v>
@@ -14632,7 +14677,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B5" s="14">
         <v>148</v>
@@ -14644,10 +14689,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G5" s="14">
         <v>76000</v>
@@ -14661,7 +14706,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B6" s="14">
         <v>149</v>
@@ -14673,10 +14718,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="G6" s="14">
         <v>76500</v>
@@ -14690,7 +14735,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B7" s="14">
         <v>150</v>
@@ -14702,10 +14747,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G7" s="14">
         <v>76000</v>
@@ -14719,7 +14764,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B8" s="14">
         <v>151</v>
@@ -14731,10 +14776,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="G8" s="14">
         <v>76500</v>
@@ -14748,22 +14793,22 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B9" s="14">
         <v>152</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="G9" s="14">
         <v>78500</v>
@@ -14777,7 +14822,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B10" s="14">
         <v>153</v>
@@ -14789,10 +14834,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="G10" s="14">
         <v>100000</v>
@@ -14806,7 +14851,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B11" s="14">
         <v>154</v>
@@ -14818,7 +14863,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14">
@@ -14833,7 +14878,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B12" s="14">
         <v>155</v>
@@ -14845,10 +14890,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="G12" s="14">
         <v>65500</v>
@@ -14862,7 +14907,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B13" s="14">
         <v>156</v>
@@ -14874,10 +14919,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G13" s="14">
         <v>66000</v>
@@ -14891,7 +14936,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B14" s="14">
         <v>157</v>
@@ -14903,10 +14948,10 @@
         <v>7</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G14" s="14">
         <v>65500</v>
@@ -14920,7 +14965,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B15" s="14">
         <v>158</v>
@@ -14932,10 +14977,10 @@
         <v>7</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G15" s="14">
         <v>66000</v>
@@ -14949,7 +14994,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B16" s="14">
         <v>159</v>
@@ -14961,10 +15006,10 @@
         <v>7</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="G16" s="14">
         <v>66500</v>
@@ -14978,7 +15023,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B17" s="14">
         <v>160</v>
@@ -14990,10 +15035,10 @@
         <v>7</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G17" s="14">
         <v>66500</v>
@@ -15005,12 +15050,12 @@
         <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B18" s="35">
         <v>161</v>
@@ -15022,7 +15067,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="35">
@@ -15553,7 +15598,7 @@
         <v>250</v>
       </c>
       <c r="K17" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -15658,7 +15703,7 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -15901,7 +15946,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B9" s="2">
         <v>103</v>
@@ -16029,7 +16074,7 @@
         <v>49</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>279</v>
@@ -16046,7 +16091,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B14" s="16">
         <v>113</v>
@@ -16058,7 +16103,7 @@
         <v>19</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="27">
@@ -16073,7 +16118,7 @@
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -16464,7 +16509,7 @@
         <v>236</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G13" s="15">
         <v>500</v>
@@ -16493,7 +16538,7 @@
         <v>245</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G14" s="15">
         <v>500</v>
@@ -16516,7 +16561,7 @@
         <v>90</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>250</v>
@@ -16626,7 +16671,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B19" s="15">
         <v>117</v>
@@ -16638,10 +16683,10 @@
         <v>7</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G19" s="15">
         <v>500</v>
@@ -16655,7 +16700,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B20" s="15">
         <v>118</v>
@@ -16667,10 +16712,10 @@
         <v>7</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G20" s="15">
         <v>1000</v>
@@ -16683,31 +16728,31 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
-        <v>336</v>
-      </c>
-      <c r="B21" s="39">
+      <c r="A21" s="37" t="s">
+        <v>329</v>
+      </c>
+      <c r="B21" s="37">
         <v>119</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="37">
         <v>118</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="39" t="s">
-        <v>437</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>438</v>
-      </c>
-      <c r="G21" s="39">
+      <c r="E21" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="G21" s="37">
         <v>1000</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H21" s="37">
         <v>300</v>
       </c>
-      <c r="I21" s="39">
+      <c r="I21" s="37">
         <v>50</v>
       </c>
     </row>
@@ -16779,7 +16824,7 @@
         <v>251</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G2" s="10">
         <v>1000</v>
@@ -16793,7 +16838,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B3" s="6">
         <v>108</v>
@@ -16805,10 +16850,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G3" s="10">
         <v>1000</v>
@@ -16822,7 +16867,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B4" s="14">
         <v>120</v>
@@ -16832,10 +16877,10 @@
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="G4" s="14">
         <v>500</v>
@@ -16849,7 +16894,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B5" s="14">
         <v>121</v>
@@ -16859,10 +16904,10 @@
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G5" s="14">
         <v>500</v>
@@ -16876,7 +16921,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B6" s="14">
         <v>122</v>
@@ -16886,10 +16931,10 @@
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="G6" s="14">
         <v>500</v>
@@ -16903,7 +16948,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B7" s="14">
         <v>123</v>
@@ -16913,10 +16958,10 @@
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G7" s="14">
         <v>500</v>
@@ -16930,7 +16975,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B8" s="14">
         <v>124</v>
@@ -16940,10 +16985,10 @@
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="G8" s="14">
         <v>500</v>
@@ -16957,7 +17002,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B9" s="14">
         <v>125</v>
@@ -16967,10 +17012,10 @@
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="G9" s="14">
         <v>1000</v>
@@ -16984,7 +17029,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B10" s="14">
         <v>126</v>
@@ -16994,10 +17039,10 @@
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="G10" s="14">
         <v>1000</v>
@@ -17011,7 +17056,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B11" s="14">
         <v>127</v>
@@ -17021,10 +17066,10 @@
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G11" s="14">
         <v>500</v>
@@ -17038,7 +17083,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B12" s="14">
         <v>128</v>
@@ -17048,7 +17093,7 @@
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14">
@@ -17063,7 +17108,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B13" s="14">
         <v>129</v>
@@ -17073,7 +17118,7 @@
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14">
@@ -17088,7 +17133,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B14" s="14">
         <v>130</v>
@@ -17098,7 +17143,7 @@
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14">
@@ -17113,7 +17158,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B15" s="14">
         <v>131</v>
@@ -17123,10 +17168,10 @@
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G15" s="14">
         <v>500</v>
@@ -17140,7 +17185,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B16" s="14">
         <v>132</v>
@@ -17150,10 +17195,10 @@
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G16" s="14">
         <v>500</v>
@@ -17167,7 +17212,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B17" s="14">
         <v>133</v>
@@ -17177,7 +17222,7 @@
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14">
@@ -17195,7 +17240,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B18" s="14">
         <v>134</v>
@@ -17205,10 +17250,10 @@
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="G18" s="14">
         <v>500</v>
@@ -17222,7 +17267,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B19" s="10">
         <v>135</v>
@@ -17232,10 +17277,10 @@
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G19" s="10">
         <v>1000</v>
@@ -17249,7 +17294,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B20" s="10">
         <v>136</v>
@@ -17259,10 +17304,10 @@
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="G20" s="10">
         <v>1000</v>
@@ -17276,7 +17321,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B21" s="10">
         <v>137</v>
@@ -17286,7 +17331,7 @@
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10">
@@ -17301,7 +17346,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B22" s="10">
         <v>138</v>
@@ -17311,7 +17356,7 @@
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="10" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10">
@@ -17326,7 +17371,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B23" s="10">
         <v>139</v>
@@ -17336,7 +17381,7 @@
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="10" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10">
@@ -17351,7 +17396,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B24" s="10">
         <v>140</v>
@@ -17361,10 +17406,10 @@
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="10" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G24" s="10">
         <v>1000</v>
@@ -17378,7 +17423,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B25" s="10">
         <v>141</v>
@@ -17388,10 +17433,10 @@
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="10" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="G25" s="10">
         <v>1000</v>
@@ -17405,7 +17450,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B26" s="10">
         <v>142</v>
@@ -17415,10 +17460,10 @@
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="10" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G26" s="10">
         <v>1000</v>
@@ -17432,7 +17477,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B27" s="10">
         <v>143</v>
@@ -17442,10 +17487,10 @@
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="10" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="G27" s="10">
         <v>1000</v>
@@ -17459,7 +17504,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B28" s="34">
         <v>144</v>
@@ -17469,10 +17514,10 @@
       </c>
       <c r="D28" s="33"/>
       <c r="E28" s="34" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G28" s="34">
         <v>1000</v>

--- a/Quests.xlsx
+++ b/Quests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Documents\GitHub\Craft-to-Exile-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D5F598-6A41-4DC3-88D1-F49AB4704C47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6347FDB-E581-4BCE-BAC2-17B5E8C0ADFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="680" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="492">
   <si>
     <t>Quest</t>
   </si>
@@ -1493,22 +1493,31 @@
     <t>dwmh:ocarina</t>
   </si>
   <si>
-    <t>100 Zombies</t>
-  </si>
-  <si>
-    <t>100 Skeletons</t>
-  </si>
-  <si>
-    <t>100 Bees</t>
-  </si>
-  <si>
-    <t>100 Zombie Pigmen</t>
-  </si>
-  <si>
-    <t>50 Endermen</t>
-  </si>
-  <si>
-    <t>50 Wither Skeletons</t>
+    <t>5 Purpur Guardian (end guardian)</t>
+  </si>
+  <si>
+    <t>1 Hirschgeist</t>
+  </si>
+  <si>
+    <t>1 Immortal + 1 Deadbeard</t>
+  </si>
+  <si>
+    <t>5 Rotten Spear Eskimos + 5 Ancient Mummies</t>
+  </si>
+  <si>
+    <t>8 Arachnon</t>
+  </si>
+  <si>
+    <t>5 End Trolls</t>
+  </si>
+  <si>
+    <t>Bufflon Mounts</t>
+  </si>
+  <si>
+    <t>bundle of herbs</t>
+  </si>
+  <si>
+    <t>bufflon saddle</t>
   </si>
 </sst>
 </file>
@@ -1808,10 +1817,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Overworld!$H$2:$H$33</c:f>
+              <c:f>Overworld!$H$2:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1906,6 +1915,9 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
@@ -1913,10 +1925,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Overworld!$I$2:$I$33</c:f>
+              <c:f>Overworld!$I$2:$I$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2012,6 +2024,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11913,10 +11928,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12434,7 +12449,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>230</v>
@@ -12463,7 +12478,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>230</v>
@@ -12491,8 +12506,8 @@
       <c r="D20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>485</v>
+      <c r="E20" s="18" t="s">
+        <v>484</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>230</v>
@@ -12521,7 +12536,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>230</v>
@@ -12550,7 +12565,7 @@
         <v>13</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>230</v>
@@ -12579,7 +12594,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>230</v>
@@ -12852,32 +12867,61 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="8">
         <v>173</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="8">
         <v>95</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="14">
         <v>1000</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H33" s="8">
         <v>300</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="14">
         <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="B34" s="7">
+        <v>174</v>
+      </c>
+      <c r="C34" s="7">
+        <v>173</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="G34" s="7">
+        <v>1500</v>
+      </c>
+      <c r="H34" s="7">
+        <v>300</v>
+      </c>
+      <c r="I34" s="7">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -12898,8 +12942,8 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13230,7 +13274,7 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
@@ -13555,7 +13599,7 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -14140,7 +14184,7 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -14550,7 +14594,7 @@
   </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -15096,8 +15140,8 @@
   </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E12:E13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15703,8 +15747,8 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16135,7 +16179,7 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I21" sqref="A21:I21"/>
     </sheetView>
   </sheetViews>
@@ -16769,8 +16813,8 @@
   </sheetPr>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Quests.xlsx
+++ b/Quests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Documents\GitHub\Craft-to-Exile-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6347FDB-E581-4BCE-BAC2-17B5E8C0ADFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5887C892-C6AA-43BE-A02D-78B8E3DA70F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="680" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="680" activeTab="7" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="522">
   <si>
     <t>Quest</t>
   </si>
@@ -86,9 +86,6 @@
     <t>KILL_MOB</t>
   </si>
   <si>
-    <t>3 Zombies</t>
-  </si>
-  <si>
     <t>10 Common Ore</t>
   </si>
   <si>
@@ -638,9 +635,6 @@
     <t>10 Reapers</t>
   </si>
   <si>
-    <t>Where Are The Minutemen?!</t>
-  </si>
-  <si>
     <t>1 chief barbarian 10 barbarian</t>
   </si>
   <si>
@@ -764,9 +758,6 @@
     <t>1 Bucket of Milk</t>
   </si>
   <si>
-    <t>6 Zombies, 2 Skeletons, 1 Creepers</t>
-  </si>
-  <si>
     <t>I Can't Carry Anymore</t>
   </si>
   <si>
@@ -1518,13 +1509,112 @@
   </si>
   <si>
     <t>bufflon saddle</t>
+  </si>
+  <si>
+    <t>2 Zombies</t>
+  </si>
+  <si>
+    <t>4 Zombies, 1 Skeletons, 1 Creepers</t>
+  </si>
+  <si>
+    <t>Home Décor</t>
+  </si>
+  <si>
+    <t>macaw + embellish + crayfish furniture</t>
+  </si>
+  <si>
+    <t>Town Hall</t>
+  </si>
+  <si>
+    <t>It's All MINE!</t>
+  </si>
+  <si>
+    <t>Barbarian Raids</t>
+  </si>
+  <si>
+    <t>2 Iron Sword</t>
+  </si>
+  <si>
+    <t>2 Iron Pickaxe</t>
+  </si>
+  <si>
+    <t>2 Iron Axe</t>
+  </si>
+  <si>
+    <t>Fishy Food</t>
+  </si>
+  <si>
+    <t>Population Density</t>
+  </si>
+  <si>
+    <t>embellishcraft:white_oak_fancy_bed</t>
+  </si>
+  <si>
+    <t>mcwfurnitures:nightstand</t>
+  </si>
+  <si>
+    <t>cfm:white_sofa</t>
+  </si>
+  <si>
+    <t>minecolonies:blockhutcitizen</t>
+  </si>
+  <si>
+    <t>minecolonies:blockhutfisherman</t>
+  </si>
+  <si>
+    <t>minecolonies:blockhutguardtower</t>
+  </si>
+  <si>
+    <t>minecolonies:blockhutuniversity</t>
+  </si>
+  <si>
+    <t>minecolonies:blockhutminer</t>
+  </si>
+  <si>
+    <t>minecolonies:blockhutlumberjack</t>
+  </si>
+  <si>
+    <t>minecolonies:blockhuttownhall</t>
+  </si>
+  <si>
+    <t>16 aquaculture:worm</t>
+  </si>
+  <si>
+    <t>16 minecraft:book</t>
+  </si>
+  <si>
+    <t>64 minecraft:oak_log</t>
+  </si>
+  <si>
+    <t>16 minecraft:cooked_porkchop</t>
+  </si>
+  <si>
+    <t>32 mapperbase:raw_bitumen</t>
+  </si>
+  <si>
+    <t>I'm A Lumberjack And I'm OK</t>
+  </si>
+  <si>
+    <t>Guardians Of The City</t>
+  </si>
+  <si>
+    <t>Getting Schooled</t>
+  </si>
+  <si>
+    <t>Have A Beer</t>
+  </si>
+  <si>
+    <t>minecolonies:blockhuttavern</t>
+  </si>
+  <si>
+    <t>1 epic small currency bag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1570,6 +1660,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1670,7 +1767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1708,9 +1805,10 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4994,7 +5092,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>150</c:v>
@@ -5046,6 +5144,33 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5066,7 +5191,7 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>100</c:v>
@@ -5115,6 +5240,33 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11930,8 +12082,8 @@
   </sheetPr>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11976,7 +12128,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -11985,7 +12137,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2">
         <v>250</v>
@@ -12010,11 +12162,11 @@
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="39" t="s">
+        <v>489</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="G3" s="2">
         <v>500</v>
@@ -12028,7 +12180,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -12039,11 +12191,11 @@
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>240</v>
+      <c r="E4" s="39" t="s">
+        <v>490</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2">
         <v>750</v>
@@ -12057,7 +12209,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
@@ -12066,13 +12218,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G5" s="3">
         <v>1000</v>
@@ -12086,7 +12238,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
@@ -12098,10 +12250,10 @@
         <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2">
         <v>500</v>
@@ -12115,7 +12267,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
@@ -12127,10 +12279,10 @@
         <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="G7" s="2">
         <v>1000</v>
@@ -12144,7 +12296,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
@@ -12156,10 +12308,10 @@
         <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="G8" s="9">
         <v>2000</v>
@@ -12173,7 +12325,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2">
         <v>7</v>
@@ -12185,10 +12337,10 @@
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="G9" s="9">
         <v>3000</v>
@@ -12202,7 +12354,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2">
         <v>8</v>
@@ -12214,10 +12366,10 @@
         <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="G10" s="9">
         <v>4500</v>
@@ -12231,7 +12383,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2">
         <v>9</v>
@@ -12243,10 +12395,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="G11" s="9">
         <v>6000</v>
@@ -12260,7 +12412,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B12" s="24">
         <v>20</v>
@@ -12272,10 +12424,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="24" t="s">
         <v>65</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>66</v>
       </c>
       <c r="G12" s="25">
         <v>8000</v>
@@ -12289,7 +12441,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" s="6">
         <v>42</v>
@@ -12301,10 +12453,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="G13" s="10">
         <v>2000</v>
@@ -12318,7 +12470,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="6">
         <v>43</v>
@@ -12330,10 +12482,10 @@
         <v>7</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G14" s="10">
         <v>3000</v>
@@ -12347,7 +12499,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B15" s="6">
         <v>44</v>
@@ -12359,10 +12511,10 @@
         <v>7</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="G15" s="10">
         <v>5000</v>
@@ -12376,7 +12528,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B16" s="8">
         <v>79</v>
@@ -12385,13 +12537,13 @@
         <v>6</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>220</v>
       </c>
       <c r="G16" s="14">
         <v>4000</v>
@@ -12405,7 +12557,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B17" s="8">
         <v>80</v>
@@ -12417,10 +12569,10 @@
         <v>7</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G17" s="14">
         <v>25000</v>
@@ -12432,12 +12584,12 @@
         <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B18" s="8">
         <v>81</v>
@@ -12449,10 +12601,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G18" s="14">
         <v>2000000</v>
@@ -12466,7 +12618,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B19" s="8">
         <v>82</v>
@@ -12478,10 +12630,10 @@
         <v>13</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G19" s="14">
         <v>2000000</v>
@@ -12495,7 +12647,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B20" s="8">
         <v>83</v>
@@ -12507,10 +12659,10 @@
         <v>13</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G20" s="14">
         <v>2000000</v>
@@ -12524,7 +12676,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B21" s="8">
         <v>84</v>
@@ -12536,10 +12688,10 @@
         <v>13</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G21" s="14">
         <v>2000000</v>
@@ -12553,7 +12705,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B22" s="8">
         <v>85</v>
@@ -12565,10 +12717,10 @@
         <v>13</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G22" s="14">
         <v>2000000</v>
@@ -12582,7 +12734,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B23" s="8">
         <v>86</v>
@@ -12594,10 +12746,10 @@
         <v>13</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G23" s="14">
         <v>2000000</v>
@@ -12611,22 +12763,22 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B24" s="8">
         <v>95</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G24" s="14">
         <v>1000</v>
@@ -12640,7 +12792,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B25" s="8">
         <v>109</v>
@@ -12652,10 +12804,10 @@
         <v>7</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G25" s="14">
         <v>3000</v>
@@ -12669,7 +12821,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B26" s="8">
         <v>110</v>
@@ -12678,13 +12830,13 @@
         <v>95</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G26" s="14">
         <v>1500</v>
@@ -12698,7 +12850,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B27" s="8">
         <v>114</v>
@@ -12710,10 +12862,10 @@
         <v>7</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G27" s="14">
         <v>1250</v>
@@ -12727,7 +12879,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B28" s="6">
         <v>115</v>
@@ -12739,10 +12891,10 @@
         <v>7</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G28" s="10">
         <v>8000</v>
@@ -12756,7 +12908,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B29" s="6">
         <v>116</v>
@@ -12768,10 +12920,10 @@
         <v>7</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G29" s="10">
         <v>4000</v>
@@ -12785,7 +12937,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B30" s="6">
         <v>162</v>
@@ -12797,7 +12949,7 @@
         <v>7</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="10">
@@ -12812,7 +12964,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B31" s="8">
         <v>163</v>
@@ -12824,10 +12976,10 @@
         <v>13</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G31" s="14">
         <v>200000</v>
@@ -12840,35 +12992,35 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
-        <v>457</v>
-      </c>
-      <c r="B32" s="38">
+      <c r="A32" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="B32" s="37">
         <v>164</v>
       </c>
-      <c r="C32" s="38">
+      <c r="C32" s="37">
         <v>5</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="38" t="s">
-        <v>458</v>
-      </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="39">
+      <c r="E32" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="F32" s="37"/>
+      <c r="G32" s="38">
         <v>1000</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H32" s="37">
         <v>200</v>
       </c>
-      <c r="I32" s="39">
+      <c r="I32" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B33" s="8">
         <v>173</v>
@@ -12880,10 +13032,10 @@
         <v>7</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G33" s="14">
         <v>1000</v>
@@ -12897,7 +13049,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B34" s="7">
         <v>174</v>
@@ -12909,10 +13061,10 @@
         <v>7</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G34" s="7">
         <v>1500</v>
@@ -12982,7 +13134,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B2" s="2">
         <v>165</v>
@@ -12994,7 +13146,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="18">
@@ -13009,7 +13161,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B3" s="2">
         <v>166</v>
@@ -13021,7 +13173,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="18">
@@ -13036,7 +13188,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B4" s="2">
         <v>167</v>
@@ -13048,7 +13200,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="18">
@@ -13063,7 +13215,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B5" s="2">
         <v>168</v>
@@ -13075,7 +13227,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="18">
@@ -13090,7 +13242,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B6" s="2">
         <v>169</v>
@@ -13102,7 +13254,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="18">
@@ -13117,7 +13269,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B7" s="2">
         <v>170</v>
@@ -13129,7 +13281,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="18">
@@ -13144,7 +13296,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B8" s="2">
         <v>171</v>
@@ -13156,7 +13308,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="18">
@@ -13171,7 +13323,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B9" s="7">
         <v>172</v>
@@ -13183,7 +13335,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="27">
@@ -13275,7 +13427,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13314,7 +13466,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -13323,13 +13475,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="18">
         <f>( 1.5 *11000)/2</f>
@@ -13344,7 +13496,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -13356,10 +13508,10 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
         <v>52</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
       </c>
       <c r="G3" s="18">
         <f>( 1.5 *16000)/2</f>
@@ -13374,7 +13526,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -13386,10 +13538,10 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
         <v>55</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
       </c>
       <c r="G4" s="18">
         <f>( 1.5 *30000)/2</f>
@@ -13404,7 +13556,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>13</v>
@@ -13416,10 +13568,10 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="18">
         <f>( 1.5 *28000)/2</f>
@@ -13434,7 +13586,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -13443,13 +13595,13 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="18">
         <f>( 1.5 *37500)/2</f>
@@ -13464,7 +13616,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="11">
         <v>15</v>
@@ -13473,13 +13625,13 @@
         <v>14</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G7" s="26">
         <f>( 1.5 *45000)/2</f>
@@ -13494,7 +13646,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="2">
         <v>45</v>
@@ -13503,13 +13655,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="G8" s="18">
         <f>( 1.5 *35000)/2</f>
@@ -13524,7 +13676,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2">
         <v>46</v>
@@ -13536,10 +13688,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G9" s="18">
         <f>( 1.5 *37500)/2</f>
@@ -13554,7 +13706,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B10" s="16">
         <v>111</v>
@@ -13563,13 +13715,13 @@
         <v>14</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G10" s="27">
         <v>30000</v>
@@ -13583,7 +13735,7 @@
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -13639,7 +13791,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2">
         <v>16</v>
@@ -13651,10 +13803,10 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
         <v>63</v>
-      </c>
-      <c r="F2" t="s">
-        <v>64</v>
       </c>
       <c r="G2" s="18">
         <v>26000</v>
@@ -13668,7 +13820,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3">
         <v>21</v>
@@ -13677,13 +13829,13 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G3" s="18">
         <v>25000</v>
@@ -13697,7 +13849,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4">
         <v>22</v>
@@ -13706,13 +13858,13 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" s="18">
         <v>31250</v>
@@ -13726,7 +13878,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5">
         <v>23</v>
@@ -13735,13 +13887,13 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="18">
         <v>37500</v>
@@ -13755,7 +13907,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6">
         <v>29</v>
@@ -13767,10 +13919,10 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G6" s="18">
         <v>32500</v>
@@ -13784,7 +13936,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7">
         <v>30</v>
@@ -13793,13 +13945,13 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
         <v>93</v>
-      </c>
-      <c r="F7" t="s">
-        <v>94</v>
       </c>
       <c r="G7" s="18">
         <v>37500</v>
@@ -13813,7 +13965,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8">
         <v>31</v>
@@ -13825,10 +13977,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G8" s="18">
         <v>43750</v>
@@ -13842,7 +13994,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9">
         <v>32</v>
@@ -13854,10 +14006,10 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G9" s="18">
         <v>75000</v>
@@ -13871,22 +14023,22 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10">
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" t="s">
         <v>97</v>
-      </c>
-      <c r="F10" t="s">
-        <v>98</v>
       </c>
       <c r="G10" s="18">
         <v>46250</v>
@@ -13900,7 +14052,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" s="12">
         <v>34</v>
@@ -13912,10 +14064,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G11" s="28">
         <v>50000</v>
@@ -13929,7 +14081,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B12" s="2">
         <v>48</v>
@@ -13941,10 +14093,10 @@
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G12" s="18">
         <f>( 3 * 35000)/2</f>
@@ -13959,7 +14111,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" s="2">
         <v>49</v>
@@ -13971,10 +14123,10 @@
         <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G13" s="18">
         <f>( 3 * 25000)/2</f>
@@ -13989,7 +14141,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B14" s="2">
         <v>50</v>
@@ -14001,10 +14153,10 @@
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G14" s="18">
         <f>( 3 * 30000)/2</f>
@@ -14019,7 +14171,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B15" s="2">
         <v>51</v>
@@ -14031,10 +14183,10 @@
         <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G15" s="18">
         <f>( 3 * 32500)/2</f>
@@ -14049,7 +14201,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B16" s="2">
         <v>52</v>
@@ -14061,10 +14213,10 @@
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="G16" s="18">
         <f>( 3 * 35000)/2</f>
@@ -14079,7 +14231,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" s="2">
         <v>53</v>
@@ -14091,10 +14243,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G17" s="18">
         <f>( 3 * 30000)/2</f>
@@ -14107,12 +14259,12 @@
         <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B18" s="2">
         <v>54</v>
@@ -14124,10 +14276,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G18" s="18">
         <f>( 3 * 35000)/2</f>
@@ -14142,22 +14294,22 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B19" s="7">
         <v>55</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G19" s="27">
         <f>( 3 * 100000)/2</f>
@@ -14224,7 +14376,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="18">
         <v>35</v>
@@ -14233,13 +14385,13 @@
         <v>34</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="18">
         <v>62500</v>
@@ -14253,7 +14405,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="18">
         <v>36</v>
@@ -14265,10 +14417,10 @@
         <v>13</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G3" s="18">
         <v>250000</v>
@@ -14282,7 +14434,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="18">
         <v>37</v>
@@ -14294,10 +14446,10 @@
         <v>7</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G4" s="18">
         <v>67500</v>
@@ -14311,7 +14463,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="18">
         <v>38</v>
@@ -14323,10 +14475,10 @@
         <v>7</v>
       </c>
       <c r="E5" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>105</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>106</v>
       </c>
       <c r="G5" s="18">
         <v>71250</v>
@@ -14340,7 +14492,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B6" s="29">
         <v>39</v>
@@ -14352,10 +14504,10 @@
         <v>7</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="30">
         <v>75000</v>
@@ -14369,7 +14521,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" s="9">
         <v>56</v>
@@ -14381,10 +14533,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G7" s="18">
         <v>33750</v>
@@ -14398,7 +14550,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B8" s="9">
         <v>57</v>
@@ -14410,10 +14562,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G8" s="18">
         <v>37500</v>
@@ -14427,7 +14579,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" s="9">
         <v>58</v>
@@ -14439,10 +14591,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G9" s="18">
         <v>38750</v>
@@ -14456,7 +14608,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B10" s="9">
         <v>59</v>
@@ -14468,10 +14620,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G10" s="18">
         <v>35000</v>
@@ -14485,7 +14637,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B11" s="9">
         <v>60</v>
@@ -14497,10 +14649,10 @@
         <v>13</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G11" s="18">
         <v>50000</v>
@@ -14514,7 +14666,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B12" s="14">
         <v>107</v>
@@ -14526,10 +14678,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G12" s="18">
         <v>25000</v>
@@ -14543,7 +14695,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B13" s="19">
         <v>112</v>
@@ -14552,13 +14704,13 @@
         <v>35</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G13" s="27">
         <v>25000</v>
@@ -14576,7 +14728,7 @@
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -14634,7 +14786,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B2" s="14">
         <v>145</v>
@@ -14643,13 +14795,13 @@
         <v>39</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G2" s="14">
         <v>75000</v>
@@ -14663,7 +14815,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B3" s="14">
         <v>146</v>
@@ -14675,10 +14827,10 @@
         <v>13</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G3" s="14">
         <v>75500</v>
@@ -14692,7 +14844,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B4" s="14">
         <v>147</v>
@@ -14704,10 +14856,10 @@
         <v>13</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G4" s="14">
         <v>76000</v>
@@ -14721,7 +14873,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B5" s="14">
         <v>148</v>
@@ -14733,10 +14885,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G5" s="14">
         <v>76000</v>
@@ -14750,7 +14902,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B6" s="14">
         <v>149</v>
@@ -14762,10 +14914,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G6" s="14">
         <v>76500</v>
@@ -14779,7 +14931,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B7" s="14">
         <v>150</v>
@@ -14791,10 +14943,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G7" s="14">
         <v>76000</v>
@@ -14808,7 +14960,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B8" s="14">
         <v>151</v>
@@ -14820,10 +14972,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G8" s="14">
         <v>76500</v>
@@ -14837,22 +14989,22 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B9" s="14">
         <v>152</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G9" s="14">
         <v>78500</v>
@@ -14866,7 +15018,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B10" s="14">
         <v>153</v>
@@ -14878,10 +15030,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G10" s="14">
         <v>100000</v>
@@ -14895,7 +15047,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B11" s="14">
         <v>154</v>
@@ -14907,7 +15059,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14">
@@ -14922,7 +15074,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B12" s="14">
         <v>155</v>
@@ -14934,10 +15086,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G12" s="14">
         <v>65500</v>
@@ -14951,7 +15103,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B13" s="14">
         <v>156</v>
@@ -14963,10 +15115,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G13" s="14">
         <v>66000</v>
@@ -14980,7 +15132,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B14" s="14">
         <v>157</v>
@@ -14992,10 +15144,10 @@
         <v>7</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G14" s="14">
         <v>65500</v>
@@ -15009,7 +15161,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B15" s="14">
         <v>158</v>
@@ -15021,10 +15173,10 @@
         <v>7</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G15" s="14">
         <v>66000</v>
@@ -15038,7 +15190,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B16" s="14">
         <v>159</v>
@@ -15050,10 +15202,10 @@
         <v>7</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G16" s="14">
         <v>66500</v>
@@ -15067,7 +15219,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B17" s="14">
         <v>160</v>
@@ -15079,10 +15231,10 @@
         <v>7</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G17" s="14">
         <v>66500</v>
@@ -15094,12 +15246,12 @@
         <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B18" s="35">
         <v>161</v>
@@ -15111,7 +15263,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="35">
@@ -15180,7 +15332,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -15189,13 +15341,13 @@
         <v>153</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G2" s="18">
         <v>77500</v>
@@ -15209,7 +15361,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B3" s="2">
         <v>41</v>
@@ -15218,13 +15370,13 @@
         <v>153</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G3" s="18">
         <v>77500</v>
@@ -15238,7 +15390,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B4" s="2">
         <v>61</v>
@@ -15250,10 +15402,10 @@
         <v>7</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G4" s="18">
         <v>87500</v>
@@ -15267,7 +15419,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B5" s="2">
         <v>62</v>
@@ -15276,13 +15428,13 @@
         <v>61</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G5" s="18">
         <v>125000</v>
@@ -15296,7 +15448,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" s="2">
         <v>63</v>
@@ -15308,10 +15460,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G6" s="18">
         <v>150000</v>
@@ -15325,7 +15477,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7" s="2">
         <v>64</v>
@@ -15334,13 +15486,13 @@
         <v>62</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G7" s="18">
         <v>137500</v>
@@ -15354,7 +15506,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" s="2">
         <v>65</v>
@@ -15363,13 +15515,13 @@
         <v>64</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G8" s="18">
         <v>162500</v>
@@ -15383,7 +15535,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B9" s="2">
         <v>66</v>
@@ -15392,13 +15544,13 @@
         <v>65</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G9" s="18">
         <v>225000</v>
@@ -15412,7 +15564,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10" s="2">
         <v>67</v>
@@ -15424,10 +15576,10 @@
         <v>7</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G10" s="18">
         <v>100000</v>
@@ -15441,7 +15593,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B11" s="2">
         <v>68</v>
@@ -15453,10 +15605,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G11" s="18">
         <v>112500</v>
@@ -15470,7 +15622,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B12" s="2">
         <v>69</v>
@@ -15482,10 +15634,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G12" s="18">
         <v>125000</v>
@@ -15499,7 +15651,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B13" s="2">
         <v>70</v>
@@ -15511,10 +15663,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G13" s="18">
         <v>100000</v>
@@ -15528,7 +15680,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B14" s="2">
         <v>71</v>
@@ -15537,13 +15689,13 @@
         <v>70</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G14" s="18">
         <v>137500</v>
@@ -15557,7 +15709,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B15" s="2">
         <v>72</v>
@@ -15566,13 +15718,13 @@
         <v>71</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G15" s="18">
         <v>162500</v>
@@ -15586,7 +15738,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" s="2">
         <v>73</v>
@@ -15595,13 +15747,13 @@
         <v>72</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G16" s="18">
         <v>212500</v>
@@ -15615,7 +15767,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B17" s="2">
         <v>74</v>
@@ -15624,13 +15776,13 @@
         <v>73</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G17" s="18">
         <v>275000</v>
@@ -15642,12 +15794,12 @@
         <v>250</v>
       </c>
       <c r="K17" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18" s="2">
         <v>75</v>
@@ -15659,10 +15811,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G18" s="18">
         <v>200000</v>
@@ -15676,7 +15828,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B19" s="2">
         <v>76</v>
@@ -15688,10 +15840,10 @@
         <v>13</v>
       </c>
       <c r="E19" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>194</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>195</v>
       </c>
       <c r="G19" s="18">
         <v>250000</v>
@@ -15705,22 +15857,22 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B20" s="13">
         <v>77</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D20" s="32" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G20" s="32">
         <v>125000</v>
@@ -15787,7 +15939,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B2" s="2">
         <v>78</v>
@@ -15796,13 +15948,13 @@
         <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="18">
         <v>225000</v>
@@ -15816,7 +15968,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B3" s="2">
         <v>97</v>
@@ -15828,10 +15980,10 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G3" s="18">
         <v>312500</v>
@@ -15845,7 +15997,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B4" s="2">
         <v>98</v>
@@ -15857,10 +16009,10 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G4" s="18">
         <v>312500</v>
@@ -15874,7 +16026,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B5" s="2">
         <v>99</v>
@@ -15886,10 +16038,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G5" s="18">
         <v>312500</v>
@@ -15903,7 +16055,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B6" s="2">
         <v>100</v>
@@ -15915,10 +16067,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G6" s="18">
         <v>312500</v>
@@ -15932,7 +16084,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B7" s="2">
         <v>101</v>
@@ -15941,13 +16093,13 @@
         <v>78</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G7" s="18">
         <v>250000</v>
@@ -15961,7 +16113,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B8" s="2">
         <v>102</v>
@@ -15970,13 +16122,13 @@
         <v>101</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G8" s="18">
         <v>250000</v>
@@ -15990,7 +16142,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B9" s="2">
         <v>103</v>
@@ -15999,13 +16151,13 @@
         <v>102</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G9" s="18">
         <v>250000</v>
@@ -16019,7 +16171,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B10" s="2">
         <v>104</v>
@@ -16028,13 +16180,13 @@
         <v>103</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G10" s="18">
         <v>250000</v>
@@ -16048,7 +16200,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B11" s="2">
         <v>105</v>
@@ -16057,13 +16209,13 @@
         <v>104</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G11" s="18">
         <v>250000</v>
@@ -16077,7 +16229,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B12" s="2">
         <v>106</v>
@@ -16086,13 +16238,13 @@
         <v>105</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G12" s="18">
         <v>250000</v>
@@ -16106,22 +16258,22 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B13" s="2">
         <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G13" s="18">
         <v>500000</v>
@@ -16135,7 +16287,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B14" s="16">
         <v>113</v>
@@ -16144,10 +16296,10 @@
         <v>20</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="27">
@@ -16162,7 +16314,7 @@
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -16177,10 +16329,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="A21:I21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16219,7 +16371,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>17</v>
@@ -16231,13 +16383,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1500</v>
+      <c r="G2" s="20">
+        <v>1000</v>
       </c>
       <c r="H2" s="20">
         <v>50</v>
@@ -16248,7 +16400,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4">
         <v>18</v>
@@ -16260,13 +16412,13 @@
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1000</v>
+        <v>14</v>
+      </c>
+      <c r="G3" s="20">
+        <v>500</v>
       </c>
       <c r="H3" s="20">
         <v>0</v>
@@ -16277,28 +16429,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="4">
         <v>19</v>
       </c>
-      <c r="C4" s="4">
-        <v>17</v>
+      <c r="C4" s="20">
+        <v>176</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="4">
-        <v>4000</v>
+      <c r="G4" s="20">
+        <v>1000</v>
       </c>
       <c r="H4" s="20">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I4" s="20">
         <v>150</v>
@@ -16306,36 +16458,36 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>198</v>
+        <v>495</v>
       </c>
       <c r="B5" s="4">
         <v>47</v>
       </c>
-      <c r="C5" s="4">
-        <v>19</v>
+      <c r="C5" s="20">
+        <v>179</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G5" s="20">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="H5" s="20">
         <v>150</v>
       </c>
       <c r="I5" s="20">
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="5">
         <v>24</v>
@@ -16347,10 +16499,10 @@
         <v>7</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="G6" s="21">
         <v>500</v>
@@ -16364,7 +16516,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="5">
         <v>25</v>
@@ -16376,10 +16528,10 @@
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="G7" s="21">
         <v>1000</v>
@@ -16393,7 +16545,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="5">
         <v>26</v>
@@ -16405,10 +16557,10 @@
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" s="21">
         <v>2000</v>
@@ -16422,7 +16574,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="5">
         <v>27</v>
@@ -16434,10 +16586,10 @@
         <v>7</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="G9" s="21">
         <v>4000</v>
@@ -16451,7 +16603,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="5">
         <v>28</v>
@@ -16460,16 +16612,16 @@
         <v>27</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="G10" s="21">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="H10" s="21">
         <v>200</v>
@@ -16480,7 +16632,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B11" s="15">
         <v>87</v>
@@ -16492,10 +16644,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G11" s="22">
         <v>500</v>
@@ -16509,7 +16661,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B12" s="15">
         <v>88</v>
@@ -16521,10 +16673,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G12" s="15">
         <v>500</v>
@@ -16538,7 +16690,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B13" s="15">
         <v>89</v>
@@ -16550,10 +16702,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G13" s="15">
         <v>500</v>
@@ -16567,7 +16719,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B14" s="15">
         <v>90</v>
@@ -16579,10 +16731,10 @@
         <v>7</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G14" s="15">
         <v>500</v>
@@ -16596,7 +16748,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B15" s="15">
         <v>91</v>
@@ -16605,13 +16757,13 @@
         <v>90</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G15" s="15">
         <v>500</v>
@@ -16625,7 +16777,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B16" s="15">
         <v>92</v>
@@ -16637,10 +16789,10 @@
         <v>7</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G16" s="15">
         <v>500</v>
@@ -16654,7 +16806,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B17" s="15">
         <v>93</v>
@@ -16666,10 +16818,10 @@
         <v>7</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G17" s="15">
         <v>500</v>
@@ -16681,12 +16833,12 @@
         <v>50</v>
       </c>
       <c r="K17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B18" s="15">
         <v>94</v>
@@ -16698,10 +16850,10 @@
         <v>7</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G18" s="15">
         <v>500</v>
@@ -16715,7 +16867,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B19" s="15">
         <v>117</v>
@@ -16727,10 +16879,10 @@
         <v>7</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G19" s="15">
         <v>500</v>
@@ -16744,7 +16896,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B20" s="15">
         <v>118</v>
@@ -16756,10 +16908,10 @@
         <v>7</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G20" s="15">
         <v>1000</v>
@@ -16772,32 +16924,302 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
-        <v>329</v>
-      </c>
-      <c r="B21" s="37">
+      <c r="A21" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21" s="15">
         <v>119</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="15">
         <v>118</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="37" t="s">
-        <v>430</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>431</v>
-      </c>
-      <c r="G21" s="37">
+      <c r="E21" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="G21" s="15">
         <v>1000</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="15">
         <v>300</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="15">
         <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="B22" s="15">
+        <v>175</v>
+      </c>
+      <c r="C22" s="15">
+        <v>91</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="G22" s="15">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="15">
+        <v>200</v>
+      </c>
+      <c r="I22" s="15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B23" s="4">
+        <v>176</v>
+      </c>
+      <c r="C23" s="4">
+        <v>17</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H23" s="4">
+        <v>100</v>
+      </c>
+      <c r="I23" s="4">
+        <v>150</v>
+      </c>
+      <c r="K23" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B24" s="4">
+        <v>177</v>
+      </c>
+      <c r="C24" s="4">
+        <v>19</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H24" s="4">
+        <v>200</v>
+      </c>
+      <c r="I24" s="4">
+        <v>150</v>
+      </c>
+      <c r="K24" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B25" s="4">
+        <v>178</v>
+      </c>
+      <c r="C25" s="4">
+        <v>177</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H25" s="4">
+        <v>250</v>
+      </c>
+      <c r="I25" s="4">
+        <v>150</v>
+      </c>
+      <c r="K25" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B26" s="4">
+        <v>179</v>
+      </c>
+      <c r="C26" s="4">
+        <v>19</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="4">
+        <v>150</v>
+      </c>
+      <c r="I26" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B27" s="4">
+        <v>180</v>
+      </c>
+      <c r="C27" s="4">
+        <v>178</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="4">
+        <v>250</v>
+      </c>
+      <c r="I27" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B28" s="4">
+        <v>181</v>
+      </c>
+      <c r="C28" s="4">
+        <v>178</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="4">
+        <v>300</v>
+      </c>
+      <c r="I28" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B29" s="4">
+        <v>182</v>
+      </c>
+      <c r="C29" s="4">
+        <v>178</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H29" s="4">
+        <v>300</v>
+      </c>
+      <c r="I29" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="40" t="s">
+        <v>519</v>
+      </c>
+      <c r="B30" s="40">
+        <v>183</v>
+      </c>
+      <c r="C30" s="40">
+        <v>182</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>520</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>521</v>
+      </c>
+      <c r="G30" s="40">
+        <v>1500</v>
+      </c>
+      <c r="H30" s="40">
+        <v>350</v>
+      </c>
+      <c r="I30" s="40">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -16853,7 +17275,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B2" s="6">
         <v>96</v>
@@ -16862,13 +17284,13 @@
         <v>134</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G2" s="10">
         <v>1000</v>
@@ -16882,7 +17304,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B3" s="6">
         <v>108</v>
@@ -16894,10 +17316,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G3" s="10">
         <v>1000</v>
@@ -16911,7 +17333,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B4" s="14">
         <v>120</v>
@@ -16921,10 +17343,10 @@
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G4" s="14">
         <v>500</v>
@@ -16938,7 +17360,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B5" s="14">
         <v>121</v>
@@ -16948,10 +17370,10 @@
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G5" s="14">
         <v>500</v>
@@ -16965,7 +17387,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B6" s="14">
         <v>122</v>
@@ -16975,10 +17397,10 @@
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G6" s="14">
         <v>500</v>
@@ -16992,7 +17414,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B7" s="14">
         <v>123</v>
@@ -17002,10 +17424,10 @@
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G7" s="14">
         <v>500</v>
@@ -17019,7 +17441,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B8" s="14">
         <v>124</v>
@@ -17029,10 +17451,10 @@
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G8" s="14">
         <v>500</v>
@@ -17046,7 +17468,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B9" s="14">
         <v>125</v>
@@ -17056,10 +17478,10 @@
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G9" s="14">
         <v>1000</v>
@@ -17073,7 +17495,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B10" s="14">
         <v>126</v>
@@ -17083,10 +17505,10 @@
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G10" s="14">
         <v>1000</v>
@@ -17100,7 +17522,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B11" s="14">
         <v>127</v>
@@ -17110,10 +17532,10 @@
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G11" s="14">
         <v>500</v>
@@ -17127,7 +17549,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B12" s="14">
         <v>128</v>
@@ -17137,7 +17559,7 @@
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14">
@@ -17152,7 +17574,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B13" s="14">
         <v>129</v>
@@ -17162,7 +17584,7 @@
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14">
@@ -17177,7 +17599,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B14" s="14">
         <v>130</v>
@@ -17187,7 +17609,7 @@
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14">
@@ -17202,7 +17624,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B15" s="14">
         <v>131</v>
@@ -17212,10 +17634,10 @@
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G15" s="14">
         <v>500</v>
@@ -17229,7 +17651,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B16" s="14">
         <v>132</v>
@@ -17239,10 +17661,10 @@
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G16" s="14">
         <v>500</v>
@@ -17256,7 +17678,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B17" s="14">
         <v>133</v>
@@ -17266,7 +17688,7 @@
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14">
@@ -17279,12 +17701,12 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B18" s="14">
         <v>134</v>
@@ -17294,10 +17716,10 @@
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G18" s="14">
         <v>500</v>
@@ -17311,7 +17733,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B19" s="10">
         <v>135</v>
@@ -17321,10 +17743,10 @@
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G19" s="10">
         <v>1000</v>
@@ -17338,7 +17760,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B20" s="10">
         <v>136</v>
@@ -17348,10 +17770,10 @@
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G20" s="10">
         <v>1000</v>
@@ -17365,7 +17787,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B21" s="10">
         <v>137</v>
@@ -17375,7 +17797,7 @@
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10">
@@ -17390,7 +17812,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B22" s="10">
         <v>138</v>
@@ -17400,7 +17822,7 @@
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="10" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10">
@@ -17415,7 +17837,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B23" s="10">
         <v>139</v>
@@ -17425,7 +17847,7 @@
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="10" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10">
@@ -17440,7 +17862,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B24" s="10">
         <v>140</v>
@@ -17450,10 +17872,10 @@
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="10" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G24" s="10">
         <v>1000</v>
@@ -17467,7 +17889,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B25" s="10">
         <v>141</v>
@@ -17477,10 +17899,10 @@
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G25" s="10">
         <v>1000</v>
@@ -17494,7 +17916,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B26" s="10">
         <v>142</v>
@@ -17504,10 +17926,10 @@
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G26" s="10">
         <v>1000</v>
@@ -17521,7 +17943,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B27" s="10">
         <v>143</v>
@@ -17531,10 +17953,10 @@
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G27" s="10">
         <v>1000</v>
@@ -17548,7 +17970,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B28" s="34">
         <v>144</v>
@@ -17558,10 +17980,10 @@
       </c>
       <c r="D28" s="33"/>
       <c r="E28" s="34" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G28" s="34">
         <v>1000</v>

--- a/Quests.xlsx
+++ b/Quests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Documents\GitHub\Craft-to-Exile-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5887C892-C6AA-43BE-A02D-78B8E3DA70F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5099FA4-59B3-44F3-ADCD-E9A1A2C25E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="680" activeTab="7" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
@@ -16332,7 +16332,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Quests.xlsx
+++ b/Quests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Documents\GitHub\Craft-to-Exile-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5099FA4-59B3-44F3-ADCD-E9A1A2C25E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5CD3DF-224B-458F-B8B5-7721E57C5F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="680" activeTab="7" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="680" activeTab="1" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="530">
   <si>
     <t>Quest</t>
   </si>
@@ -1608,6 +1608,30 @@
   </si>
   <si>
     <t>1 epic small currency bag</t>
+  </si>
+  <si>
+    <t>Centripetal Force</t>
+  </si>
+  <si>
+    <t>Centrifuge</t>
+  </si>
+  <si>
+    <t>Stocking Up</t>
+  </si>
+  <si>
+    <t>3 Ender Pearls</t>
+  </si>
+  <si>
+    <t>10 bottle of honey</t>
+  </si>
+  <si>
+    <t>9 Ender Honeycomb</t>
+  </si>
+  <si>
+    <t>3 epic ores</t>
+  </si>
+  <si>
+    <t>None Of Yo Beeswax</t>
   </si>
 </sst>
 </file>
@@ -2788,7 +2812,16 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2824,6 +2857,15 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -13426,8 +13468,8 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13705,31 +13747,118 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="8">
         <v>111</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
+        <v>13</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="G10" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H10" s="14">
+        <v>100</v>
+      </c>
+      <c r="I10" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="B11" s="8">
+        <v>184</v>
+      </c>
+      <c r="C11" s="8">
         <v>14</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="G10" s="27">
+      <c r="D11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="G11" s="2">
         <v>30000</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H11" s="8">
         <v>150</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I11" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="B12" s="8">
+        <v>185</v>
+      </c>
+      <c r="C12" s="8">
+        <v>184</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="G12" s="2">
+        <v>30500</v>
+      </c>
+      <c r="H12" s="8">
+        <v>150</v>
+      </c>
+      <c r="I12" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="B13" s="16">
+        <v>186</v>
+      </c>
+      <c r="C13" s="16">
+        <v>184</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="G13" s="19">
+        <v>25000</v>
+      </c>
+      <c r="H13" s="16">
+        <v>200</v>
+      </c>
+      <c r="I13" s="16">
         <v>50</v>
       </c>
     </row>
@@ -13740,7 +13869,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -16331,7 +16461,7 @@
   </sheetPr>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>

--- a/Quests.xlsx
+++ b/Quests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Documents\GitHub\Craft-to-Exile-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5CD3DF-224B-458F-B8B5-7721E57C5F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245B621F-A6D4-49C8-B7F2-37F193DB50A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="680" activeTab="1" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="680" activeTab="4" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -1244,12 +1244,6 @@
     <t>10 Mummy</t>
   </si>
   <si>
-    <t>10 Clinks</t>
-  </si>
-  <si>
-    <t>Nasty Eyes</t>
-  </si>
-  <si>
     <t>Finding An Oasis</t>
   </si>
   <si>
@@ -1632,6 +1626,12 @@
   </si>
   <si>
     <t>None Of Yo Beeswax</t>
+  </si>
+  <si>
+    <t>Creepy Crawlies</t>
+  </si>
+  <si>
+    <t>20 Tarantula</t>
   </si>
 </sst>
 </file>
@@ -12205,7 +12205,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
@@ -12234,7 +12234,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>40</v>
@@ -12643,7 +12643,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>228</v>
@@ -12672,7 +12672,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>228</v>
@@ -12701,7 +12701,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>228</v>
@@ -12730,7 +12730,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>228</v>
@@ -12759,7 +12759,7 @@
         <v>13</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>228</v>
@@ -12788,7 +12788,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>228</v>
@@ -12979,7 +12979,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B30" s="6">
         <v>162</v>
@@ -12991,7 +12991,7 @@
         <v>7</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="10">
@@ -13006,7 +13006,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B31" s="8">
         <v>163</v>
@@ -13018,7 +13018,7 @@
         <v>13</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>228</v>
@@ -13035,7 +13035,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B32" s="37">
         <v>164</v>
@@ -13047,7 +13047,7 @@
         <v>7</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="38">
@@ -13062,7 +13062,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B33" s="8">
         <v>173</v>
@@ -13074,10 +13074,10 @@
         <v>7</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G33" s="14">
         <v>1000</v>
@@ -13091,7 +13091,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B34" s="7">
         <v>174</v>
@@ -13103,10 +13103,10 @@
         <v>7</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G34" s="7">
         <v>1500</v>
@@ -13176,7 +13176,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B2" s="2">
         <v>165</v>
@@ -13188,7 +13188,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="18">
@@ -13203,7 +13203,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B3" s="2">
         <v>166</v>
@@ -13215,7 +13215,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="18">
@@ -13230,7 +13230,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B4" s="2">
         <v>167</v>
@@ -13242,7 +13242,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="18">
@@ -13257,7 +13257,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B5" s="2">
         <v>168</v>
@@ -13269,7 +13269,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="18">
@@ -13284,7 +13284,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B6" s="2">
         <v>169</v>
@@ -13296,7 +13296,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="18">
@@ -13311,7 +13311,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B7" s="2">
         <v>170</v>
@@ -13323,7 +13323,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="18">
@@ -13338,7 +13338,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B8" s="2">
         <v>171</v>
@@ -13350,7 +13350,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="18">
@@ -13365,7 +13365,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B9" s="7">
         <v>172</v>
@@ -13377,7 +13377,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="27">
@@ -13468,7 +13468,7 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -13777,7 +13777,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B11" s="8">
         <v>184</v>
@@ -13789,10 +13789,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G11" s="2">
         <v>30000</v>
@@ -13806,7 +13806,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B12" s="8">
         <v>185</v>
@@ -13818,10 +13818,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G12" s="2">
         <v>30500</v>
@@ -13835,7 +13835,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B13" s="16">
         <v>186</v>
@@ -13847,10 +13847,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>526</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>528</v>
       </c>
       <c r="G13" s="19">
         <v>25000</v>
@@ -14811,7 +14811,7 @@
         <v>281</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G12" s="18">
         <v>25000</v>
@@ -14825,7 +14825,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B13" s="19">
         <v>112</v>
@@ -14837,7 +14837,7 @@
         <v>18</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>306</v>
@@ -14876,8 +14876,8 @@
   </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14931,7 +14931,7 @@
         <v>398</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G2" s="14">
         <v>75000</v>
@@ -14960,7 +14960,7 @@
         <v>399</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G3" s="14">
         <v>75500</v>
@@ -14974,7 +14974,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>401</v>
+        <v>528</v>
       </c>
       <c r="B4" s="14">
         <v>147</v>
@@ -14986,10 +14986,10 @@
         <v>13</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>400</v>
+        <v>529</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G4" s="14">
         <v>76000</v>
@@ -15003,7 +15003,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B5" s="14">
         <v>148</v>
@@ -15015,10 +15015,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G5" s="14">
         <v>76000</v>
@@ -15032,7 +15032,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B6" s="14">
         <v>149</v>
@@ -15044,10 +15044,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G6" s="14">
         <v>76500</v>
@@ -15061,7 +15061,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B7" s="14">
         <v>150</v>
@@ -15073,10 +15073,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G7" s="14">
         <v>76000</v>
@@ -15090,7 +15090,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B8" s="14">
         <v>151</v>
@@ -15102,10 +15102,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G8" s="14">
         <v>76500</v>
@@ -15119,22 +15119,22 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B9" s="14">
         <v>152</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G9" s="14">
         <v>78500</v>
@@ -15148,7 +15148,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B10" s="14">
         <v>153</v>
@@ -15160,10 +15160,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G10" s="14">
         <v>100000</v>
@@ -15177,7 +15177,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B11" s="14">
         <v>154</v>
@@ -15189,7 +15189,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14">
@@ -15204,7 +15204,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B12" s="14">
         <v>155</v>
@@ -15216,10 +15216,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G12" s="14">
         <v>65500</v>
@@ -15233,7 +15233,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B13" s="14">
         <v>156</v>
@@ -15245,10 +15245,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G13" s="14">
         <v>66000</v>
@@ -15262,7 +15262,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B14" s="14">
         <v>157</v>
@@ -15274,10 +15274,10 @@
         <v>7</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G14" s="14">
         <v>65500</v>
@@ -15291,7 +15291,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B15" s="14">
         <v>158</v>
@@ -15303,10 +15303,10 @@
         <v>7</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G15" s="14">
         <v>66000</v>
@@ -15320,7 +15320,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B16" s="14">
         <v>159</v>
@@ -15332,10 +15332,10 @@
         <v>7</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G16" s="14">
         <v>66500</v>
@@ -15349,7 +15349,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B17" s="14">
         <v>160</v>
@@ -15361,10 +15361,10 @@
         <v>7</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G17" s="14">
         <v>66500</v>
@@ -15381,7 +15381,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B18" s="35">
         <v>161</v>
@@ -15393,7 +15393,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="35">
@@ -16417,7 +16417,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B14" s="16">
         <v>113</v>
@@ -16429,7 +16429,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="27">
@@ -16588,7 +16588,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B5" s="4">
         <v>47</v>
@@ -17038,10 +17038,10 @@
         <v>7</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G20" s="15">
         <v>1000</v>
@@ -17067,10 +17067,10 @@
         <v>7</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G21" s="15">
         <v>1000</v>
@@ -17084,7 +17084,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B22" s="15">
         <v>175</v>
@@ -17096,10 +17096,10 @@
         <v>7</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G22" s="15">
         <v>1000</v>
@@ -17113,7 +17113,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B23" s="4">
         <v>176</v>
@@ -17125,10 +17125,10 @@
         <v>7</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G23" s="4">
         <v>1000</v>
@@ -17140,12 +17140,12 @@
         <v>150</v>
       </c>
       <c r="K23" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B24" s="4">
         <v>177</v>
@@ -17157,10 +17157,10 @@
         <v>7</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G24" s="4">
         <v>1000</v>
@@ -17172,12 +17172,12 @@
         <v>150</v>
       </c>
       <c r="K24" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B25" s="4">
         <v>178</v>
@@ -17189,10 +17189,10 @@
         <v>7</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G25" s="4">
         <v>1000</v>
@@ -17204,12 +17204,12 @@
         <v>150</v>
       </c>
       <c r="K25" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B26" s="4">
         <v>179</v>
@@ -17221,10 +17221,10 @@
         <v>7</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G26" s="4">
         <v>1000</v>
@@ -17238,7 +17238,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B27" s="4">
         <v>180</v>
@@ -17250,10 +17250,10 @@
         <v>7</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G27" s="4">
         <v>1000</v>
@@ -17267,7 +17267,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B28" s="4">
         <v>181</v>
@@ -17279,10 +17279,10 @@
         <v>7</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G28" s="4">
         <v>1000</v>
@@ -17296,7 +17296,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B29" s="4">
         <v>182</v>
@@ -17308,10 +17308,10 @@
         <v>7</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G29" s="4">
         <v>1000</v>
@@ -17325,7 +17325,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B30" s="40">
         <v>183</v>
@@ -17337,10 +17337,10 @@
         <v>7</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G30" s="40">
         <v>1500</v>
@@ -17849,7 +17849,7 @@
         <v>357</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G18" s="14">
         <v>500</v>

--- a/Quests.xlsx
+++ b/Quests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Documents\GitHub\Craft-to-Exile-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245B621F-A6D4-49C8-B7F2-37F193DB50A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7093D89-E847-4A9B-B758-E9F6C065DBCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="680" activeTab="4" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="680" activeTab="1" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -1616,12 +1616,6 @@
     <t>3 Ender Pearls</t>
   </si>
   <si>
-    <t>10 bottle of honey</t>
-  </si>
-  <si>
-    <t>9 Ender Honeycomb</t>
-  </si>
-  <si>
     <t>3 epic ores</t>
   </si>
   <si>
@@ -1632,6 +1626,12 @@
   </si>
   <si>
     <t>20 Tarantula</t>
+  </si>
+  <si>
+    <t>3 Ender Honeycomb</t>
+  </si>
+  <si>
+    <t>1 beeswax</t>
   </si>
 </sst>
 </file>
@@ -13468,7 +13468,7 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -13817,8 +13817,8 @@
       <c r="D12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>525</v>
+      <c r="E12" s="14" t="s">
+        <v>528</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>523</v>
@@ -13835,7 +13835,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B13" s="16">
         <v>186</v>
@@ -13847,10 +13847,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>524</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>526</v>
       </c>
       <c r="G13" s="19">
         <v>25000</v>
@@ -14876,7 +14876,7 @@
   </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -14974,7 +14974,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B4" s="14">
         <v>147</v>
@@ -14986,7 +14986,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>434</v>

--- a/Quests.xlsx
+++ b/Quests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Documents\GitHub\Craft-to-Exile-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7093D89-E847-4A9B-B758-E9F6C065DBCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A4FABE-F352-428A-9625-2E736913F6EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="680" activeTab="1" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="680" activeTab="6" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="Atum" sheetId="11" r:id="rId5"/>
     <sheet name="Good Night's Sleep" sheetId="7" r:id="rId6"/>
     <sheet name="Midnight" sheetId="8" r:id="rId7"/>
-    <sheet name="Homestead" sheetId="10" r:id="rId8"/>
-    <sheet name="Technology" sheetId="13" r:id="rId9"/>
-    <sheet name="Summoning" sheetId="15" r:id="rId10"/>
+    <sheet name="Tofu World" sheetId="16" r:id="rId8"/>
+    <sheet name="Homestead" sheetId="10" r:id="rId9"/>
+    <sheet name="Technology" sheetId="13" r:id="rId10"/>
+    <sheet name="Summoning" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="597">
   <si>
     <t>Quest</t>
   </si>
@@ -191,15 +192,9 @@
     <t>ITEM_DELIVER</t>
   </si>
   <si>
-    <t>5 Honey Bottles, 10 Honey Crystal Shards</t>
-  </si>
-  <si>
     <t>Stop The Buzz</t>
   </si>
   <si>
-    <t>10 Bees</t>
-  </si>
-  <si>
     <t>3 Honey Bottle</t>
   </si>
   <si>
@@ -215,9 +210,6 @@
     <t>Feeling Sweet</t>
   </si>
   <si>
-    <t>3 Sugar Water Bottle</t>
-  </si>
-  <si>
     <t>Bittersweet</t>
   </si>
   <si>
@@ -236,12 +228,6 @@
     <t>4 TPs</t>
   </si>
   <si>
-    <t>1 Map Station</t>
-  </si>
-  <si>
-    <t>3 Orb of Everchanging suffix, 3 prefix</t>
-  </si>
-  <si>
     <t>Quartz</t>
   </si>
   <si>
@@ -434,18 +420,12 @@
     <t>Hit Them Where It Stings</t>
   </si>
   <si>
-    <t>50 Honey Brood Blocks</t>
-  </si>
-  <si>
     <t>1 small epic currency lootbox</t>
   </si>
   <si>
     <t>Slimey Means</t>
   </si>
   <si>
-    <t>15 Honey Slimes</t>
-  </si>
-  <si>
     <t>1 epic small gear</t>
   </si>
   <si>
@@ -869,21 +849,12 @@
     <t>End Game</t>
   </si>
   <si>
-    <t>97,98,99,100, 105</t>
-  </si>
-  <si>
-    <t>/slash give map @p 80 random 4 5 5</t>
-  </si>
-  <si>
     <t>1 small gear legendary</t>
   </si>
   <si>
     <t>3 Legendary Ore</t>
   </si>
   <si>
-    <t>REMOVE I'm The Map</t>
-  </si>
-  <si>
     <t>Mapping Device</t>
   </si>
   <si>
@@ -1307,9 +1278,6 @@
     <t>The Pharoah</t>
   </si>
   <si>
-    <t>1 Bandit Warlord</t>
-  </si>
-  <si>
     <t>149, 151</t>
   </si>
   <si>
@@ -1628,17 +1596,251 @@
     <t>20 Tarantula</t>
   </si>
   <si>
-    <t>3 Ender Honeycomb</t>
-  </si>
-  <si>
     <t>1 beeswax</t>
+  </si>
+  <si>
+    <t>Finding The Right Ores</t>
+  </si>
+  <si>
+    <t>lead ore?</t>
+  </si>
+  <si>
+    <t>134, 187</t>
+  </si>
+  <si>
+    <t>Teleporting Back</t>
+  </si>
+  <si>
+    <t>TP scroll</t>
+  </si>
+  <si>
+    <t>Identification Please</t>
+  </si>
+  <si>
+    <t>10 ID Tomes</t>
+  </si>
+  <si>
+    <t>8 uncommon ore</t>
+  </si>
+  <si>
+    <t>2 Honey Bottles, 4 Honey Crystal Shards</t>
+  </si>
+  <si>
+    <t>6 Bees</t>
+  </si>
+  <si>
+    <t>2 Sugar Water Bottle</t>
+  </si>
+  <si>
+    <t>1 Ender Honeycomb</t>
+  </si>
+  <si>
+    <t>3 Honey Slimes</t>
+  </si>
+  <si>
+    <t>12 Honey Brood Blocks</t>
+  </si>
+  <si>
+    <t>16 epic ores</t>
+  </si>
+  <si>
+    <t>3 Sergeant</t>
+  </si>
+  <si>
+    <t>The Forsaken</t>
+  </si>
+  <si>
+    <t>15 Forsaken</t>
+  </si>
+  <si>
+    <t>8 legendary ore</t>
+  </si>
+  <si>
+    <t>2000000 - 3000000</t>
+  </si>
+  <si>
+    <t>97,98,99,100,105</t>
+  </si>
+  <si>
+    <t>1 small gear epic</t>
+  </si>
+  <si>
+    <t>Tofu..?</t>
+  </si>
+  <si>
+    <t>grilled tofu</t>
+  </si>
+  <si>
+    <t>Making The Portal</t>
+  </si>
+  <si>
+    <t>tofu stick</t>
+  </si>
+  <si>
+    <t>A Blank Canvas</t>
+  </si>
+  <si>
+    <t>tofucraft:tofuworld</t>
+  </si>
+  <si>
+    <t>Tofu Research</t>
+  </si>
+  <si>
+    <t>1 small epic currency</t>
+  </si>
+  <si>
+    <t>32 momen tofu</t>
+  </si>
+  <si>
+    <t>Is Everything Made Of Tofu?</t>
+  </si>
+  <si>
+    <t>Diamond In The Rough</t>
+  </si>
+  <si>
+    <t>4 diamond tofu</t>
+  </si>
+  <si>
+    <t>All Purpose</t>
+  </si>
+  <si>
+    <t>1 solid helmet</t>
+  </si>
+  <si>
+    <t>1 solid pickaxe, 1 solidsword, 1 solid chestplate</t>
+  </si>
+  <si>
+    <t>16 tofuzunda, 16 solid tofu</t>
+  </si>
+  <si>
+    <t>Defend And Retaliate</t>
+  </si>
+  <si>
+    <t>tofuishi_shield, zundabow</t>
+  </si>
+  <si>
+    <t>1 small epic gear</t>
+  </si>
+  <si>
+    <t>Tofu Or Slime?</t>
+  </si>
+  <si>
+    <t>32 tofuslime</t>
+  </si>
+  <si>
+    <t>Old Friends</t>
+  </si>
+  <si>
+    <t>4 legendary ore</t>
+  </si>
+  <si>
+    <t>Cute Critters</t>
+  </si>
+  <si>
+    <t>16 tofuspiders</t>
+  </si>
+  <si>
+    <t>Tofu Strength</t>
+  </si>
+  <si>
+    <t>full tofudiamond</t>
+  </si>
+  <si>
+    <t>Slime Locator</t>
+  </si>
+  <si>
+    <t>tofuradar</t>
+  </si>
+  <si>
+    <t>8 tofucreepers</t>
+  </si>
+  <si>
+    <t>Tofu With Teeth</t>
+  </si>
+  <si>
+    <t>8 tofuchingers</t>
+  </si>
+  <si>
+    <t>8 tofudiamond</t>
+  </si>
+  <si>
+    <t>6 tofumetal</t>
+  </si>
+  <si>
+    <t>Chaotic Evil</t>
+  </si>
+  <si>
+    <t>1 large legendary currency</t>
+  </si>
+  <si>
+    <t>8 tofunian</t>
+  </si>
+  <si>
+    <t>Dispelling Evil Tofu</t>
+  </si>
+  <si>
+    <t>1 tofugandlem</t>
+  </si>
+  <si>
+    <t>1 small legendary currency</t>
+  </si>
+  <si>
+    <t>You Can Eat Tofu Too</t>
+  </si>
+  <si>
+    <t>8 tofucookie</t>
+  </si>
+  <si>
+    <t>4 tofukinu</t>
+  </si>
+  <si>
+    <t>Mochi</t>
+  </si>
+  <si>
+    <t>1 zunda mochi</t>
+  </si>
+  <si>
+    <t>16 rice</t>
+  </si>
+  <si>
+    <t>Soy Milk!</t>
+  </si>
+  <si>
+    <t>3 soymilk</t>
+  </si>
+  <si>
+    <t>1 tofuhamburg_raw</t>
+  </si>
+  <si>
+    <t>Morijio</t>
+  </si>
+  <si>
+    <t>3 morijio</t>
+  </si>
+  <si>
+    <t>Fukumame</t>
+  </si>
+  <si>
+    <t>1 fukumame</t>
+  </si>
+  <si>
+    <t>Tasting Salt</t>
+  </si>
+  <si>
+    <t>1 salt_furnace</t>
+  </si>
+  <si>
+    <t>16 tofumomen</t>
+  </si>
+  <si>
+    <t>/slash give map @p 60 random 4 5 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1667,30 +1869,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1791,7 +1971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1816,23 +1996,24 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1953,7 +2134,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>50</c:v>
@@ -1974,7 +2155,7 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>200</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -2082,7 +2263,7 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>200</c:v>
@@ -2354,6 +2535,467 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Technology!$H$2:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Technology!$I$2:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC2E-4B57-AB54-F83885B7E6DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="532503896"/>
+        <c:axId val="532504224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="532503896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532504224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="532504224"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532503896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3601,6 +4243,12 @@
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3641,10 +4289,16 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3987,6 +4641,9 @@
                 <c:pt idx="16">
                   <c:v>200</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>150</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4046,6 +4703,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4787,6 +5447,9 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -4835,6 +5498,9 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -5123,48 +5789,45 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Homestead!$H$2:$H$31</c:f>
+              <c:f>'Tofu World'!$H$2:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>150</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>200</c:v>
@@ -5172,83 +5835,59 @@
                 <c:pt idx="14">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>150</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>300</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>250</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="21">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Homestead!$I$2:$I$31</c:f>
+              <c:f>'Tofu World'!$I$2:$I$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -5257,58 +5896,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>50</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>150</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>150</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>150</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5316,7 +5934,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-71B6-4548-A94C-7FCB61ABF781}"/>
+              <c16:uniqueId val="{00000000-DA6E-4A99-96A3-3A7A3E1DE845}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5596,30 +6214,30 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Technology!$H$2:$H$31</c:f>
+              <c:f>Homestead!$H$2:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>350</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>350</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>150</c:v>
@@ -5628,88 +6246,94 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>350</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>300</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>200</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>50</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>50</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>50</c:v>
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Technology!$I$2:$I$31</c:f>
+              <c:f>Homestead!$I$2:$I$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>100</c:v>
@@ -5721,13 +6345,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -5736,25 +6360,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>150</c:v>
@@ -5763,13 +6387,19 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>50</c:v>
+                <c:pt idx="28">
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5777,7 +6407,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DC2E-4B57-AB54-F83885B7E6DE}"/>
+              <c16:uniqueId val="{00000000-71B6-4548-A94C-7FCB61ABF781}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6015,6 +6645,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7378,6 +8048,508 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
@@ -11436,6 +12608,49 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F22FA7F-074B-4430-822D-6C3CF0666F48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11756,7 +12971,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74505596-157D-4569-BDF6-B502DFB52179}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E56CD347-21A4-4733-9C57-CBC557E2F69B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11799,7 +13014,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F22FA7F-074B-4430-822D-6C3CF0666F48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74505596-157D-4569-BDF6-B502DFB52179}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12125,7 +13340,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G34" sqref="G16:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12181,8 +13396,8 @@
       <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2">
-        <v>250</v>
+      <c r="G2" s="18">
+        <v>375</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -12204,14 +13419,14 @@
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="39" t="s">
-        <v>487</v>
+      <c r="E3" s="9" t="s">
+        <v>476</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2">
-        <v>500</v>
+      <c r="G3" s="18">
+        <v>750</v>
       </c>
       <c r="H3" s="2">
         <v>50</v>
@@ -12233,14 +13448,14 @@
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="39" t="s">
-        <v>488</v>
+      <c r="E4" s="9" t="s">
+        <v>477</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="2">
-        <v>750</v>
+      <c r="G4" s="18">
+        <v>1125</v>
       </c>
       <c r="H4" s="2">
         <v>100</v>
@@ -12256,8 +13471,8 @@
       <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="3">
-        <v>2</v>
+      <c r="C5" s="37">
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>18</v>
@@ -12266,13 +13481,13 @@
         <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H5" s="3">
-        <v>100</v>
+        <v>292</v>
+      </c>
+      <c r="G5" s="36">
+        <v>1500</v>
+      </c>
+      <c r="H5" s="37">
+        <v>200</v>
       </c>
       <c r="I5" s="3">
         <v>50</v>
@@ -12297,8 +13512,8 @@
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="2">
-        <v>500</v>
+      <c r="G6" s="18">
+        <v>750</v>
       </c>
       <c r="H6" s="2">
         <v>50</v>
@@ -12326,8 +13541,8 @@
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="2">
-        <v>1000</v>
+      <c r="G7" s="18">
+        <v>1500</v>
       </c>
       <c r="H7" s="2">
         <v>150</v>
@@ -12355,8 +13570,8 @@
       <c r="F8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="9">
-        <v>2000</v>
+      <c r="G8" s="18">
+        <v>3000</v>
       </c>
       <c r="H8" s="2">
         <v>50</v>
@@ -12384,8 +13599,8 @@
       <c r="F9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="9">
-        <v>3000</v>
+      <c r="G9" s="18">
+        <v>4500</v>
       </c>
       <c r="H9" s="2">
         <v>150</v>
@@ -12413,8 +13628,8 @@
       <c r="F10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="9">
-        <v>4500</v>
+      <c r="G10" s="18">
+        <v>6750</v>
       </c>
       <c r="H10" s="2">
         <v>150</v>
@@ -12442,8 +13657,8 @@
       <c r="F11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="9">
-        <v>6000</v>
+      <c r="G11" s="18">
+        <v>9000</v>
       </c>
       <c r="H11" s="2">
         <v>150</v>
@@ -12453,37 +13668,37 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="B12" s="24">
-        <v>20</v>
-      </c>
-      <c r="C12" s="24">
-        <v>8</v>
-      </c>
-      <c r="D12" s="24" t="s">
+      <c r="A12" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B12" s="9">
+        <v>189</v>
+      </c>
+      <c r="C12" s="9">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="25">
-        <v>8000</v>
-      </c>
-      <c r="H12" s="24">
-        <v>200</v>
-      </c>
-      <c r="I12" s="24">
+      <c r="E12" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="G12" s="18">
+        <v>6750</v>
+      </c>
+      <c r="H12" s="9">
         <v>100</v>
+      </c>
+      <c r="I12" s="9">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B13" s="6">
         <v>42</v>
@@ -12495,10 +13710,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G13" s="10">
         <v>2000</v>
@@ -12512,7 +13727,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B14" s="6">
         <v>43</v>
@@ -12524,10 +13739,10 @@
         <v>7</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G14" s="10">
         <v>3000</v>
@@ -12541,7 +13756,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B15" s="6">
         <v>44</v>
@@ -12553,10 +13768,10 @@
         <v>7</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G15" s="10">
         <v>5000</v>
@@ -12570,7 +13785,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B16" s="8">
         <v>79</v>
@@ -12579,16 +13794,16 @@
         <v>6</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G16" s="14">
-        <v>4000</v>
+        <v>211</v>
+      </c>
+      <c r="G16" s="18">
+        <v>6000</v>
       </c>
       <c r="H16" s="8">
         <v>50</v>
@@ -12599,7 +13814,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B17" s="8">
         <v>80</v>
@@ -12611,13 +13826,13 @@
         <v>7</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="G17" s="14">
-        <v>25000</v>
+        <v>214</v>
+      </c>
+      <c r="G17" s="18">
+        <v>37500</v>
       </c>
       <c r="H17" s="8">
         <v>200</v>
@@ -12626,12 +13841,12 @@
         <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B18" s="8">
         <v>81</v>
@@ -12643,10 +13858,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G18" s="14">
         <v>2000000</v>
@@ -12660,7 +13875,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B19" s="8">
         <v>82</v>
@@ -12672,10 +13887,10 @@
         <v>13</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G19" s="14">
         <v>2000000</v>
@@ -12689,7 +13904,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B20" s="8">
         <v>83</v>
@@ -12701,10 +13916,10 @@
         <v>13</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G20" s="14">
         <v>2000000</v>
@@ -12718,7 +13933,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B21" s="8">
         <v>84</v>
@@ -12730,10 +13945,10 @@
         <v>13</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G21" s="14">
         <v>2000000</v>
@@ -12747,7 +13962,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B22" s="8">
         <v>85</v>
@@ -12759,10 +13974,10 @@
         <v>13</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G22" s="14">
         <v>2000000</v>
@@ -12776,7 +13991,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B23" s="8">
         <v>86</v>
@@ -12788,10 +14003,10 @@
         <v>13</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G23" s="14">
         <v>2000000</v>
@@ -12805,7 +14020,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B24" s="8">
         <v>95</v>
@@ -12817,13 +14032,13 @@
         <v>7</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="G24" s="14">
-        <v>1000</v>
+        <v>277</v>
+      </c>
+      <c r="G24" s="18">
+        <v>1500</v>
       </c>
       <c r="H24" s="8">
         <v>250</v>
@@ -12834,7 +14049,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B25" s="8">
         <v>109</v>
@@ -12846,13 +14061,13 @@
         <v>7</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="G25" s="14">
-        <v>3000</v>
+        <v>290</v>
+      </c>
+      <c r="G25" s="18">
+        <v>4500</v>
       </c>
       <c r="H25" s="8">
         <v>100</v>
@@ -12863,7 +14078,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B26" s="8">
         <v>110</v>
@@ -12872,16 +14087,16 @@
         <v>95</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="G26" s="14">
-        <v>1500</v>
+        <v>291</v>
+      </c>
+      <c r="G26" s="18">
+        <v>2250</v>
       </c>
       <c r="H26" s="8">
         <v>250</v>
@@ -12892,7 +14107,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B27" s="8">
         <v>114</v>
@@ -12904,13 +14119,13 @@
         <v>7</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="G27" s="14">
-        <v>1250</v>
+        <v>299</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1875</v>
       </c>
       <c r="H27" s="8">
         <v>300</v>
@@ -12921,7 +14136,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B28" s="6">
         <v>115</v>
@@ -12933,10 +14148,10 @@
         <v>7</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="G28" s="10">
         <v>8000</v>
@@ -12950,7 +14165,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B29" s="6">
         <v>116</v>
@@ -12962,10 +14177,10 @@
         <v>7</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G29" s="10">
         <v>4000</v>
@@ -12979,7 +14194,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B30" s="6">
         <v>162</v>
@@ -12991,7 +14206,7 @@
         <v>7</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="10">
@@ -13006,7 +14221,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="B31" s="8">
         <v>163</v>
@@ -13018,10 +14233,10 @@
         <v>13</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G31" s="14">
         <v>200000</v>
@@ -13034,35 +14249,35 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
-        <v>452</v>
-      </c>
-      <c r="B32" s="37">
+      <c r="A32" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="B32" s="33">
         <v>164</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="33">
         <v>5</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="37" t="s">
-        <v>453</v>
-      </c>
-      <c r="F32" s="37"/>
+      <c r="E32" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="F32" s="33"/>
       <c r="G32" s="38">
-        <v>1000</v>
-      </c>
-      <c r="H32" s="37">
+        <v>1500</v>
+      </c>
+      <c r="H32" s="33">
         <v>200</v>
       </c>
-      <c r="I32" s="38">
+      <c r="I32" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="B33" s="8">
         <v>173</v>
@@ -13074,13 +14289,13 @@
         <v>7</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="G33" s="14">
-        <v>1000</v>
+        <v>465</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1500</v>
       </c>
       <c r="H33" s="8">
         <v>300</v>
@@ -13091,7 +14306,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="B34" s="7">
         <v>174</v>
@@ -13103,13 +14318,13 @@
         <v>7</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="G34" s="7">
-        <v>1500</v>
+        <v>475</v>
+      </c>
+      <c r="G34" s="25">
+        <v>2250</v>
       </c>
       <c r="H34" s="7">
         <v>300</v>
@@ -13130,6 +14345,781 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA58949-CA8E-4C0F-A49C-2147FCB4A110}">
+  <sheetPr>
+    <tabColor rgb="FF9966FF"/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="6">
+        <v>96</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="G2" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="10">
+        <v>350</v>
+      </c>
+      <c r="I2" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3" s="6">
+        <v>108</v>
+      </c>
+      <c r="C3" s="10">
+        <v>96</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="10">
+        <v>350</v>
+      </c>
+      <c r="I3" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" s="14">
+        <v>120</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="G4" s="14">
+        <v>500</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" s="14">
+        <v>121</v>
+      </c>
+      <c r="C5" s="14">
+        <v>120</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="G5" s="14">
+        <v>500</v>
+      </c>
+      <c r="H5" s="14">
+        <v>50</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="B6" s="14">
+        <v>122</v>
+      </c>
+      <c r="C6" s="14">
+        <v>121</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="G6" s="14">
+        <v>500</v>
+      </c>
+      <c r="H6" s="14">
+        <v>100</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="B7" s="14">
+        <v>123</v>
+      </c>
+      <c r="C7" s="14">
+        <v>122</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G7" s="14">
+        <v>500</v>
+      </c>
+      <c r="H7" s="14">
+        <v>150</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" s="14">
+        <v>124</v>
+      </c>
+      <c r="C8" s="14">
+        <v>123</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="G8" s="14">
+        <v>500</v>
+      </c>
+      <c r="H8" s="14">
+        <v>150</v>
+      </c>
+      <c r="I8" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9" s="14">
+        <v>125</v>
+      </c>
+      <c r="C9" s="14">
+        <v>124</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="14">
+        <v>150</v>
+      </c>
+      <c r="I9" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B10" s="14">
+        <v>126</v>
+      </c>
+      <c r="C10" s="14">
+        <v>125</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="14">
+        <v>200</v>
+      </c>
+      <c r="I10" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="B11" s="14">
+        <v>127</v>
+      </c>
+      <c r="C11" s="14">
+        <v>123</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="G11" s="14">
+        <v>500</v>
+      </c>
+      <c r="H11" s="14">
+        <v>200</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="B12" s="14">
+        <v>128</v>
+      </c>
+      <c r="C12" s="14">
+        <v>127</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14">
+        <v>500</v>
+      </c>
+      <c r="H12" s="14">
+        <v>200</v>
+      </c>
+      <c r="I12" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="B13" s="14">
+        <v>129</v>
+      </c>
+      <c r="C13" s="14">
+        <v>128</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="14">
+        <v>250</v>
+      </c>
+      <c r="I13" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="B14" s="14">
+        <v>130</v>
+      </c>
+      <c r="C14" s="14">
+        <v>129</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="14">
+        <v>300</v>
+      </c>
+      <c r="I14" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="B15" s="14">
+        <v>131</v>
+      </c>
+      <c r="C15" s="14">
+        <v>127</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="G15" s="14">
+        <v>500</v>
+      </c>
+      <c r="H15" s="14">
+        <v>250</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="B16" s="14">
+        <v>132</v>
+      </c>
+      <c r="C16" s="14">
+        <v>131</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="G16" s="14">
+        <v>500</v>
+      </c>
+      <c r="H16" s="14">
+        <v>300</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B17" s="14">
+        <v>133</v>
+      </c>
+      <c r="C17" s="14">
+        <v>132</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14">
+        <v>500</v>
+      </c>
+      <c r="H17" s="14">
+        <v>350</v>
+      </c>
+      <c r="I17" s="14">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="B18" s="14">
+        <v>134</v>
+      </c>
+      <c r="C18" s="14">
+        <v>133</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="G18" s="14">
+        <v>500</v>
+      </c>
+      <c r="H18" s="14">
+        <v>350</v>
+      </c>
+      <c r="I18" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B19" s="10">
+        <v>135</v>
+      </c>
+      <c r="C19" s="10">
+        <v>108</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H19" s="10">
+        <v>300</v>
+      </c>
+      <c r="I19" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B20" s="10">
+        <v>136</v>
+      </c>
+      <c r="C20" s="10">
+        <v>135</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="10">
+        <v>250</v>
+      </c>
+      <c r="I20" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B21" s="10">
+        <v>137</v>
+      </c>
+      <c r="C21" s="10">
+        <v>136</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="10">
+        <v>200</v>
+      </c>
+      <c r="I21" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B22" s="10">
+        <v>138</v>
+      </c>
+      <c r="C22" s="10">
+        <v>137</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="6">
+        <v>200</v>
+      </c>
+      <c r="I22" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B23" s="10">
+        <v>139</v>
+      </c>
+      <c r="C23" s="10">
+        <v>138</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H23" s="6">
+        <v>150</v>
+      </c>
+      <c r="I23" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B24" s="10">
+        <v>140</v>
+      </c>
+      <c r="C24" s="10">
+        <v>139</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="G24" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H24" s="6">
+        <v>150</v>
+      </c>
+      <c r="I24" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B25" s="10">
+        <v>141</v>
+      </c>
+      <c r="C25" s="10">
+        <v>140</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H25" s="6">
+        <v>100</v>
+      </c>
+      <c r="I25" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B26" s="10">
+        <v>142</v>
+      </c>
+      <c r="C26" s="10">
+        <v>141</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="G26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="6">
+        <v>50</v>
+      </c>
+      <c r="I26" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B27" s="10">
+        <v>143</v>
+      </c>
+      <c r="C27" s="10">
+        <v>142</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="G27" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="6">
+        <v>50</v>
+      </c>
+      <c r="I27" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="B28" s="32">
+        <v>144</v>
+      </c>
+      <c r="C28" s="32">
+        <v>141</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="G28" s="32">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="31">
+        <v>50</v>
+      </c>
+      <c r="I28" s="31">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA876A25-4A16-4FF9-93CB-168EC0543D4A}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -13176,7 +15166,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="B2" s="2">
         <v>165</v>
@@ -13188,7 +15178,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="18">
@@ -13203,7 +15193,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="B3" s="2">
         <v>166</v>
@@ -13215,7 +15205,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="18">
@@ -13230,7 +15220,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B4" s="2">
         <v>167</v>
@@ -13242,7 +15232,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="18">
@@ -13257,7 +15247,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B5" s="2">
         <v>168</v>
@@ -13269,7 +15259,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="18">
@@ -13284,7 +15274,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B6" s="2">
         <v>169</v>
@@ -13296,7 +15286,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="18">
@@ -13311,7 +15301,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B7" s="2">
         <v>170</v>
@@ -13323,7 +15313,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="18">
@@ -13338,7 +15328,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="B8" s="2">
         <v>171</v>
@@ -13350,7 +15340,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="18">
@@ -13365,7 +15355,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B9" s="7">
         <v>172</v>
@@ -13377,10 +15367,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="27">
+      <c r="G9" s="25">
         <v>1500</v>
       </c>
       <c r="H9" s="16">
@@ -13468,8 +15458,8 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13519,8 +15509,8 @@
       <c r="D2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" t="s">
-        <v>49</v>
+      <c r="E2" s="18" t="s">
+        <v>526</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
@@ -13538,7 +15528,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -13549,11 +15539,11 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>51</v>
+      <c r="E3" s="18" t="s">
+        <v>527</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3" s="18">
         <f>( 1.5 *16000)/2</f>
@@ -13568,7 +15558,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -13579,11 +15569,11 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>54</v>
+      <c r="E4" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G4" s="18">
         <f>( 1.5 *30000)/2</f>
@@ -13598,7 +15588,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5">
         <v>13</v>
@@ -13609,8 +15599,8 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
-        <v>57</v>
+      <c r="E5" s="18" t="s">
+        <v>528</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -13628,7 +15618,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -13639,8 +15629,8 @@
       <c r="D6" t="s">
         <v>48</v>
       </c>
-      <c r="E6" t="s">
-        <v>299</v>
+      <c r="E6" s="18" t="s">
+        <v>289</v>
       </c>
       <c r="F6" t="s">
         <v>32</v>
@@ -13658,7 +15648,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B7" s="11">
         <v>15</v>
@@ -13669,13 +15659,13 @@
       <c r="D7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>60</v>
+      <c r="E7" s="41" t="s">
+        <v>57</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="G7" s="26">
+        <v>293</v>
+      </c>
+      <c r="G7" s="24">
         <f>( 1.5 *45000)/2</f>
         <v>33750</v>
       </c>
@@ -13688,7 +15678,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2">
         <v>45</v>
@@ -13699,11 +15689,11 @@
       <c r="D8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>130</v>
+      <c r="E8" s="9" t="s">
+        <v>531</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G8" s="18">
         <f>( 1.5 *35000)/2</f>
@@ -13718,7 +15708,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2">
         <v>46</v>
@@ -13729,11 +15719,11 @@
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>133</v>
+      <c r="E9" s="9" t="s">
+        <v>530</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G9" s="18">
         <f>( 1.5 *37500)/2</f>
@@ -13748,7 +15738,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B10" s="8">
         <v>111</v>
@@ -13757,13 +15747,13 @@
         <v>13</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>298</v>
+        <v>209</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>288</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G10" s="9">
         <v>30000</v>
@@ -13777,7 +15767,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="B11" s="8">
         <v>184</v>
@@ -13788,11 +15778,11 @@
       <c r="D11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>521</v>
+      <c r="E11" s="14" t="s">
+        <v>510</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="G11" s="2">
         <v>30000</v>
@@ -13806,7 +15796,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="B12" s="8">
         <v>185</v>
@@ -13818,10 +15808,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="G12" s="2">
         <v>30500</v>
@@ -13835,7 +15825,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="B13" s="16">
         <v>186</v>
@@ -13847,10 +15837,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="G13" s="19">
         <v>25000</v>
@@ -13864,7 +15854,7 @@
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -13882,7 +15872,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13921,7 +15911,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <v>16</v>
@@ -13933,10 +15923,10 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G2" s="18">
         <v>26000</v>
@@ -13950,7 +15940,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B3">
         <v>21</v>
@@ -13962,10 +15952,10 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G3" s="18">
         <v>25000</v>
@@ -13979,7 +15969,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B4">
         <v>22</v>
@@ -13991,10 +15981,10 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G4" s="18">
         <v>31250</v>
@@ -14008,7 +15998,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B5">
         <v>23</v>
@@ -14020,10 +16010,10 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G5" s="18">
         <v>37500</v>
@@ -14037,7 +16027,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>29</v>
@@ -14049,10 +16039,10 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G6" s="18">
         <v>32500</v>
@@ -14066,7 +16056,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B7">
         <v>30</v>
@@ -14078,10 +16068,10 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G7" s="18">
         <v>37500</v>
@@ -14095,7 +16085,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B8">
         <v>31</v>
@@ -14107,10 +16097,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F8" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="G8" s="18">
         <v>43750</v>
@@ -14124,7 +16114,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B9">
         <v>32</v>
@@ -14136,10 +16126,10 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G9" s="18">
         <v>75000</v>
@@ -14153,22 +16143,22 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B10">
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
         <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G10" s="18">
         <v>46250</v>
@@ -14182,7 +16172,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B11" s="12">
         <v>34</v>
@@ -14194,12 +16184,12 @@
         <v>7</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="G11" s="28">
+        <v>294</v>
+      </c>
+      <c r="G11" s="26">
         <v>50000</v>
       </c>
       <c r="H11" s="12">
@@ -14211,7 +16201,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B12" s="2">
         <v>48</v>
@@ -14223,10 +16213,10 @@
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G12" s="18">
         <f>( 3 * 35000)/2</f>
@@ -14241,7 +16231,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B13" s="2">
         <v>49</v>
@@ -14253,10 +16243,10 @@
         <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G13" s="18">
         <f>( 3 * 25000)/2</f>
@@ -14271,7 +16261,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B14" s="2">
         <v>50</v>
@@ -14283,10 +16273,10 @@
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G14" s="18">
         <f>( 3 * 30000)/2</f>
@@ -14301,7 +16291,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B15" s="2">
         <v>51</v>
@@ -14313,10 +16303,10 @@
         <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G15" s="18">
         <f>( 3 * 32500)/2</f>
@@ -14331,7 +16321,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B16" s="2">
         <v>52</v>
@@ -14343,10 +16333,10 @@
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G16" s="18">
         <f>( 3 * 35000)/2</f>
@@ -14361,7 +16351,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B17" s="2">
         <v>53</v>
@@ -14373,10 +16363,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G17" s="18">
         <f>( 3 * 30000)/2</f>
@@ -14389,12 +16379,12 @@
         <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B18" s="2">
         <v>54</v>
@@ -14406,10 +16396,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G18" s="18">
         <f>( 3 * 35000)/2</f>
@@ -14424,24 +16414,24 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B19" s="7">
         <v>55</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G19" s="27">
+        <v>140</v>
+      </c>
+      <c r="G19" s="25">
         <f>( 3 * 100000)/2</f>
         <v>150000</v>
       </c>
@@ -14467,7 +16457,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A13" sqref="A13:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14506,7 +16496,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B2" s="18">
         <v>35</v>
@@ -14518,7 +16508,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>32</v>
@@ -14535,7 +16525,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B3" s="18">
         <v>36</v>
@@ -14547,10 +16537,10 @@
         <v>13</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G3" s="18">
         <v>250000</v>
@@ -14564,7 +16554,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B4" s="18">
         <v>37</v>
@@ -14576,10 +16566,10 @@
         <v>7</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G4" s="18">
         <v>67500</v>
@@ -14593,7 +16583,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B5" s="18">
         <v>38</v>
@@ -14605,10 +16595,10 @@
         <v>7</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G5" s="18">
         <v>71250</v>
@@ -14621,25 +16611,25 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="B6" s="29">
+      <c r="A6" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="B6" s="27">
         <v>39</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="27">
         <v>38</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="F6" s="29" t="s">
+      <c r="E6" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="28">
         <v>75000</v>
       </c>
       <c r="H6" s="23">
@@ -14651,7 +16641,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B7" s="9">
         <v>56</v>
@@ -14663,10 +16653,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G7" s="18">
         <v>33750</v>
@@ -14680,7 +16670,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B8" s="9">
         <v>57</v>
@@ -14692,10 +16682,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G8" s="18">
         <v>37500</v>
@@ -14709,7 +16699,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B9" s="9">
         <v>58</v>
@@ -14721,10 +16711,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G9" s="18">
         <v>38750</v>
@@ -14738,7 +16728,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B10" s="9">
         <v>59</v>
@@ -14750,10 +16740,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G10" s="18">
         <v>35000</v>
@@ -14767,7 +16757,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B11" s="9">
         <v>60</v>
@@ -14779,10 +16769,10 @@
         <v>13</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G11" s="18">
         <v>50000</v>
@@ -14796,7 +16786,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B12" s="14">
         <v>107</v>
@@ -14808,10 +16798,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G12" s="18">
         <v>25000</v>
@@ -14819,46 +16809,100 @@
       <c r="H12" s="8">
         <v>50</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="B13" s="14">
+        <v>112</v>
+      </c>
+      <c r="C13" s="14">
+        <v>35</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G13" s="9">
+        <v>25000</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="B14" s="14">
+        <v>187</v>
+      </c>
+      <c r="C14" s="14">
+        <v>112</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="G14" s="14">
+        <v>30000</v>
+      </c>
+      <c r="H14" s="8">
+        <v>50</v>
+      </c>
+      <c r="I14" s="8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="B15" s="19">
+        <v>188</v>
+      </c>
+      <c r="C15" s="19">
+        <v>107</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="G15" s="19">
+        <v>52500</v>
+      </c>
+      <c r="H15" s="16">
+        <v>50</v>
+      </c>
+      <c r="I15" s="16">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>470</v>
-      </c>
-      <c r="B13" s="19">
-        <v>112</v>
-      </c>
-      <c r="C13" s="19">
-        <v>35</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="G13" s="27">
-        <v>25000</v>
-      </c>
-      <c r="H13" s="16">
-        <v>0</v>
-      </c>
-      <c r="I13" s="16">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -14877,7 +16921,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14916,7 +16960,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B2" s="14">
         <v>145</v>
@@ -14928,10 +16972,10 @@
         <v>18</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="G2" s="14">
         <v>75000</v>
@@ -14945,7 +16989,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B3" s="14">
         <v>146</v>
@@ -14957,10 +17001,10 @@
         <v>13</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="G3" s="14">
         <v>75500</v>
@@ -14974,7 +17018,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="B4" s="14">
         <v>147</v>
@@ -14986,10 +17030,10 @@
         <v>13</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="G4" s="14">
         <v>76000</v>
@@ -15003,7 +17047,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B5" s="14">
         <v>148</v>
@@ -15015,10 +17059,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="G5" s="14">
         <v>76000</v>
@@ -15032,7 +17076,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B6" s="14">
         <v>149</v>
@@ -15044,10 +17088,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G6" s="14">
         <v>76500</v>
@@ -15061,7 +17105,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B7" s="14">
         <v>150</v>
@@ -15073,10 +17117,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="G7" s="14">
         <v>76000</v>
@@ -15090,7 +17134,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B8" s="14">
         <v>151</v>
@@ -15102,10 +17146,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="G8" s="14">
         <v>76500</v>
@@ -15119,22 +17163,22 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B9" s="14">
         <v>152</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>421</v>
+        <v>533</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="G9" s="14">
         <v>78500</v>
@@ -15148,7 +17192,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B10" s="14">
         <v>153</v>
@@ -15160,10 +17204,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="G10" s="14">
         <v>100000</v>
@@ -15177,7 +17221,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B11" s="14">
         <v>154</v>
@@ -15189,7 +17233,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14">
@@ -15204,7 +17248,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B12" s="14">
         <v>155</v>
@@ -15216,10 +17260,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="G12" s="14">
         <v>65500</v>
@@ -15233,7 +17277,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="B13" s="14">
         <v>156</v>
@@ -15245,10 +17289,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="G13" s="14">
         <v>66000</v>
@@ -15262,7 +17306,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B14" s="14">
         <v>157</v>
@@ -15274,10 +17318,10 @@
         <v>7</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="G14" s="14">
         <v>65500</v>
@@ -15291,7 +17335,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B15" s="14">
         <v>158</v>
@@ -15303,10 +17347,10 @@
         <v>7</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="G15" s="14">
         <v>66000</v>
@@ -15320,7 +17364,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B16" s="14">
         <v>159</v>
@@ -15332,10 +17376,10 @@
         <v>7</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="G16" s="14">
         <v>66500</v>
@@ -15349,7 +17393,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B17" s="14">
         <v>160</v>
@@ -15361,10 +17405,10 @@
         <v>7</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="G17" s="14">
         <v>66500</v>
@@ -15376,34 +17420,63 @@
         <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>441</v>
-      </c>
-      <c r="B18" s="35">
+      <c r="A18" s="39" t="s">
+        <v>430</v>
+      </c>
+      <c r="B18" s="39">
         <v>161</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="39">
         <v>153</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="35" t="s">
-        <v>442</v>
-      </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="35">
+      <c r="E18" s="39" t="s">
+        <v>431</v>
+      </c>
+      <c r="F18" s="40"/>
+      <c r="G18" s="39">
         <v>75000</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="39">
         <v>200</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18" s="39">
         <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="B19" s="19">
+        <v>190</v>
+      </c>
+      <c r="C19" s="19">
+        <v>149</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="G19" s="19">
+        <v>77000</v>
+      </c>
+      <c r="H19" s="19">
+        <v>150</v>
+      </c>
+      <c r="I19" s="19">
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -15438,19 +17511,19 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -15462,7 +17535,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -15474,10 +17547,10 @@
         <v>18</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G2" s="18">
         <v>77500</v>
@@ -15491,7 +17564,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B3" s="2">
         <v>41</v>
@@ -15503,10 +17576,10 @@
         <v>18</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G3" s="18">
         <v>77500</v>
@@ -15520,7 +17593,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B4" s="2">
         <v>61</v>
@@ -15532,10 +17605,10 @@
         <v>7</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G4" s="18">
         <v>87500</v>
@@ -15549,7 +17622,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B5" s="2">
         <v>62</v>
@@ -15561,10 +17634,10 @@
         <v>48</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G5" s="18">
         <v>125000</v>
@@ -15578,7 +17651,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B6" s="2">
         <v>63</v>
@@ -15590,10 +17663,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G6" s="18">
         <v>150000</v>
@@ -15607,7 +17680,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B7" s="2">
         <v>64</v>
@@ -15619,10 +17692,10 @@
         <v>48</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G7" s="18">
         <v>137500</v>
@@ -15636,7 +17709,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B8" s="2">
         <v>65</v>
@@ -15648,10 +17721,10 @@
         <v>48</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G8" s="18">
         <v>162500</v>
@@ -15665,7 +17738,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B9" s="2">
         <v>66</v>
@@ -15677,10 +17750,10 @@
         <v>48</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G9" s="18">
         <v>225000</v>
@@ -15694,7 +17767,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B10" s="2">
         <v>67</v>
@@ -15706,10 +17779,10 @@
         <v>7</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="G10" s="18">
         <v>100000</v>
@@ -15723,7 +17796,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B11" s="2">
         <v>68</v>
@@ -15735,10 +17808,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G11" s="18">
         <v>112500</v>
@@ -15752,7 +17825,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B12" s="2">
         <v>69</v>
@@ -15764,10 +17837,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G12" s="18">
         <v>125000</v>
@@ -15781,7 +17854,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B13" s="2">
         <v>70</v>
@@ -15793,10 +17866,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G13" s="18">
         <v>100000</v>
@@ -15810,7 +17883,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B14" s="2">
         <v>71</v>
@@ -15822,10 +17895,10 @@
         <v>48</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G14" s="18">
         <v>137500</v>
@@ -15839,7 +17912,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B15" s="2">
         <v>72</v>
@@ -15851,10 +17924,10 @@
         <v>48</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G15" s="18">
         <v>162500</v>
@@ -15868,7 +17941,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B16" s="2">
         <v>73</v>
@@ -15880,10 +17953,10 @@
         <v>48</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G16" s="18">
         <v>212500</v>
@@ -15897,7 +17970,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2">
         <v>74</v>
@@ -15909,10 +17982,10 @@
         <v>48</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G17" s="18">
         <v>275000</v>
@@ -15924,12 +17997,12 @@
         <v>250</v>
       </c>
       <c r="K17" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B18" s="2">
         <v>75</v>
@@ -15941,10 +18014,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G18" s="18">
         <v>200000</v>
@@ -15958,7 +18031,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B19" s="2">
         <v>76</v>
@@ -15970,10 +18043,10 @@
         <v>13</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G19" s="18">
         <v>250000</v>
@@ -15987,24 +18060,24 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B20" s="13">
         <v>77</v>
       </c>
-      <c r="C20" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="D20" s="32" t="s">
+      <c r="C20" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="G20" s="32">
+      <c r="E20" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" s="30">
         <v>125000</v>
       </c>
       <c r="H20" s="13">
@@ -16029,8 +18102,8 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16069,7 +18142,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B2" s="2">
         <v>78</v>
@@ -16081,7 +18154,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>32</v>
@@ -16098,7 +18171,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B3" s="2">
         <v>97</v>
@@ -16110,10 +18183,10 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G3" s="18">
         <v>312500</v>
@@ -16127,7 +18200,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B4" s="2">
         <v>98</v>
@@ -16139,10 +18212,10 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G4" s="18">
         <v>312500</v>
@@ -16156,7 +18229,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B5" s="2">
         <v>99</v>
@@ -16168,10 +18241,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G5" s="18">
         <v>312500</v>
@@ -16185,7 +18258,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B6" s="2">
         <v>100</v>
@@ -16197,10 +18270,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G6" s="18">
         <v>312500</v>
@@ -16214,7 +18287,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B7" s="2">
         <v>101</v>
@@ -16226,10 +18299,10 @@
         <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="G7" s="18">
         <v>250000</v>
@@ -16243,7 +18316,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B8" s="2">
         <v>102</v>
@@ -16255,10 +18328,10 @@
         <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>268</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>277</v>
       </c>
       <c r="G8" s="18">
         <v>250000</v>
@@ -16272,7 +18345,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B9" s="2">
         <v>103</v>
@@ -16284,10 +18357,10 @@
         <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="G9" s="18">
         <v>250000</v>
@@ -16301,7 +18374,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B10" s="2">
         <v>104</v>
@@ -16313,10 +18386,10 @@
         <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="G10" s="18">
         <v>250000</v>
@@ -16330,7 +18403,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B11" s="2">
         <v>105</v>
@@ -16342,12 +18415,12 @@
         <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="G11" s="18">
+        <v>268</v>
+      </c>
+      <c r="G11" s="9">
         <v>250000</v>
       </c>
       <c r="H11" s="2">
@@ -16359,7 +18432,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B12" s="2">
         <v>106</v>
@@ -16371,12 +18444,12 @@
         <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="G12" s="18">
+        <v>268</v>
+      </c>
+      <c r="G12" s="9">
         <v>250000</v>
       </c>
       <c r="H12" s="2">
@@ -16387,64 +18460,91 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B13" s="2">
-        <v>20</v>
+      <c r="A13" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="B13" s="8">
+        <v>191</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>275</v>
+        <v>538</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>282</v>
+        <v>541</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="G13" s="18">
-        <v>500000</v>
-      </c>
-      <c r="H13" s="2">
+        <v>539</v>
+      </c>
+      <c r="G13" s="14">
+        <v>300000</v>
+      </c>
+      <c r="H13" s="8">
         <v>150</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="B14" s="16">
-        <v>113</v>
-      </c>
-      <c r="C14" s="16">
-        <v>20</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="27">
-        <v>150000</v>
-      </c>
-      <c r="H14" s="16">
+      <c r="A14" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="B14" s="8">
+        <v>192</v>
+      </c>
+      <c r="C14" s="2">
+        <v>212</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="14">
+        <v>300000</v>
+      </c>
+      <c r="H14" s="8">
+        <v>250</v>
+      </c>
+      <c r="I14" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="B15" s="7">
+        <v>212</v>
+      </c>
+      <c r="C15" s="7">
+        <v>191</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="19">
+        <v>300000</v>
+      </c>
+      <c r="H15" s="7">
         <v>200</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I15" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -16455,6 +18555,676 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D122A7ED-B1D0-49F0-8895-44C118F91E52}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B2" s="2">
+        <v>193</v>
+      </c>
+      <c r="C2" s="2">
+        <v>192</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="G2" s="18">
+        <v>375000</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B3" s="2">
+        <v>194</v>
+      </c>
+      <c r="C3" s="2">
+        <v>193</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="G3" s="18">
+        <v>350000</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B4" s="2">
+        <v>195</v>
+      </c>
+      <c r="C4" s="2">
+        <v>194</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="G4" s="18">
+        <v>365000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="B5" s="8">
+        <v>196</v>
+      </c>
+      <c r="C5" s="8">
+        <v>195</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="G5" s="18">
+        <v>375000</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="B6" s="8">
+        <v>197</v>
+      </c>
+      <c r="C6" s="8">
+        <v>196</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="G6" s="18">
+        <v>380000</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="B7" s="8">
+        <v>198</v>
+      </c>
+      <c r="C7" s="8">
+        <v>197</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="G7" s="18">
+        <v>390000</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="B8" s="8">
+        <v>199</v>
+      </c>
+      <c r="C8" s="8">
+        <v>196</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="G8" s="18">
+        <v>400000</v>
+      </c>
+      <c r="H8" s="8">
+        <v>50</v>
+      </c>
+      <c r="I8" s="8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="B10" s="8">
+        <v>200</v>
+      </c>
+      <c r="C10" s="8">
+        <v>193</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="G10" s="18">
+        <v>380000</v>
+      </c>
+      <c r="H10" s="8">
+        <v>50</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="B11" s="8">
+        <v>201</v>
+      </c>
+      <c r="C11" s="8">
+        <v>200</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="G11" s="18">
+        <v>400000</v>
+      </c>
+      <c r="H11" s="8">
+        <v>100</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="B12" s="8">
+        <v>202</v>
+      </c>
+      <c r="C12" s="8">
+        <v>201</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="18">
+        <v>400000</v>
+      </c>
+      <c r="H12" s="8">
+        <v>150</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B13" s="8">
+        <v>203</v>
+      </c>
+      <c r="C13" s="8">
+        <v>200</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="G13" s="18">
+        <v>385000</v>
+      </c>
+      <c r="H13" s="8">
+        <v>50</v>
+      </c>
+      <c r="I13" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="B14" s="8">
+        <v>204</v>
+      </c>
+      <c r="C14" s="8">
+        <v>202</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="G14" s="9">
+        <v>410000</v>
+      </c>
+      <c r="H14" s="8">
+        <v>250</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="B15" s="8">
+        <v>205</v>
+      </c>
+      <c r="C15" s="8">
+        <v>204</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="G15" s="14">
+        <v>425000</v>
+      </c>
+      <c r="H15" s="8">
+        <v>200</v>
+      </c>
+      <c r="I15" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="B16" s="8">
+        <v>206</v>
+      </c>
+      <c r="C16" s="8">
+        <v>204</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="G16" s="14">
+        <v>500000</v>
+      </c>
+      <c r="H16" s="8">
+        <v>250</v>
+      </c>
+      <c r="I16" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>580</v>
+      </c>
+      <c r="B18">
+        <v>207</v>
+      </c>
+      <c r="C18">
+        <v>198</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>581</v>
+      </c>
+      <c r="F18" t="s">
+        <v>595</v>
+      </c>
+      <c r="G18" s="14">
+        <v>395000</v>
+      </c>
+      <c r="H18">
+        <v>50</v>
+      </c>
+      <c r="I18">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>583</v>
+      </c>
+      <c r="B19">
+        <v>208</v>
+      </c>
+      <c r="C19">
+        <v>207</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>584</v>
+      </c>
+      <c r="F19" t="s">
+        <v>585</v>
+      </c>
+      <c r="G19" s="14">
+        <v>400000</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>586</v>
+      </c>
+      <c r="B20">
+        <v>209</v>
+      </c>
+      <c r="C20">
+        <v>208</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>587</v>
+      </c>
+      <c r="F20" t="s">
+        <v>588</v>
+      </c>
+      <c r="G20" s="14">
+        <v>410000</v>
+      </c>
+      <c r="H20">
+        <v>150</v>
+      </c>
+      <c r="I20">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>589</v>
+      </c>
+      <c r="B21">
+        <v>210</v>
+      </c>
+      <c r="C21">
+        <v>209</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>590</v>
+      </c>
+      <c r="F21" t="s">
+        <v>562</v>
+      </c>
+      <c r="G21" s="14">
+        <v>415000</v>
+      </c>
+      <c r="H21">
+        <v>200</v>
+      </c>
+      <c r="I21">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>591</v>
+      </c>
+      <c r="B22">
+        <v>211</v>
+      </c>
+      <c r="C22">
+        <v>208</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>592</v>
+      </c>
+      <c r="G22" s="14">
+        <v>450000</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B25" s="9">
+        <v>20</v>
+      </c>
+      <c r="C25" s="9">
+        <v>206</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H25" s="9">
+        <v>250</v>
+      </c>
+      <c r="I25" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="B26" s="19">
+        <v>113</v>
+      </c>
+      <c r="C26" s="19">
+        <v>20</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="25">
+        <v>250000</v>
+      </c>
+      <c r="H26" s="19">
+        <v>250</v>
+      </c>
+      <c r="I26" s="19">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A988A5D5-F790-4A81-8EDB-AEAE24F79C81}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
@@ -16588,7 +19358,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="B5" s="4">
         <v>47</v>
@@ -16600,10 +19370,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G5" s="20">
         <v>2000</v>
@@ -16617,7 +19387,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B6" s="5">
         <v>24</v>
@@ -16629,10 +19399,10 @@
         <v>7</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G6" s="21">
         <v>500</v>
@@ -16646,7 +19416,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B7" s="5">
         <v>25</v>
@@ -16658,10 +19428,10 @@
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G7" s="21">
         <v>1000</v>
@@ -16675,7 +19445,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B8" s="5">
         <v>26</v>
@@ -16687,10 +19457,10 @@
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G8" s="21">
         <v>2000</v>
@@ -16704,7 +19474,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B9" s="5">
         <v>27</v>
@@ -16716,10 +19486,10 @@
         <v>7</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G9" s="21">
         <v>4000</v>
@@ -16733,7 +19503,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B10" s="5">
         <v>28</v>
@@ -16745,10 +19515,10 @@
         <v>48</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G10" s="21">
         <v>8000</v>
@@ -16762,7 +19532,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B11" s="15">
         <v>87</v>
@@ -16774,10 +19544,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G11" s="22">
         <v>500</v>
@@ -16791,7 +19561,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B12" s="15">
         <v>88</v>
@@ -16803,10 +19573,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G12" s="15">
         <v>500</v>
@@ -16820,7 +19590,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B13" s="15">
         <v>89</v>
@@ -16832,10 +19602,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="G13" s="15">
         <v>500</v>
@@ -16849,7 +19619,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B14" s="15">
         <v>90</v>
@@ -16861,10 +19631,10 @@
         <v>7</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="G14" s="15">
         <v>500</v>
@@ -16878,7 +19648,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B15" s="15">
         <v>91</v>
@@ -16887,13 +19657,13 @@
         <v>90</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G15" s="15">
         <v>500</v>
@@ -16907,7 +19677,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B16" s="15">
         <v>92</v>
@@ -16919,10 +19689,10 @@
         <v>7</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G16" s="15">
         <v>500</v>
@@ -16936,7 +19706,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B17" s="15">
         <v>93</v>
@@ -16948,10 +19718,10 @@
         <v>7</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G17" s="15">
         <v>500</v>
@@ -16963,12 +19733,12 @@
         <v>50</v>
       </c>
       <c r="K17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B18" s="15">
         <v>94</v>
@@ -16980,10 +19750,10 @@
         <v>7</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G18" s="15">
         <v>500</v>
@@ -16997,7 +19767,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B19" s="15">
         <v>117</v>
@@ -17009,10 +19779,10 @@
         <v>7</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="G19" s="15">
         <v>500</v>
@@ -17026,7 +19796,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B20" s="15">
         <v>118</v>
@@ -17038,10 +19808,10 @@
         <v>7</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G20" s="15">
         <v>1000</v>
@@ -17055,7 +19825,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B21" s="15">
         <v>119</v>
@@ -17067,10 +19837,10 @@
         <v>7</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="G21" s="15">
         <v>1000</v>
@@ -17084,7 +19854,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="B22" s="15">
         <v>175</v>
@@ -17096,10 +19866,10 @@
         <v>7</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="G22" s="15">
         <v>1000</v>
@@ -17113,7 +19883,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="B23" s="4">
         <v>176</v>
@@ -17125,10 +19895,10 @@
         <v>7</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="G23" s="4">
         <v>1000</v>
@@ -17140,12 +19910,12 @@
         <v>150</v>
       </c>
       <c r="K23" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="B24" s="4">
         <v>177</v>
@@ -17157,10 +19927,10 @@
         <v>7</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="G24" s="4">
         <v>1000</v>
@@ -17172,12 +19942,12 @@
         <v>150</v>
       </c>
       <c r="K24" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="B25" s="4">
         <v>178</v>
@@ -17189,10 +19959,10 @@
         <v>7</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="G25" s="4">
         <v>1000</v>
@@ -17204,12 +19974,12 @@
         <v>150</v>
       </c>
       <c r="K25" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="B26" s="4">
         <v>179</v>
@@ -17221,10 +19991,10 @@
         <v>7</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="G26" s="4">
         <v>1000</v>
@@ -17238,7 +20008,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="B27" s="4">
         <v>180</v>
@@ -17250,10 +20020,10 @@
         <v>7</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="G27" s="4">
         <v>1000</v>
@@ -17267,7 +20037,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="B28" s="4">
         <v>181</v>
@@ -17279,10 +20049,10 @@
         <v>7</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="G28" s="4">
         <v>1000</v>
@@ -17296,7 +20066,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="B29" s="4">
         <v>182</v>
@@ -17308,10 +20078,10 @@
         <v>7</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="G29" s="4">
         <v>1000</v>
@@ -17324,31 +20094,31 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
-        <v>517</v>
-      </c>
-      <c r="B30" s="40">
+      <c r="A30" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="B30" s="35">
         <v>183</v>
       </c>
-      <c r="C30" s="40">
+      <c r="C30" s="35">
         <v>182</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="40" t="s">
-        <v>518</v>
-      </c>
-      <c r="F30" s="40" t="s">
-        <v>519</v>
-      </c>
-      <c r="G30" s="40">
+      <c r="E30" s="35" t="s">
+        <v>507</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>508</v>
+      </c>
+      <c r="G30" s="35">
         <v>1500</v>
       </c>
-      <c r="H30" s="40">
+      <c r="H30" s="35">
         <v>350</v>
       </c>
-      <c r="I30" s="40">
+      <c r="I30" s="35">
         <v>150</v>
       </c>
     </row>
@@ -17356,779 +20126,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA58949-CA8E-4C0F-A49C-2147FCB4A110}">
-  <sheetPr>
-    <tabColor rgb="FF9966FF"/>
-  </sheetPr>
-  <dimension ref="A1:K28"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="9" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" s="6">
-        <v>96</v>
-      </c>
-      <c r="C2" s="10">
-        <v>134</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="G2" s="10">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="10">
-        <v>350</v>
-      </c>
-      <c r="I2" s="10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B3" s="6">
-        <v>108</v>
-      </c>
-      <c r="C3" s="10">
-        <v>96</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="G3" s="10">
-        <v>1000</v>
-      </c>
-      <c r="H3" s="10">
-        <v>350</v>
-      </c>
-      <c r="I3" s="10">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="B4" s="14">
-        <v>120</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="G4" s="14">
-        <v>500</v>
-      </c>
-      <c r="H4" s="14">
-        <v>0</v>
-      </c>
-      <c r="I4" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="B5" s="14">
-        <v>121</v>
-      </c>
-      <c r="C5" s="14">
-        <v>120</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="G5" s="14">
-        <v>500</v>
-      </c>
-      <c r="H5" s="14">
-        <v>50</v>
-      </c>
-      <c r="I5" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="B6" s="14">
-        <v>122</v>
-      </c>
-      <c r="C6" s="14">
-        <v>121</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="G6" s="14">
-        <v>500</v>
-      </c>
-      <c r="H6" s="14">
-        <v>100</v>
-      </c>
-      <c r="I6" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="B7" s="14">
-        <v>123</v>
-      </c>
-      <c r="C7" s="14">
-        <v>122</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="G7" s="14">
-        <v>500</v>
-      </c>
-      <c r="H7" s="14">
-        <v>150</v>
-      </c>
-      <c r="I7" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="B8" s="14">
-        <v>124</v>
-      </c>
-      <c r="C8" s="14">
-        <v>123</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="G8" s="14">
-        <v>500</v>
-      </c>
-      <c r="H8" s="14">
-        <v>150</v>
-      </c>
-      <c r="I8" s="14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="B9" s="14">
-        <v>125</v>
-      </c>
-      <c r="C9" s="14">
-        <v>124</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="G9" s="14">
-        <v>1000</v>
-      </c>
-      <c r="H9" s="14">
-        <v>150</v>
-      </c>
-      <c r="I9" s="14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="B10" s="14">
-        <v>126</v>
-      </c>
-      <c r="C10" s="14">
-        <v>125</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="G10" s="14">
-        <v>1000</v>
-      </c>
-      <c r="H10" s="14">
-        <v>200</v>
-      </c>
-      <c r="I10" s="14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="B11" s="14">
-        <v>127</v>
-      </c>
-      <c r="C11" s="14">
-        <v>123</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="G11" s="14">
-        <v>500</v>
-      </c>
-      <c r="H11" s="14">
-        <v>200</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="B12" s="14">
-        <v>128</v>
-      </c>
-      <c r="C12" s="14">
-        <v>127</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14">
-        <v>500</v>
-      </c>
-      <c r="H12" s="14">
-        <v>200</v>
-      </c>
-      <c r="I12" s="14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="B13" s="14">
-        <v>129</v>
-      </c>
-      <c r="C13" s="14">
-        <v>128</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14">
-        <v>1000</v>
-      </c>
-      <c r="H13" s="14">
-        <v>250</v>
-      </c>
-      <c r="I13" s="14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="B14" s="14">
-        <v>130</v>
-      </c>
-      <c r="C14" s="14">
-        <v>129</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14">
-        <v>1000</v>
-      </c>
-      <c r="H14" s="14">
-        <v>300</v>
-      </c>
-      <c r="I14" s="14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="B15" s="14">
-        <v>131</v>
-      </c>
-      <c r="C15" s="14">
-        <v>127</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="G15" s="14">
-        <v>500</v>
-      </c>
-      <c r="H15" s="14">
-        <v>250</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="B16" s="14">
-        <v>132</v>
-      </c>
-      <c r="C16" s="14">
-        <v>131</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="G16" s="14">
-        <v>500</v>
-      </c>
-      <c r="H16" s="14">
-        <v>300</v>
-      </c>
-      <c r="I16" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="B17" s="14">
-        <v>133</v>
-      </c>
-      <c r="C17" s="14">
-        <v>132</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14">
-        <v>500</v>
-      </c>
-      <c r="H17" s="14">
-        <v>350</v>
-      </c>
-      <c r="I17" s="14">
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="B18" s="14">
-        <v>134</v>
-      </c>
-      <c r="C18" s="14">
-        <v>133</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="G18" s="14">
-        <v>500</v>
-      </c>
-      <c r="H18" s="14">
-        <v>350</v>
-      </c>
-      <c r="I18" s="14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="B19" s="10">
-        <v>135</v>
-      </c>
-      <c r="C19" s="10">
-        <v>108</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="G19" s="10">
-        <v>1000</v>
-      </c>
-      <c r="H19" s="10">
-        <v>300</v>
-      </c>
-      <c r="I19" s="10">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="B20" s="10">
-        <v>136</v>
-      </c>
-      <c r="C20" s="10">
-        <v>135</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="G20" s="10">
-        <v>1000</v>
-      </c>
-      <c r="H20" s="10">
-        <v>250</v>
-      </c>
-      <c r="I20" s="10">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="B21" s="10">
-        <v>137</v>
-      </c>
-      <c r="C21" s="10">
-        <v>136</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10">
-        <v>1000</v>
-      </c>
-      <c r="H21" s="10">
-        <v>200</v>
-      </c>
-      <c r="I21" s="10">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="B22" s="10">
-        <v>138</v>
-      </c>
-      <c r="C22" s="10">
-        <v>137</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10">
-        <v>1000</v>
-      </c>
-      <c r="H22" s="6">
-        <v>200</v>
-      </c>
-      <c r="I22" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B23" s="10">
-        <v>139</v>
-      </c>
-      <c r="C23" s="10">
-        <v>138</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10">
-        <v>1000</v>
-      </c>
-      <c r="H23" s="6">
-        <v>150</v>
-      </c>
-      <c r="I23" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="B24" s="10">
-        <v>140</v>
-      </c>
-      <c r="C24" s="10">
-        <v>139</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="G24" s="10">
-        <v>1000</v>
-      </c>
-      <c r="H24" s="6">
-        <v>150</v>
-      </c>
-      <c r="I24" s="6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="B25" s="10">
-        <v>141</v>
-      </c>
-      <c r="C25" s="10">
-        <v>140</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="G25" s="10">
-        <v>1000</v>
-      </c>
-      <c r="H25" s="6">
-        <v>100</v>
-      </c>
-      <c r="I25" s="6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="B26" s="10">
-        <v>142</v>
-      </c>
-      <c r="C26" s="10">
-        <v>141</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="G26" s="10">
-        <v>1000</v>
-      </c>
-      <c r="H26" s="6">
-        <v>50</v>
-      </c>
-      <c r="I26" s="6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="B27" s="10">
-        <v>143</v>
-      </c>
-      <c r="C27" s="10">
-        <v>142</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="G27" s="10">
-        <v>1000</v>
-      </c>
-      <c r="H27" s="6">
-        <v>50</v>
-      </c>
-      <c r="I27" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="B28" s="34">
-        <v>144</v>
-      </c>
-      <c r="C28" s="34">
-        <v>141</v>
-      </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34" t="s">
-        <v>375</v>
-      </c>
-      <c r="F28" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="G28" s="34">
-        <v>1000</v>
-      </c>
-      <c r="H28" s="33">
-        <v>50</v>
-      </c>
-      <c r="I28" s="33">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Quests.xlsx
+++ b/Quests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Documents\GitHub\Craft-to-Exile-Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A4FABE-F352-428A-9625-2E736913F6EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1EE8AA-D51A-431D-B71E-73D988CF7B7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="680" activeTab="6" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="680" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="611">
   <si>
     <t>Quest</t>
   </si>
@@ -1834,6 +1834,48 @@
   </si>
   <si>
     <t>/slash give map @p 60 random 4 5 5</t>
+  </si>
+  <si>
+    <t>quiver:quiver</t>
+  </si>
+  <si>
+    <t>64 arrows</t>
+  </si>
+  <si>
+    <t>Archery Specialization</t>
+  </si>
+  <si>
+    <t>farmingforblockheads:market</t>
+  </si>
+  <si>
+    <t>16 bone_meal</t>
+  </si>
+  <si>
+    <t>Seed Market</t>
+  </si>
+  <si>
+    <t>Automated Feeding</t>
+  </si>
+  <si>
+    <t>Egg Collector</t>
+  </si>
+  <si>
+    <t>Fertilization</t>
+  </si>
+  <si>
+    <t>farmingforblockheads:green_fertilizer, yellow, red</t>
+  </si>
+  <si>
+    <t>farmingforblockheads:feeding_trough</t>
+  </si>
+  <si>
+    <t>farmingforblockheads:chicken_nest</t>
+  </si>
+  <si>
+    <t>32 wheat_seeds</t>
+  </si>
+  <si>
+    <t>32 wheat</t>
   </si>
 </sst>
 </file>
@@ -1971,7 +2013,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2007,13 +2049,14 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6214,10 +6257,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Homestead!$H$2:$H$31</c:f>
+              <c:f>Homestead!$H$2:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -6228,7 +6271,7 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -6304,42 +6347,54 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Homestead!$I$2:$I$31</c:f>
+              <c:f>Homestead!$I$2:$I$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -6378,28 +6433,40 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>150</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>150</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>150</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>150</c:v>
+                <c:pt idx="29">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13337,10 +13404,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G16:G34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13471,7 +13538,7 @@
       <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="36">
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -13483,10 +13550,10 @@
       <c r="F5" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="35">
         <v>1500</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="36">
         <v>200</v>
       </c>
       <c r="I5" s="3">
@@ -14265,7 +14332,7 @@
         <v>442</v>
       </c>
       <c r="F32" s="33"/>
-      <c r="G32" s="38">
+      <c r="G32" s="37">
         <v>1500</v>
       </c>
       <c r="H32" s="33">
@@ -14305,32 +14372,61 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="2">
         <v>174</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="2">
         <v>173</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G34" s="9">
         <v>2250</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="2">
         <v>300</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="2">
         <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>599</v>
+      </c>
+      <c r="B35" s="16">
+        <v>213</v>
+      </c>
+      <c r="C35" s="16">
+        <v>109</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="G35" s="19">
+        <v>4500</v>
+      </c>
+      <c r="H35" s="16">
+        <v>100</v>
+      </c>
+      <c r="I35" s="7">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -15659,7 +15755,7 @@
       <c r="D7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="40" t="s">
         <v>57</v>
       </c>
       <c r="F7" s="11" t="s">
@@ -17424,29 +17520,29 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="38">
         <v>161</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="38">
         <v>153</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="38" t="s">
         <v>431</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="39">
+      <c r="F18" s="39"/>
+      <c r="G18" s="38">
         <v>75000</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="38">
         <v>200</v>
       </c>
-      <c r="I18" s="39">
+      <c r="I18" s="38">
         <v>200</v>
       </c>
     </row>
@@ -18102,8 +18198,8 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19229,15 +19325,17 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H2" sqref="H2:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="20.7109375" customWidth="1"/>
+    <col min="1" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -19295,7 +19393,7 @@
         <v>50</v>
       </c>
       <c r="I2" s="20">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -19324,7 +19422,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="20">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -19353,7 +19451,7 @@
         <v>150</v>
       </c>
       <c r="I4" s="20">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -19379,7 +19477,7 @@
         <v>2000</v>
       </c>
       <c r="H5" s="20">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="I5" s="20">
         <v>250</v>
@@ -19411,7 +19509,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="21">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -19440,7 +19538,7 @@
         <v>50</v>
       </c>
       <c r="I7" s="21">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -19469,7 +19567,7 @@
         <v>100</v>
       </c>
       <c r="I8" s="21">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -19498,7 +19596,7 @@
         <v>150</v>
       </c>
       <c r="I9" s="21">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -19527,7 +19625,7 @@
         <v>200</v>
       </c>
       <c r="I10" s="21">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -19581,10 +19679,10 @@
       <c r="G12" s="15">
         <v>500</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="22">
         <v>50</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="22">
         <v>0</v>
       </c>
     </row>
@@ -19610,10 +19708,10 @@
       <c r="G13" s="15">
         <v>500</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="22">
         <v>100</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="22">
         <v>0</v>
       </c>
     </row>
@@ -19639,10 +19737,10 @@
       <c r="G14" s="15">
         <v>500</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="22">
         <v>150</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="22">
         <v>0</v>
       </c>
     </row>
@@ -19668,10 +19766,10 @@
       <c r="G15" s="15">
         <v>500</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="22">
         <v>200</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="22">
         <v>0</v>
       </c>
     </row>
@@ -19697,10 +19795,10 @@
       <c r="G16" s="15">
         <v>500</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="22">
         <v>250</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="22">
         <v>0</v>
       </c>
     </row>
@@ -19726,10 +19824,10 @@
       <c r="G17" s="15">
         <v>500</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="22">
         <v>150</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="22">
         <v>50</v>
       </c>
       <c r="K17" t="s">
@@ -19758,10 +19856,10 @@
       <c r="G18" s="15">
         <v>500</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="22">
         <v>300</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="22">
         <v>0</v>
       </c>
     </row>
@@ -19787,10 +19885,10 @@
       <c r="G19" s="15">
         <v>500</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="22">
         <v>100</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="22">
         <v>50</v>
       </c>
     </row>
@@ -19816,10 +19914,10 @@
       <c r="G20" s="15">
         <v>1000</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="22">
         <v>250</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="22">
         <v>50</v>
       </c>
     </row>
@@ -19845,10 +19943,10 @@
       <c r="G21" s="15">
         <v>1000</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="22">
         <v>300</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="22">
         <v>50</v>
       </c>
     </row>
@@ -19874,10 +19972,10 @@
       <c r="G22" s="15">
         <v>1000</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="22">
         <v>200</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="22">
         <v>50</v>
       </c>
     </row>
@@ -19903,11 +20001,11 @@
       <c r="G23" s="4">
         <v>1000</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="20">
         <v>100</v>
       </c>
-      <c r="I23" s="4">
-        <v>150</v>
+      <c r="I23" s="20">
+        <v>200</v>
       </c>
       <c r="K23" t="s">
         <v>488</v>
@@ -19935,11 +20033,11 @@
       <c r="G24" s="4">
         <v>1000</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="20">
         <v>200</v>
       </c>
-      <c r="I24" s="4">
-        <v>150</v>
+      <c r="I24" s="20">
+        <v>200</v>
       </c>
       <c r="K24" t="s">
         <v>489</v>
@@ -19967,11 +20065,11 @@
       <c r="G25" s="4">
         <v>1000</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="20">
         <v>250</v>
       </c>
-      <c r="I25" s="4">
-        <v>150</v>
+      <c r="I25" s="20">
+        <v>200</v>
       </c>
       <c r="K25" t="s">
         <v>490</v>
@@ -19999,11 +20097,11 @@
       <c r="G26" s="4">
         <v>1000</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="20">
         <v>150</v>
       </c>
-      <c r="I26" s="4">
-        <v>200</v>
+      <c r="I26" s="20">
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -20028,11 +20126,11 @@
       <c r="G27" s="4">
         <v>1000</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="20">
         <v>250</v>
       </c>
-      <c r="I27" s="4">
-        <v>200</v>
+      <c r="I27" s="20">
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -20057,11 +20155,11 @@
       <c r="G28" s="4">
         <v>1000</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="20">
         <v>300</v>
       </c>
-      <c r="I28" s="4">
-        <v>200</v>
+      <c r="I28" s="20">
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -20086,44 +20184,161 @@
       <c r="G29" s="4">
         <v>1000</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="20">
         <v>300</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B30" s="4">
+        <v>183</v>
+      </c>
+      <c r="C30" s="4">
+        <v>182</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1500</v>
+      </c>
+      <c r="H30" s="20">
+        <v>350</v>
+      </c>
+      <c r="I30" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="B31" s="15">
+        <v>214</v>
+      </c>
+      <c r="C31" s="15">
+        <v>87</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="G31" s="15">
+        <v>500</v>
+      </c>
+      <c r="H31" s="22">
+        <v>0</v>
+      </c>
+      <c r="I31" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="B32" s="15">
+        <v>215</v>
+      </c>
+      <c r="C32" s="15">
+        <v>214</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="G32" s="15">
+        <v>500</v>
+      </c>
+      <c r="H32" s="22">
+        <v>50</v>
+      </c>
+      <c r="I32" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="B33" s="15">
+        <v>216</v>
+      </c>
+      <c r="C33" s="15">
+        <v>215</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="G33" s="15">
+        <v>500</v>
+      </c>
+      <c r="H33" s="15">
+        <v>100</v>
+      </c>
+      <c r="I33" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="41" t="s">
+        <v>604</v>
+      </c>
+      <c r="B34" s="41">
+        <v>217</v>
+      </c>
+      <c r="C34" s="41">
+        <v>216</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>608</v>
+      </c>
+      <c r="F34" s="41" t="s">
+        <v>508</v>
+      </c>
+      <c r="G34" s="41">
+        <v>1000</v>
+      </c>
+      <c r="H34" s="41">
         <v>150</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
-        <v>506</v>
-      </c>
-      <c r="B30" s="35">
-        <v>183</v>
-      </c>
-      <c r="C30" s="35">
-        <v>182</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>507</v>
-      </c>
-      <c r="F30" s="35" t="s">
-        <v>508</v>
-      </c>
-      <c r="G30" s="35">
-        <v>1500</v>
-      </c>
-      <c r="H30" s="35">
-        <v>350</v>
-      </c>
-      <c r="I30" s="35">
-        <v>150</v>
+      <c r="I34" s="42">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Quests.xlsx
+++ b/Quests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1EE8AA-D51A-431D-B71E-73D988CF7B7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754E1D56-BBDB-48BF-B9B9-BADB8C749589}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="680" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="38280" yWindow="2745" windowWidth="29040" windowHeight="16440" tabRatio="680" activeTab="5" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -594,15 +594,9 @@
     <t>64 Rainbow Berries</t>
   </si>
   <si>
-    <t>Source Of Negativity</t>
-  </si>
-  <si>
     <t>1 epic big gear, 1 epic big currency</t>
   </si>
   <si>
-    <t>15 Lobber</t>
-  </si>
-  <si>
     <t>3 Spectre</t>
   </si>
   <si>
@@ -1876,6 +1870,12 @@
   </si>
   <si>
     <t>32 wheat</t>
+  </si>
+  <si>
+    <t>10 Lava Monster</t>
+  </si>
+  <si>
+    <t>Flame On!</t>
   </si>
 </sst>
 </file>
@@ -13406,7 +13406,7 @@
   </sheetPr>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -13487,7 +13487,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
@@ -13516,7 +13516,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>40</v>
@@ -13548,7 +13548,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G5" s="35">
         <v>1500</v>
@@ -13736,7 +13736,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B12" s="9">
         <v>189</v>
@@ -13748,10 +13748,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G12" s="18">
         <v>6750</v>
@@ -13806,7 +13806,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>118</v>
@@ -13852,7 +13852,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B16" s="8">
         <v>79</v>
@@ -13861,13 +13861,13 @@
         <v>6</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>209</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>211</v>
       </c>
       <c r="G16" s="18">
         <v>6000</v>
@@ -13881,7 +13881,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B17" s="8">
         <v>80</v>
@@ -13893,10 +13893,10 @@
         <v>7</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G17" s="18">
         <v>37500</v>
@@ -13913,7 +13913,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B18" s="8">
         <v>81</v>
@@ -13925,10 +13925,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G18" s="14">
         <v>2000000</v>
@@ -13942,7 +13942,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B19" s="8">
         <v>82</v>
@@ -13954,10 +13954,10 @@
         <v>13</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G19" s="14">
         <v>2000000</v>
@@ -13971,7 +13971,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B20" s="8">
         <v>83</v>
@@ -13983,10 +13983,10 @@
         <v>13</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G20" s="14">
         <v>2000000</v>
@@ -14000,7 +14000,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B21" s="8">
         <v>84</v>
@@ -14012,10 +14012,10 @@
         <v>13</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G21" s="14">
         <v>2000000</v>
@@ -14029,7 +14029,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B22" s="8">
         <v>85</v>
@@ -14041,10 +14041,10 @@
         <v>13</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G22" s="14">
         <v>2000000</v>
@@ -14058,7 +14058,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B23" s="8">
         <v>86</v>
@@ -14070,10 +14070,10 @@
         <v>13</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G23" s="14">
         <v>2000000</v>
@@ -14087,7 +14087,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B24" s="8">
         <v>95</v>
@@ -14099,10 +14099,10 @@
         <v>7</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G24" s="18">
         <v>1500</v>
@@ -14116,7 +14116,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B25" s="8">
         <v>109</v>
@@ -14128,10 +14128,10 @@
         <v>7</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G25" s="18">
         <v>4500</v>
@@ -14145,7 +14145,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B26" s="8">
         <v>110</v>
@@ -14154,13 +14154,13 @@
         <v>95</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G26" s="18">
         <v>2250</v>
@@ -14174,7 +14174,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B27" s="8">
         <v>114</v>
@@ -14186,10 +14186,10 @@
         <v>7</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G27" s="18">
         <v>1875</v>
@@ -14203,7 +14203,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B28" s="6">
         <v>115</v>
@@ -14215,10 +14215,10 @@
         <v>7</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G28" s="10">
         <v>8000</v>
@@ -14232,7 +14232,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B29" s="6">
         <v>116</v>
@@ -14244,10 +14244,10 @@
         <v>7</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G29" s="10">
         <v>4000</v>
@@ -14261,7 +14261,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B30" s="6">
         <v>162</v>
@@ -14273,7 +14273,7 @@
         <v>7</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="10">
@@ -14288,7 +14288,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B31" s="8">
         <v>163</v>
@@ -14300,10 +14300,10 @@
         <v>13</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G31" s="14">
         <v>200000</v>
@@ -14317,7 +14317,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B32" s="33">
         <v>164</v>
@@ -14329,7 +14329,7 @@
         <v>7</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="37">
@@ -14344,7 +14344,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B33" s="8">
         <v>173</v>
@@ -14356,10 +14356,10 @@
         <v>7</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G33" s="18">
         <v>1500</v>
@@ -14373,7 +14373,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B34" s="2">
         <v>174</v>
@@ -14385,10 +14385,10 @@
         <v>7</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G34" s="9">
         <v>2250</v>
@@ -14402,7 +14402,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B35" s="16">
         <v>213</v>
@@ -14414,10 +14414,10 @@
         <v>7</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G35" s="19">
         <v>4500</v>
@@ -14487,22 +14487,22 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B2" s="6">
         <v>96</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G2" s="10">
         <v>1000</v>
@@ -14516,7 +14516,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B3" s="6">
         <v>108</v>
@@ -14528,10 +14528,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G3" s="10">
         <v>1000</v>
@@ -14545,7 +14545,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B4" s="14">
         <v>120</v>
@@ -14555,10 +14555,10 @@
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G4" s="14">
         <v>500</v>
@@ -14572,7 +14572,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B5" s="14">
         <v>121</v>
@@ -14582,10 +14582,10 @@
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G5" s="14">
         <v>500</v>
@@ -14599,7 +14599,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B6" s="14">
         <v>122</v>
@@ -14609,10 +14609,10 @@
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G6" s="14">
         <v>500</v>
@@ -14626,7 +14626,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B7" s="14">
         <v>123</v>
@@ -14636,10 +14636,10 @@
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G7" s="14">
         <v>500</v>
@@ -14653,7 +14653,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B8" s="14">
         <v>124</v>
@@ -14663,10 +14663,10 @@
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G8" s="14">
         <v>500</v>
@@ -14680,7 +14680,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B9" s="14">
         <v>125</v>
@@ -14690,10 +14690,10 @@
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G9" s="14">
         <v>1000</v>
@@ -14707,7 +14707,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B10" s="14">
         <v>126</v>
@@ -14717,10 +14717,10 @@
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G10" s="14">
         <v>1000</v>
@@ -14734,7 +14734,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B11" s="14">
         <v>127</v>
@@ -14744,10 +14744,10 @@
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G11" s="14">
         <v>500</v>
@@ -14761,7 +14761,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B12" s="14">
         <v>128</v>
@@ -14771,7 +14771,7 @@
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14">
@@ -14786,7 +14786,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B13" s="14">
         <v>129</v>
@@ -14796,7 +14796,7 @@
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14">
@@ -14811,7 +14811,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B14" s="14">
         <v>130</v>
@@ -14821,7 +14821,7 @@
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14">
@@ -14836,7 +14836,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B15" s="14">
         <v>131</v>
@@ -14846,10 +14846,10 @@
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G15" s="14">
         <v>500</v>
@@ -14863,7 +14863,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B16" s="14">
         <v>132</v>
@@ -14873,10 +14873,10 @@
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G16" s="14">
         <v>500</v>
@@ -14890,7 +14890,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B17" s="14">
         <v>133</v>
@@ -14900,7 +14900,7 @@
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14">
@@ -14918,7 +14918,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B18" s="14">
         <v>134</v>
@@ -14928,10 +14928,10 @@
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G18" s="14">
         <v>500</v>
@@ -14945,7 +14945,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B19" s="10">
         <v>135</v>
@@ -14955,10 +14955,10 @@
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G19" s="10">
         <v>1000</v>
@@ -14972,7 +14972,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B20" s="10">
         <v>136</v>
@@ -14982,10 +14982,10 @@
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G20" s="10">
         <v>1000</v>
@@ -14999,7 +14999,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B21" s="10">
         <v>137</v>
@@ -15009,7 +15009,7 @@
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10">
@@ -15024,7 +15024,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B22" s="10">
         <v>138</v>
@@ -15034,7 +15034,7 @@
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10">
@@ -15049,7 +15049,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B23" s="10">
         <v>139</v>
@@ -15059,7 +15059,7 @@
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10">
@@ -15074,7 +15074,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B24" s="10">
         <v>140</v>
@@ -15084,10 +15084,10 @@
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G24" s="10">
         <v>1000</v>
@@ -15101,7 +15101,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B25" s="10">
         <v>141</v>
@@ -15111,10 +15111,10 @@
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G25" s="10">
         <v>1000</v>
@@ -15128,7 +15128,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B26" s="10">
         <v>142</v>
@@ -15138,10 +15138,10 @@
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G26" s="10">
         <v>1000</v>
@@ -15155,7 +15155,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B27" s="10">
         <v>143</v>
@@ -15165,10 +15165,10 @@
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G27" s="10">
         <v>1000</v>
@@ -15182,7 +15182,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B28" s="32">
         <v>144</v>
@@ -15192,10 +15192,10 @@
       </c>
       <c r="D28" s="31"/>
       <c r="E28" s="32" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G28" s="32">
         <v>1000</v>
@@ -15262,7 +15262,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B2" s="2">
         <v>165</v>
@@ -15274,7 +15274,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="18">
@@ -15289,7 +15289,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B3" s="2">
         <v>166</v>
@@ -15301,7 +15301,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="18">
@@ -15316,7 +15316,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B4" s="2">
         <v>167</v>
@@ -15328,7 +15328,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="18">
@@ -15343,7 +15343,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B5" s="2">
         <v>168</v>
@@ -15355,7 +15355,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="18">
@@ -15370,7 +15370,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B6" s="2">
         <v>169</v>
@@ -15382,7 +15382,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="18">
@@ -15397,7 +15397,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B7" s="2">
         <v>170</v>
@@ -15409,7 +15409,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="18">
@@ -15424,7 +15424,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B8" s="2">
         <v>171</v>
@@ -15436,7 +15436,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="18">
@@ -15451,7 +15451,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B9" s="7">
         <v>172</v>
@@ -15463,7 +15463,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="25">
@@ -15606,7 +15606,7 @@
         <v>48</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
@@ -15636,7 +15636,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -15696,7 +15696,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -15726,7 +15726,7 @@
         <v>48</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F6" t="s">
         <v>32</v>
@@ -15759,7 +15759,7 @@
         <v>57</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G7" s="24">
         <f>( 1.5 *45000)/2</f>
@@ -15786,7 +15786,7 @@
         <v>48</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>125</v>
@@ -15816,10 +15816,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G9" s="18">
         <f>( 1.5 *37500)/2</f>
@@ -15834,7 +15834,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B10" s="8">
         <v>111</v>
@@ -15843,13 +15843,13 @@
         <v>13</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G10" s="9">
         <v>30000</v>
@@ -15863,7 +15863,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B11" s="8">
         <v>184</v>
@@ -15875,10 +15875,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G11" s="2">
         <v>30000</v>
@@ -15892,7 +15892,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B12" s="8">
         <v>185</v>
@@ -15904,10 +15904,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G12" s="2">
         <v>30500</v>
@@ -15921,7 +15921,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B13" s="16">
         <v>186</v>
@@ -15933,10 +15933,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G13" s="19">
         <v>25000</v>
@@ -15950,7 +15950,7 @@
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -16196,7 +16196,7 @@
         <v>102</v>
       </c>
       <c r="F8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G8" s="18">
         <v>43750</v>
@@ -16283,7 +16283,7 @@
         <v>94</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G11" s="26">
         <v>50000</v>
@@ -16297,7 +16297,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B12" s="2">
         <v>48</v>
@@ -16309,7 +16309,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>127</v>
@@ -16357,7 +16357,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B14" s="2">
         <v>50</v>
@@ -16387,7 +16387,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B15" s="2">
         <v>51</v>
@@ -16417,7 +16417,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B16" s="2">
         <v>52</v>
@@ -16475,7 +16475,7 @@
         <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -16636,7 +16636,7 @@
         <v>95</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G3" s="18">
         <v>250000</v>
@@ -16708,7 +16708,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B6" s="27">
         <v>39</v>
@@ -16720,7 +16720,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>32</v>
@@ -16766,7 +16766,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B8" s="9">
         <v>57</v>
@@ -16824,7 +16824,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B10" s="9">
         <v>59</v>
@@ -16882,7 +16882,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B12" s="14">
         <v>107</v>
@@ -16894,10 +16894,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G12" s="18">
         <v>25000</v>
@@ -16911,7 +16911,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B13" s="14">
         <v>112</v>
@@ -16923,10 +16923,10 @@
         <v>18</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G13" s="9">
         <v>25000</v>
@@ -16940,7 +16940,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B14" s="14">
         <v>187</v>
@@ -16952,10 +16952,10 @@
         <v>7</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G14" s="14">
         <v>30000</v>
@@ -16969,7 +16969,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B15" s="19">
         <v>188</v>
@@ -16981,10 +16981,10 @@
         <v>7</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G15" s="19">
         <v>52500</v>
@@ -16998,7 +16998,7 @@
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -17056,7 +17056,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B2" s="14">
         <v>145</v>
@@ -17068,10 +17068,10 @@
         <v>18</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G2" s="14">
         <v>75000</v>
@@ -17085,7 +17085,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B3" s="14">
         <v>146</v>
@@ -17097,10 +17097,10 @@
         <v>13</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G3" s="14">
         <v>75500</v>
@@ -17114,7 +17114,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B4" s="14">
         <v>147</v>
@@ -17126,10 +17126,10 @@
         <v>13</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G4" s="14">
         <v>76000</v>
@@ -17143,7 +17143,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B5" s="14">
         <v>148</v>
@@ -17155,10 +17155,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G5" s="14">
         <v>76000</v>
@@ -17172,7 +17172,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B6" s="14">
         <v>149</v>
@@ -17184,10 +17184,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G6" s="14">
         <v>76500</v>
@@ -17201,7 +17201,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B7" s="14">
         <v>150</v>
@@ -17213,10 +17213,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G7" s="14">
         <v>76000</v>
@@ -17230,7 +17230,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B8" s="14">
         <v>151</v>
@@ -17242,10 +17242,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G8" s="14">
         <v>76500</v>
@@ -17259,22 +17259,22 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B9" s="14">
         <v>152</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G9" s="14">
         <v>78500</v>
@@ -17288,7 +17288,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B10" s="14">
         <v>153</v>
@@ -17300,10 +17300,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G10" s="14">
         <v>100000</v>
@@ -17317,7 +17317,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B11" s="14">
         <v>154</v>
@@ -17329,7 +17329,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14">
@@ -17344,7 +17344,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B12" s="14">
         <v>155</v>
@@ -17356,10 +17356,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G12" s="14">
         <v>65500</v>
@@ -17373,7 +17373,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B13" s="14">
         <v>156</v>
@@ -17385,10 +17385,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G13" s="14">
         <v>66000</v>
@@ -17402,7 +17402,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B14" s="14">
         <v>157</v>
@@ -17414,10 +17414,10 @@
         <v>7</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G14" s="14">
         <v>65500</v>
@@ -17431,7 +17431,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B15" s="14">
         <v>158</v>
@@ -17443,10 +17443,10 @@
         <v>7</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G15" s="14">
         <v>66000</v>
@@ -17460,7 +17460,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B16" s="14">
         <v>159</v>
@@ -17472,10 +17472,10 @@
         <v>7</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G16" s="14">
         <v>66500</v>
@@ -17489,7 +17489,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B17" s="14">
         <v>160</v>
@@ -17501,10 +17501,10 @@
         <v>7</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G17" s="14">
         <v>66500</v>
@@ -17516,12 +17516,12 @@
         <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B18" s="38">
         <v>161</v>
@@ -17533,7 +17533,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="38">
@@ -17548,7 +17548,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B19" s="19">
         <v>190</v>
@@ -17560,10 +17560,10 @@
         <v>13</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G19" s="19">
         <v>77000</v>
@@ -17591,8 +17591,8 @@
   </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17660,7 +17660,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B3" s="2">
         <v>41</v>
@@ -17762,7 +17762,7 @@
         <v>156</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G6" s="18">
         <v>150000</v>
@@ -17849,7 +17849,7 @@
         <v>178</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G9" s="18">
         <v>225000</v>
@@ -17921,7 +17921,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B12" s="2">
         <v>69</v>
@@ -18008,7 +18008,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B15" s="2">
         <v>72</v>
@@ -18093,12 +18093,12 @@
         <v>250</v>
       </c>
       <c r="K17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>183</v>
+        <v>610</v>
       </c>
       <c r="B18" s="2">
         <v>75</v>
@@ -18110,7 +18110,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>185</v>
+        <v>609</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>144</v>
@@ -18127,7 +18127,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B19" s="2">
         <v>76</v>
@@ -18139,10 +18139,10 @@
         <v>13</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G19" s="18">
         <v>250000</v>
@@ -18156,22 +18156,22 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B20" s="13">
         <v>77</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G20" s="30">
         <v>125000</v>
@@ -18238,7 +18238,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B2" s="2">
         <v>78</v>
@@ -18250,7 +18250,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>32</v>
@@ -18267,7 +18267,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B3" s="2">
         <v>97</v>
@@ -18279,10 +18279,10 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G3" s="18">
         <v>312500</v>
@@ -18296,7 +18296,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B4" s="2">
         <v>98</v>
@@ -18308,10 +18308,10 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G4" s="18">
         <v>312500</v>
@@ -18325,7 +18325,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B5" s="2">
         <v>99</v>
@@ -18337,10 +18337,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G5" s="18">
         <v>312500</v>
@@ -18354,7 +18354,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B6" s="2">
         <v>100</v>
@@ -18366,10 +18366,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G6" s="18">
         <v>312500</v>
@@ -18383,7 +18383,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B7" s="2">
         <v>101</v>
@@ -18395,10 +18395,10 @@
         <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G7" s="18">
         <v>250000</v>
@@ -18412,7 +18412,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B8" s="2">
         <v>102</v>
@@ -18424,10 +18424,10 @@
         <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G8" s="18">
         <v>250000</v>
@@ -18441,7 +18441,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B9" s="2">
         <v>103</v>
@@ -18453,10 +18453,10 @@
         <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G9" s="18">
         <v>250000</v>
@@ -18470,7 +18470,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B10" s="2">
         <v>104</v>
@@ -18482,10 +18482,10 @@
         <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G10" s="18">
         <v>250000</v>
@@ -18499,7 +18499,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B11" s="2">
         <v>105</v>
@@ -18511,10 +18511,10 @@
         <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G11" s="9">
         <v>250000</v>
@@ -18528,7 +18528,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B12" s="2">
         <v>106</v>
@@ -18540,10 +18540,10 @@
         <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G12" s="9">
         <v>250000</v>
@@ -18557,22 +18557,22 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B13" s="8">
         <v>191</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G13" s="14">
         <v>300000</v>
@@ -18586,7 +18586,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B14" s="8">
         <v>192</v>
@@ -18598,7 +18598,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="14">
@@ -18613,7 +18613,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B15" s="7">
         <v>212</v>
@@ -18625,7 +18625,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="19">
@@ -18640,7 +18640,7 @@
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -18697,7 +18697,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B2" s="2">
         <v>193</v>
@@ -18709,10 +18709,10 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G2" s="18">
         <v>375000</v>
@@ -18726,7 +18726,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B3" s="2">
         <v>194</v>
@@ -18738,10 +18738,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G3" s="18">
         <v>350000</v>
@@ -18755,7 +18755,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B4" s="2">
         <v>195</v>
@@ -18767,10 +18767,10 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G4" s="18">
         <v>365000</v>
@@ -18784,7 +18784,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B5" s="8">
         <v>196</v>
@@ -18796,10 +18796,10 @@
         <v>7</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G5" s="18">
         <v>375000</v>
@@ -18813,7 +18813,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B6" s="8">
         <v>197</v>
@@ -18825,10 +18825,10 @@
         <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G6" s="18">
         <v>380000</v>
@@ -18842,7 +18842,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B7" s="8">
         <v>198</v>
@@ -18854,10 +18854,10 @@
         <v>7</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G7" s="18">
         <v>390000</v>
@@ -18871,7 +18871,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B8" s="8">
         <v>199</v>
@@ -18883,10 +18883,10 @@
         <v>7</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G8" s="18">
         <v>400000</v>
@@ -18900,7 +18900,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B10" s="8">
         <v>200</v>
@@ -18912,10 +18912,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>560</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>562</v>
       </c>
       <c r="G10" s="18">
         <v>380000</v>
@@ -18929,7 +18929,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B11" s="8">
         <v>201</v>
@@ -18941,10 +18941,10 @@
         <v>13</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G11" s="18">
         <v>400000</v>
@@ -18958,7 +18958,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B12" s="8">
         <v>202</v>
@@ -18970,7 +18970,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="18">
@@ -18985,7 +18985,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B13" s="8">
         <v>203</v>
@@ -18997,10 +18997,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G13" s="18">
         <v>385000</v>
@@ -19014,7 +19014,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B14" s="8">
         <v>204</v>
@@ -19026,10 +19026,10 @@
         <v>13</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G14" s="9">
         <v>410000</v>
@@ -19043,7 +19043,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B15" s="8">
         <v>205</v>
@@ -19055,10 +19055,10 @@
         <v>13</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G15" s="14">
         <v>425000</v>
@@ -19072,7 +19072,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B16" s="8">
         <v>206</v>
@@ -19084,10 +19084,10 @@
         <v>13</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G16" s="14">
         <v>500000</v>
@@ -19101,12 +19101,12 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B18">
         <v>207</v>
@@ -19118,10 +19118,10 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F18" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G18" s="14">
         <v>395000</v>
@@ -19135,7 +19135,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B19">
         <v>208</v>
@@ -19147,10 +19147,10 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F19" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G19" s="14">
         <v>400000</v>
@@ -19164,7 +19164,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B20">
         <v>209</v>
@@ -19176,10 +19176,10 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F20" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G20" s="14">
         <v>410000</v>
@@ -19193,7 +19193,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B21">
         <v>210</v>
@@ -19205,10 +19205,10 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F21" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G21" s="14">
         <v>415000</v>
@@ -19222,7 +19222,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B22">
         <v>211</v>
@@ -19234,7 +19234,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G22" s="14">
         <v>450000</v>
@@ -19259,7 +19259,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B25" s="9">
         <v>20</v>
@@ -19271,10 +19271,10 @@
         <v>48</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G25" s="18">
         <v>1000000</v>
@@ -19288,7 +19288,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B26" s="19">
         <v>113</v>
@@ -19300,7 +19300,7 @@
         <v>18</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="25">
@@ -19456,7 +19456,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B5" s="4">
         <v>47</v>
@@ -19468,10 +19468,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G5" s="20">
         <v>2000</v>
@@ -19630,7 +19630,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B11" s="15">
         <v>87</v>
@@ -19642,10 +19642,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G11" s="22">
         <v>500</v>
@@ -19659,7 +19659,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B12" s="15">
         <v>88</v>
@@ -19671,10 +19671,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G12" s="15">
         <v>500</v>
@@ -19688,7 +19688,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B13" s="15">
         <v>89</v>
@@ -19700,10 +19700,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G13" s="15">
         <v>500</v>
@@ -19717,7 +19717,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B14" s="15">
         <v>90</v>
@@ -19729,10 +19729,10 @@
         <v>7</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G14" s="15">
         <v>500</v>
@@ -19746,7 +19746,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B15" s="15">
         <v>91</v>
@@ -19755,13 +19755,13 @@
         <v>90</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G15" s="15">
         <v>500</v>
@@ -19775,7 +19775,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B16" s="15">
         <v>92</v>
@@ -19787,10 +19787,10 @@
         <v>7</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G16" s="15">
         <v>500</v>
@@ -19804,7 +19804,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B17" s="15">
         <v>93</v>
@@ -19816,10 +19816,10 @@
         <v>7</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G17" s="15">
         <v>500</v>
@@ -19836,7 +19836,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B18" s="15">
         <v>94</v>
@@ -19848,10 +19848,10 @@
         <v>7</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G18" s="15">
         <v>500</v>
@@ -19865,7 +19865,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B19" s="15">
         <v>117</v>
@@ -19877,10 +19877,10 @@
         <v>7</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G19" s="15">
         <v>500</v>
@@ -19894,7 +19894,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B20" s="15">
         <v>118</v>
@@ -19906,10 +19906,10 @@
         <v>7</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G20" s="15">
         <v>1000</v>
@@ -19923,7 +19923,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B21" s="15">
         <v>119</v>
@@ -19935,10 +19935,10 @@
         <v>7</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G21" s="15">
         <v>1000</v>
@@ -19952,7 +19952,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B22" s="15">
         <v>175</v>
@@ -19964,10 +19964,10 @@
         <v>7</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G22" s="15">
         <v>1000</v>
@@ -19981,7 +19981,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B23" s="4">
         <v>176</v>
@@ -19993,10 +19993,10 @@
         <v>7</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G23" s="4">
         <v>1000</v>
@@ -20008,12 +20008,12 @@
         <v>200</v>
       </c>
       <c r="K23" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B24" s="4">
         <v>177</v>
@@ -20025,10 +20025,10 @@
         <v>7</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G24" s="4">
         <v>1000</v>
@@ -20040,12 +20040,12 @@
         <v>200</v>
       </c>
       <c r="K24" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B25" s="4">
         <v>178</v>
@@ -20057,10 +20057,10 @@
         <v>7</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G25" s="4">
         <v>1000</v>
@@ -20072,12 +20072,12 @@
         <v>200</v>
       </c>
       <c r="K25" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B26" s="4">
         <v>179</v>
@@ -20089,10 +20089,10 @@
         <v>7</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G26" s="4">
         <v>1000</v>
@@ -20106,7 +20106,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B27" s="4">
         <v>180</v>
@@ -20118,10 +20118,10 @@
         <v>7</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G27" s="4">
         <v>1000</v>
@@ -20135,7 +20135,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B28" s="4">
         <v>181</v>
@@ -20147,10 +20147,10 @@
         <v>7</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G28" s="4">
         <v>1000</v>
@@ -20164,7 +20164,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B29" s="4">
         <v>182</v>
@@ -20176,10 +20176,10 @@
         <v>7</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G29" s="4">
         <v>1000</v>
@@ -20193,7 +20193,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B30" s="4">
         <v>183</v>
@@ -20205,10 +20205,10 @@
         <v>7</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G30" s="4">
         <v>1500</v>
@@ -20222,7 +20222,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B31" s="15">
         <v>214</v>
@@ -20234,10 +20234,10 @@
         <v>7</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G31" s="15">
         <v>500</v>
@@ -20251,7 +20251,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B32" s="15">
         <v>215</v>
@@ -20263,10 +20263,10 @@
         <v>7</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G32" s="15">
         <v>500</v>
@@ -20280,7 +20280,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B33" s="15">
         <v>216</v>
@@ -20292,10 +20292,10 @@
         <v>7</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G33" s="15">
         <v>500</v>
@@ -20309,7 +20309,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B34" s="41">
         <v>217</v>
@@ -20321,10 +20321,10 @@
         <v>7</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F34" s="41" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G34" s="41">
         <v>1000</v>

--- a/Quests.xlsx
+++ b/Quests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754E1D56-BBDB-48BF-B9B9-BADB8C749589}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4EF13C-8034-469D-9333-CFDA27A99A57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2745" windowWidth="29040" windowHeight="16440" tabRatio="680" activeTab="5" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="3210" yWindow="3825" windowWidth="25380" windowHeight="14985" tabRatio="680" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="619">
   <si>
     <t>Quest</t>
   </si>
@@ -1876,6 +1876,30 @@
   </si>
   <si>
     <t>Flame On!</t>
+  </si>
+  <si>
+    <t>Eight Legs</t>
+  </si>
+  <si>
+    <t>8 cave spiders</t>
+  </si>
+  <si>
+    <t>Double Double Toil And Trouble</t>
+  </si>
+  <si>
+    <t>3 witches</t>
+  </si>
+  <si>
+    <t>offhand of choice</t>
+  </si>
+  <si>
+    <t>chest of choice</t>
+  </si>
+  <si>
+    <t>weapon of choice</t>
+  </si>
+  <si>
+    <t>The Long Way</t>
   </si>
 </sst>
 </file>
@@ -13404,10 +13428,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13490,7 +13514,7 @@
         <v>474</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>617</v>
       </c>
       <c r="G3" s="18">
         <v>750</v>
@@ -14427,6 +14451,54 @@
       </c>
       <c r="I35" s="7">
         <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="G36" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="G37" s="14">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="14">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -17591,8 +17663,8 @@
   </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Quests.xlsx
+++ b/Quests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Dissonance-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4EF13C-8034-469D-9333-CFDA27A99A57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED9FAE7-2F05-4C94-A077-3C424AABBB17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="3825" windowWidth="25380" windowHeight="14985" tabRatio="680" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="680" xr2:uid="{52F6E08D-EA9B-4E8E-A88E-E860D0D32EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="620">
   <si>
     <t>Quest</t>
   </si>
@@ -1899,7 +1899,10 @@
     <t>weapon of choice</t>
   </si>
   <si>
-    <t>The Long Way</t>
+    <t>80, 110, 162</t>
+  </si>
+  <si>
+    <t>Taking The Long Route</t>
   </si>
 </sst>
 </file>
@@ -2187,10 +2190,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Overworld!$H$2:$H$34</c:f>
+              <c:f>Overworld!$H$2:$H$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2289,16 +2292,28 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Overworld!$I$2:$I$34</c:f>
+              <c:f>Overworld!$I$2:$I$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2397,6 +2412,18 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13430,8 +13457,8 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14425,31 +14452,31 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="8">
         <v>213</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="8">
         <v>109</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="14">
         <v>4500</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="8">
         <v>100</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="2">
         <v>150</v>
       </c>
     </row>
@@ -14457,6 +14484,12 @@
       <c r="A36" s="8" t="s">
         <v>611</v>
       </c>
+      <c r="B36" s="8">
+        <v>218</v>
+      </c>
+      <c r="C36" s="8">
+        <v>1</v>
+      </c>
       <c r="D36" s="8" t="s">
         <v>13</v>
       </c>
@@ -14468,12 +14501,24 @@
       </c>
       <c r="G36" s="14">
         <v>1000</v>
+      </c>
+      <c r="H36" s="8">
+        <v>75</v>
+      </c>
+      <c r="I36" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>613</v>
       </c>
+      <c r="B37" s="8">
+        <v>219</v>
+      </c>
+      <c r="C37" s="8">
+        <v>218</v>
+      </c>
       <c r="D37" s="8" t="s">
         <v>13</v>
       </c>
@@ -14486,19 +14531,38 @@
       <c r="G37" s="14">
         <v>1250</v>
       </c>
+      <c r="H37" s="8">
+        <v>75</v>
+      </c>
+      <c r="I37" s="2">
+        <v>75</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="16" t="s">
+        <v>619</v>
+      </c>
+      <c r="B38" s="16">
+        <v>220</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G38" s="14">
+      <c r="F38" s="7"/>
+      <c r="G38" s="19">
         <v>10000</v>
+      </c>
+      <c r="H38" s="16">
+        <v>250</v>
+      </c>
+      <c r="I38" s="7">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -16040,7 +16104,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16084,8 +16148,8 @@
       <c r="B2">
         <v>16</v>
       </c>
-      <c r="C2">
-        <v>15</v>
+      <c r="C2" s="18">
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
